--- a/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.00111111291741</v>
+        <v>12.00111111291738</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.173006214625586</v>
+        <v>3.173006214625644</v>
       </c>
       <c r="E2">
-        <v>10.6650253371349</v>
+        <v>10.66502533713495</v>
       </c>
       <c r="F2">
-        <v>35.36184335912344</v>
+        <v>35.36184335912345</v>
       </c>
       <c r="G2">
-        <v>27.62564032629744</v>
+        <v>27.62564032629743</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.255326306368115</v>
+        <v>8.255326306368113</v>
       </c>
       <c r="J2">
-        <v>33.32721993433289</v>
+        <v>33.32721993433288</v>
       </c>
       <c r="K2">
-        <v>21.31423528372251</v>
+        <v>21.31423528372252</v>
       </c>
       <c r="L2">
-        <v>19.021679231012</v>
+        <v>19.02167923101199</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.921765992196496</v>
+        <v>2.921765992196485</v>
       </c>
       <c r="E3">
-        <v>10.34086656358721</v>
+        <v>10.34086656358727</v>
       </c>
       <c r="F3">
-        <v>33.34633045267815</v>
+        <v>33.34633045267816</v>
       </c>
       <c r="G3">
         <v>26.12689464341015</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.186066572763286</v>
+        <v>8.18606657276332</v>
       </c>
       <c r="J3">
-        <v>31.045327090918</v>
+        <v>31.04532709091802</v>
       </c>
       <c r="K3">
         <v>19.8253816925687</v>
       </c>
       <c r="L3">
-        <v>17.72653809156735</v>
+        <v>17.72653809156736</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.81327346236875</v>
+        <v>10.81327346236876</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.763660827805895</v>
+        <v>2.763660827805786</v>
       </c>
       <c r="E4">
-        <v>10.1393555600189</v>
+        <v>10.13935556001885</v>
       </c>
       <c r="F4">
-        <v>32.11399594238888</v>
+        <v>32.11399594238893</v>
       </c>
       <c r="G4">
-        <v>25.21671553788282</v>
+        <v>25.21671553788287</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.144903352865866</v>
+        <v>8.144903352865867</v>
       </c>
       <c r="J4">
-        <v>29.57448663945622</v>
+        <v>29.57448663945621</v>
       </c>
       <c r="K4">
         <v>18.86650377483697</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.62262200962262</v>
+        <v>10.6226220096226</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.698176172724063</v>
+        <v>2.698176172724147</v>
       </c>
       <c r="E5">
-        <v>10.05661960578789</v>
+        <v>10.05661960578777</v>
       </c>
       <c r="F5">
-        <v>31.61339453860664</v>
+        <v>31.61339453860659</v>
       </c>
       <c r="G5">
-        <v>24.84852484402655</v>
+        <v>24.8485248440265</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.128457765604194</v>
+        <v>8.128457765604038</v>
       </c>
       <c r="J5">
-        <v>28.95724901181962</v>
+        <v>28.95724901181968</v>
       </c>
       <c r="K5">
-        <v>18.46426948935851</v>
+        <v>18.46426948935855</v>
       </c>
       <c r="L5">
-        <v>16.54256468150492</v>
+        <v>16.54256468150498</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.59073693506174</v>
+        <v>10.59073693506171</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.687236327342098</v>
+        <v>2.687236327342002</v>
       </c>
       <c r="E6">
-        <v>10.04284438955413</v>
+        <v>10.04284438955424</v>
       </c>
       <c r="F6">
-        <v>31.53037674319823</v>
+        <v>31.53037674319822</v>
       </c>
       <c r="G6">
         <v>24.78755835675056</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.125746493220566</v>
+        <v>8.125746493220666</v>
       </c>
       <c r="J6">
-        <v>28.85366998247579</v>
+        <v>28.85366998247576</v>
       </c>
       <c r="K6">
-        <v>18.39677864587635</v>
+        <v>18.39677864587634</v>
       </c>
       <c r="L6">
-        <v>16.4838651538535</v>
+        <v>16.48386515385346</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.81071761762873</v>
+        <v>10.81071761762874</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.762782063245968</v>
+        <v>2.762782063245871</v>
       </c>
       <c r="E7">
-        <v>10.13824224303436</v>
+        <v>10.1382422430344</v>
       </c>
       <c r="F7">
-        <v>32.10723776412984</v>
+        <v>32.10723776412993</v>
       </c>
       <c r="G7">
-        <v>25.2117386791781</v>
+        <v>25.21173867917818</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.144680247029873</v>
+        <v>8.144680247029958</v>
       </c>
       <c r="J7">
-        <v>29.56623505880135</v>
+        <v>29.56623505880133</v>
       </c>
       <c r="K7">
-        <v>18.86112589980704</v>
+        <v>18.86112589980708</v>
       </c>
       <c r="L7">
         <v>16.88774641258015</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.74749812487066</v>
+        <v>11.74749812487068</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.087119065378738</v>
+        <v>3.087119065378882</v>
       </c>
       <c r="E8">
-        <v>10.5537670772149</v>
+        <v>10.55376707721478</v>
       </c>
       <c r="F8">
-        <v>34.66593371551516</v>
+        <v>34.66593371551509</v>
       </c>
       <c r="G8">
-        <v>27.10686368544791</v>
+        <v>27.10686368544784</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8.231153431829135</v>
+        <v>8.231153431828977</v>
       </c>
       <c r="J8">
-        <v>32.55469503839484</v>
+        <v>32.55469503839485</v>
       </c>
       <c r="K8">
-        <v>20.81000732479708</v>
+        <v>20.81000732479714</v>
       </c>
       <c r="L8">
-        <v>18.58307576602646</v>
+        <v>18.58307576602649</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.68772968427353</v>
+        <v>13.68772968427357</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.697302223817266</v>
+        <v>3.697302223817296</v>
       </c>
       <c r="E9">
-        <v>11.34969341920535</v>
+        <v>11.34969341920531</v>
       </c>
       <c r="F9">
         <v>39.72150043336261</v>
       </c>
       <c r="G9">
-        <v>30.90116208609967</v>
+        <v>30.90116208609965</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.412360402976839</v>
+        <v>8.412360402976759</v>
       </c>
       <c r="J9">
-        <v>37.87828193140477</v>
+        <v>37.87828193140484</v>
       </c>
       <c r="K9">
-        <v>24.28918990507368</v>
+        <v>24.28918990507371</v>
       </c>
       <c r="L9">
-        <v>21.60810246064347</v>
+        <v>21.60810246064353</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.01800762229335</v>
+        <v>15.01800762229337</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.1374888546203</v>
+        <v>4.137488854620374</v>
       </c>
       <c r="E10">
         <v>11.9255680328804</v>
       </c>
       <c r="F10">
-        <v>43.69500307519073</v>
+        <v>43.69500307519066</v>
       </c>
       <c r="G10">
-        <v>34.12270835424652</v>
+        <v>34.12270835424646</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.55411585192387</v>
+        <v>8.55411585192382</v>
       </c>
       <c r="J10">
-        <v>41.48938042996443</v>
+        <v>41.48938042996441</v>
       </c>
       <c r="K10">
-        <v>26.656113107762</v>
+        <v>26.65611310776195</v>
       </c>
       <c r="L10">
         <v>23.66289368553516</v>
@@ -760,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.338096837346658</v>
+        <v>4.338096837346591</v>
       </c>
       <c r="E11">
-        <v>12.18675222234859</v>
+        <v>12.1867522223486</v>
       </c>
       <c r="F11">
-        <v>45.54802179182181</v>
+        <v>45.54802179182186</v>
       </c>
       <c r="G11">
-        <v>35.61299155434261</v>
+        <v>35.61299155434263</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>8.620957989211556</v>
       </c>
       <c r="J11">
-        <v>43.07433750499489</v>
+        <v>43.07433750499492</v>
       </c>
       <c r="K11">
-        <v>27.69705377523801</v>
+        <v>27.69705377523803</v>
       </c>
       <c r="L11">
-        <v>24.56531441930944</v>
+        <v>24.56531441930946</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.81602924224357</v>
+        <v>15.81602924224353</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.414332862349608</v>
+        <v>4.414332862349543</v>
       </c>
       <c r="E12">
-        <v>12.28568536126726</v>
+        <v>12.2856853612672</v>
       </c>
       <c r="F12">
-        <v>46.25027805058921</v>
+        <v>46.25027805058926</v>
       </c>
       <c r="G12">
-        <v>36.17733679738097</v>
+        <v>36.17733679738102</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.646662181444645</v>
+        <v>8.646662181444572</v>
       </c>
       <c r="J12">
-        <v>43.66695514652023</v>
+        <v>43.66695514652017</v>
       </c>
       <c r="K12">
-        <v>28.08661183750852</v>
+        <v>28.08661183750849</v>
       </c>
       <c r="L12">
-        <v>24.90279928998007</v>
+        <v>24.90279928998004</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.76947097717359</v>
+        <v>15.76947097717368</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.397898126927201</v>
+        <v>4.397898126927272</v>
       </c>
       <c r="E13">
-        <v>12.26437433035184</v>
+        <v>12.26437433035191</v>
       </c>
       <c r="F13">
-        <v>46.09898916257399</v>
+        <v>46.09898916257406</v>
       </c>
       <c r="G13">
-        <v>36.05577709668127</v>
+        <v>36.05577709668133</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.641107858859352</v>
+        <v>8.641107858859364</v>
       </c>
       <c r="J13">
-        <v>43.53964797148283</v>
+        <v>43.53964797148295</v>
       </c>
       <c r="K13">
-        <v>28.00290986691162</v>
+        <v>28.00290986691166</v>
       </c>
       <c r="L13">
-        <v>24.83029734461647</v>
+        <v>24.83029734461654</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.61709747979964</v>
+        <v>15.61709747979966</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.344362007485763</v>
+        <v>4.344362007485903</v>
       </c>
       <c r="E14">
-        <v>12.19488996910183</v>
+        <v>12.19488996910199</v>
       </c>
       <c r="F14">
-        <v>45.60577833390145</v>
+        <v>45.60577833390143</v>
       </c>
       <c r="G14">
         <v>35.65941420331845</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.623064464065378</v>
+        <v>8.623064464065447</v>
       </c>
       <c r="J14">
-        <v>43.12323958510441</v>
+        <v>43.12323958510448</v>
       </c>
       <c r="K14">
-        <v>27.72919229644543</v>
+        <v>27.7291922964454</v>
       </c>
       <c r="L14">
-        <v>24.59316195125648</v>
+        <v>24.59316195125646</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.52334770813358</v>
+        <v>15.52334770813359</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.311611952880349</v>
+        <v>4.311611952880344</v>
       </c>
       <c r="E15">
-        <v>12.15233745810254</v>
+        <v>12.15233745810242</v>
       </c>
       <c r="F15">
-        <v>45.30378257786137</v>
+        <v>45.30378257786132</v>
       </c>
       <c r="G15">
-        <v>35.41666331976877</v>
+        <v>35.41666331976874</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.612065313205662</v>
+        <v>8.612065313205562</v>
       </c>
       <c r="J15">
-        <v>42.86721541335288</v>
+        <v>42.86721541335278</v>
       </c>
       <c r="K15">
-        <v>27.56094730572472</v>
+        <v>27.56094730572464</v>
       </c>
       <c r="L15">
-        <v>24.44737042636198</v>
+        <v>24.44737042636193</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.97955971620486</v>
+        <v>14.97955971620489</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.124403666076728</v>
+        <v>4.124403666076565</v>
       </c>
       <c r="E16">
-        <v>11.90849429960348</v>
+        <v>11.90849429960353</v>
       </c>
       <c r="F16">
-        <v>43.5739163307041</v>
+        <v>43.57391633070426</v>
       </c>
       <c r="G16">
-        <v>34.02525968717293</v>
+        <v>34.02525968717305</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.549799261464033</v>
+        <v>8.549799261464154</v>
       </c>
       <c r="J16">
-        <v>41.38469748384954</v>
+        <v>41.3846974838496</v>
       </c>
       <c r="K16">
-        <v>26.58740774526106</v>
+        <v>26.58740774526109</v>
       </c>
       <c r="L16">
-        <v>23.60330112707139</v>
+        <v>23.60330112707142</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.009793182276751</v>
+        <v>4.009793182276768</v>
       </c>
       <c r="E17">
-        <v>11.75879025632702</v>
+        <v>11.75879025632707</v>
       </c>
       <c r="F17">
-        <v>42.51244552834483</v>
+        <v>42.51244552834469</v>
       </c>
       <c r="G17">
-        <v>33.17062219730168</v>
+        <v>33.17062219730159</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.512238698780926</v>
+        <v>8.512238698780921</v>
       </c>
       <c r="J17">
-        <v>40.46091253315125</v>
+        <v>40.46091253315119</v>
       </c>
       <c r="K17">
-        <v>25.98135198831532</v>
+        <v>25.98135198831529</v>
       </c>
       <c r="L17">
-        <v>23.07748206457735</v>
+        <v>23.0774820645773</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.44235808149816</v>
+        <v>14.44235808149811</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.943891408572613</v>
+        <v>3.943891408572625</v>
       </c>
       <c r="E18">
-        <v>11.67259979497124</v>
+        <v>11.6725997949713</v>
       </c>
       <c r="F18">
-        <v>41.90149449839113</v>
+        <v>41.90149449839106</v>
       </c>
       <c r="G18">
-        <v>32.67838514927613</v>
+        <v>32.67838514927608</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.490852777149057</v>
+        <v>8.49085277714912</v>
       </c>
       <c r="J18">
-        <v>39.92408957359204</v>
+        <v>39.92408957359206</v>
       </c>
       <c r="K18">
-        <v>25.62936059605851</v>
+        <v>25.62936059605855</v>
       </c>
       <c r="L18">
-        <v>22.771975379191</v>
+        <v>22.77197537919101</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.37505911808906</v>
+        <v>14.37505911808913</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.921575512004744</v>
+        <v>3.921575512004677</v>
       </c>
       <c r="E19">
-        <v>11.64339906178151</v>
+        <v>11.64339906178146</v>
       </c>
       <c r="F19">
-        <v>41.69453689756375</v>
+        <v>41.69453689756386</v>
       </c>
       <c r="G19">
-        <v>32.51158239730766</v>
+        <v>32.51158239730774</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.483647882488428</v>
+        <v>8.483647882488405</v>
       </c>
       <c r="J19">
-        <v>39.74136794760931</v>
+        <v>39.74136794760935</v>
       </c>
       <c r="K19">
-        <v>25.50958318917459</v>
+        <v>25.50958318917461</v>
       </c>
       <c r="L19">
-        <v>22.66799766296085</v>
+        <v>22.6679976629609</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.67634209690629</v>
+        <v>14.6763420969063</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.02199023654015</v>
+        <v>4.021990236540107</v>
       </c>
       <c r="E20">
-        <v>11.77473438892657</v>
+        <v>11.77473438892656</v>
       </c>
       <c r="F20">
-        <v>42.62547768911444</v>
+        <v>42.62547768911433</v>
       </c>
       <c r="G20">
-        <v>33.26166344804063</v>
+        <v>33.26166344804054</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.516214185737748</v>
+        <v>8.51621418573774</v>
       </c>
       <c r="J20">
-        <v>40.55981391943996</v>
+        <v>40.55981391943991</v>
       </c>
       <c r="K20">
-        <v>26.04621647267174</v>
+        <v>26.04621647267167</v>
       </c>
       <c r="L20">
-        <v>23.13377136994938</v>
+        <v>23.13377136994934</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.66193969173561</v>
+        <v>15.66193969173562</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.360077584280124</v>
+        <v>4.360077584280031</v>
       </c>
       <c r="E21">
-        <v>12.21529708528862</v>
+        <v>12.21529708528855</v>
       </c>
       <c r="F21">
         <v>45.75062097802473</v>
       </c>
       <c r="G21">
-        <v>35.77582672742092</v>
+        <v>35.77582672742091</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.628353095600859</v>
+        <v>8.628353095600819</v>
       </c>
       <c r="J21">
-        <v>43.24574780581868</v>
+        <v>43.2457478058187</v>
       </c>
       <c r="K21">
-        <v>27.80971064632046</v>
+        <v>27.80971064632049</v>
       </c>
       <c r="L21">
-        <v>24.66292591788049</v>
+        <v>24.66292591788051</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.28726782544001</v>
+        <v>16.28726782544004</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.582745892101999</v>
+        <v>4.582745892101965</v>
       </c>
       <c r="E22">
-        <v>12.50349668235472</v>
+        <v>12.50349668235467</v>
       </c>
       <c r="F22">
-        <v>47.79707938782941</v>
+        <v>47.79707938782958</v>
       </c>
       <c r="G22">
-        <v>37.41964421526278</v>
+        <v>37.41964421526293</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.703966200680409</v>
+        <v>8.703966200680433</v>
       </c>
       <c r="J22">
-        <v>44.95747153021904</v>
+        <v>44.95747153021919</v>
       </c>
       <c r="K22">
-        <v>28.93561933878961</v>
+        <v>28.9356193387897</v>
       </c>
       <c r="L22">
-        <v>25.63783249141579</v>
+        <v>25.63783249141587</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.95516634589135</v>
+        <v>15.95516634589141</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.463663614897662</v>
+        <v>4.46366361489759</v>
       </c>
       <c r="E23">
-        <v>12.34959545695179</v>
+        <v>12.34959545695172</v>
       </c>
       <c r="F23">
-        <v>46.70403773302312</v>
+        <v>46.70403773302314</v>
       </c>
       <c r="G23">
         <v>36.54187122821471</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.663375812618334</v>
+        <v>8.663375812618332</v>
       </c>
       <c r="J23">
         <v>44.04761175445781</v>
       </c>
       <c r="K23">
-        <v>28.33694028865717</v>
+        <v>28.33694028865713</v>
       </c>
       <c r="L23">
-        <v>25.11959355808572</v>
+        <v>25.11959355808573</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.65989991115589</v>
+        <v>14.6598999111559</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.016475997283986</v>
+        <v>4.016475997283963</v>
       </c>
       <c r="E24">
-        <v>11.76752644141501</v>
+        <v>11.76752644141491</v>
       </c>
       <c r="F24">
-        <v>42.57437809797861</v>
+        <v>42.57437809797855</v>
       </c>
       <c r="G24">
-        <v>33.2205065514131</v>
+        <v>33.22050655141306</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.514416223522433</v>
+        <v>8.514416223522382</v>
       </c>
       <c r="J24">
-        <v>40.51511849331622</v>
+        <v>40.51511849331629</v>
       </c>
       <c r="K24">
-        <v>26.01690237169589</v>
+        <v>26.01690237169592</v>
       </c>
       <c r="L24">
-        <v>23.10833299132457</v>
+        <v>23.10833299132461</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.17543063075901</v>
+        <v>13.17543063075898</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.534282253859683</v>
+        <v>3.534282253859641</v>
       </c>
       <c r="E25">
-        <v>11.13621559916579</v>
+        <v>11.13621559916586</v>
       </c>
       <c r="F25">
-        <v>38.34946877090842</v>
+        <v>38.34946877090839</v>
       </c>
       <c r="G25">
-        <v>29.86605519335169</v>
+        <v>29.86605519335168</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.361958428447473</v>
+        <v>8.361958428447567</v>
       </c>
       <c r="J25">
-        <v>36.49301735619764</v>
+        <v>36.49301735619765</v>
       </c>
       <c r="K25">
-        <v>23.38279008902479</v>
+        <v>23.38279008902482</v>
       </c>
       <c r="L25">
-        <v>20.82041456530403</v>
+        <v>20.82041456530401</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.00111111291738</v>
+        <v>12.00111111291741</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.173006214625644</v>
+        <v>3.173006214625586</v>
       </c>
       <c r="E2">
-        <v>10.66502533713495</v>
+        <v>10.6650253371349</v>
       </c>
       <c r="F2">
-        <v>35.36184335912345</v>
+        <v>35.36184335912344</v>
       </c>
       <c r="G2">
-        <v>27.62564032629743</v>
+        <v>27.62564032629744</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>8.255326306368113</v>
+        <v>8.255326306368115</v>
       </c>
       <c r="J2">
-        <v>33.32721993433288</v>
+        <v>33.32721993433289</v>
       </c>
       <c r="K2">
-        <v>21.31423528372252</v>
+        <v>21.31423528372251</v>
       </c>
       <c r="L2">
-        <v>19.02167923101199</v>
+        <v>19.021679231012</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.921765992196485</v>
+        <v>2.921765992196496</v>
       </c>
       <c r="E3">
-        <v>10.34086656358727</v>
+        <v>10.34086656358721</v>
       </c>
       <c r="F3">
-        <v>33.34633045267816</v>
+        <v>33.34633045267815</v>
       </c>
       <c r="G3">
         <v>26.12689464341015</v>
@@ -471,16 +471,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.18606657276332</v>
+        <v>8.186066572763286</v>
       </c>
       <c r="J3">
-        <v>31.04532709091802</v>
+        <v>31.045327090918</v>
       </c>
       <c r="K3">
         <v>19.8253816925687</v>
       </c>
       <c r="L3">
-        <v>17.72653809156736</v>
+        <v>17.72653809156735</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.81327346236876</v>
+        <v>10.81327346236875</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.763660827805786</v>
+        <v>2.763660827805895</v>
       </c>
       <c r="E4">
-        <v>10.13935556001885</v>
+        <v>10.1393555600189</v>
       </c>
       <c r="F4">
-        <v>32.11399594238893</v>
+        <v>32.11399594238888</v>
       </c>
       <c r="G4">
-        <v>25.21671553788287</v>
+        <v>25.21671553788282</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.144903352865867</v>
+        <v>8.144903352865866</v>
       </c>
       <c r="J4">
-        <v>29.57448663945621</v>
+        <v>29.57448663945622</v>
       </c>
       <c r="K4">
         <v>18.86650377483697</v>
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.6226220096226</v>
+        <v>10.62262200962262</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.698176172724147</v>
+        <v>2.698176172724063</v>
       </c>
       <c r="E5">
-        <v>10.05661960578777</v>
+        <v>10.05661960578789</v>
       </c>
       <c r="F5">
-        <v>31.61339453860659</v>
+        <v>31.61339453860664</v>
       </c>
       <c r="G5">
-        <v>24.8485248440265</v>
+        <v>24.84852484402655</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.128457765604038</v>
+        <v>8.128457765604194</v>
       </c>
       <c r="J5">
-        <v>28.95724901181968</v>
+        <v>28.95724901181962</v>
       </c>
       <c r="K5">
-        <v>18.46426948935855</v>
+        <v>18.46426948935851</v>
       </c>
       <c r="L5">
-        <v>16.54256468150498</v>
+        <v>16.54256468150492</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.59073693506171</v>
+        <v>10.59073693506174</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.687236327342002</v>
+        <v>2.687236327342098</v>
       </c>
       <c r="E6">
-        <v>10.04284438955424</v>
+        <v>10.04284438955413</v>
       </c>
       <c r="F6">
-        <v>31.53037674319822</v>
+        <v>31.53037674319823</v>
       </c>
       <c r="G6">
         <v>24.78755835675056</v>
@@ -585,16 +585,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.125746493220666</v>
+        <v>8.125746493220566</v>
       </c>
       <c r="J6">
-        <v>28.85366998247576</v>
+        <v>28.85366998247579</v>
       </c>
       <c r="K6">
-        <v>18.39677864587634</v>
+        <v>18.39677864587635</v>
       </c>
       <c r="L6">
-        <v>16.48386515385346</v>
+        <v>16.4838651538535</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.81071761762874</v>
+        <v>10.81071761762873</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.762782063245871</v>
+        <v>2.762782063245968</v>
       </c>
       <c r="E7">
-        <v>10.1382422430344</v>
+        <v>10.13824224303436</v>
       </c>
       <c r="F7">
-        <v>32.10723776412993</v>
+        <v>32.10723776412984</v>
       </c>
       <c r="G7">
-        <v>25.21173867917818</v>
+        <v>25.2117386791781</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.144680247029958</v>
+        <v>8.144680247029873</v>
       </c>
       <c r="J7">
-        <v>29.56623505880133</v>
+        <v>29.56623505880135</v>
       </c>
       <c r="K7">
-        <v>18.86112589980708</v>
+        <v>18.86112589980704</v>
       </c>
       <c r="L7">
         <v>16.88774641258015</v>
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.74749812487068</v>
+        <v>11.74749812487066</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.087119065378882</v>
+        <v>3.087119065378738</v>
       </c>
       <c r="E8">
-        <v>10.55376707721478</v>
+        <v>10.5537670772149</v>
       </c>
       <c r="F8">
-        <v>34.66593371551509</v>
+        <v>34.66593371551516</v>
       </c>
       <c r="G8">
-        <v>27.10686368544784</v>
+        <v>27.10686368544791</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>8.231153431828977</v>
+        <v>8.231153431829135</v>
       </c>
       <c r="J8">
-        <v>32.55469503839485</v>
+        <v>32.55469503839484</v>
       </c>
       <c r="K8">
-        <v>20.81000732479714</v>
+        <v>20.81000732479708</v>
       </c>
       <c r="L8">
-        <v>18.58307576602649</v>
+        <v>18.58307576602646</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.68772968427357</v>
+        <v>13.68772968427353</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.697302223817296</v>
+        <v>3.697302223817266</v>
       </c>
       <c r="E9">
-        <v>11.34969341920531</v>
+        <v>11.34969341920535</v>
       </c>
       <c r="F9">
         <v>39.72150043336261</v>
       </c>
       <c r="G9">
-        <v>30.90116208609965</v>
+        <v>30.90116208609967</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>8.412360402976759</v>
+        <v>8.412360402976839</v>
       </c>
       <c r="J9">
-        <v>37.87828193140484</v>
+        <v>37.87828193140477</v>
       </c>
       <c r="K9">
-        <v>24.28918990507371</v>
+        <v>24.28918990507368</v>
       </c>
       <c r="L9">
-        <v>21.60810246064353</v>
+        <v>21.60810246064347</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.01800762229337</v>
+        <v>15.01800762229335</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.137488854620374</v>
+        <v>4.1374888546203</v>
       </c>
       <c r="E10">
         <v>11.9255680328804</v>
       </c>
       <c r="F10">
-        <v>43.69500307519066</v>
+        <v>43.69500307519073</v>
       </c>
       <c r="G10">
-        <v>34.12270835424646</v>
+        <v>34.12270835424652</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>8.55411585192382</v>
+        <v>8.55411585192387</v>
       </c>
       <c r="J10">
-        <v>41.48938042996441</v>
+        <v>41.48938042996443</v>
       </c>
       <c r="K10">
-        <v>26.65611310776195</v>
+        <v>26.656113107762</v>
       </c>
       <c r="L10">
         <v>23.66289368553516</v>
@@ -760,16 +760,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.338096837346591</v>
+        <v>4.338096837346658</v>
       </c>
       <c r="E11">
-        <v>12.1867522223486</v>
+        <v>12.18675222234859</v>
       </c>
       <c r="F11">
-        <v>45.54802179182186</v>
+        <v>45.54802179182181</v>
       </c>
       <c r="G11">
-        <v>35.61299155434263</v>
+        <v>35.61299155434261</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>8.620957989211556</v>
       </c>
       <c r="J11">
-        <v>43.07433750499492</v>
+        <v>43.07433750499489</v>
       </c>
       <c r="K11">
-        <v>27.69705377523803</v>
+        <v>27.69705377523801</v>
       </c>
       <c r="L11">
-        <v>24.56531441930946</v>
+        <v>24.56531441930944</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.81602924224353</v>
+        <v>15.81602924224357</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.414332862349543</v>
+        <v>4.414332862349608</v>
       </c>
       <c r="E12">
-        <v>12.2856853612672</v>
+        <v>12.28568536126726</v>
       </c>
       <c r="F12">
-        <v>46.25027805058926</v>
+        <v>46.25027805058921</v>
       </c>
       <c r="G12">
-        <v>36.17733679738102</v>
+        <v>36.17733679738097</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.646662181444572</v>
+        <v>8.646662181444645</v>
       </c>
       <c r="J12">
-        <v>43.66695514652017</v>
+        <v>43.66695514652023</v>
       </c>
       <c r="K12">
-        <v>28.08661183750849</v>
+        <v>28.08661183750852</v>
       </c>
       <c r="L12">
-        <v>24.90279928998004</v>
+        <v>24.90279928998007</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,37 +830,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.76947097717368</v>
+        <v>15.76947097717359</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.397898126927272</v>
+        <v>4.397898126927201</v>
       </c>
       <c r="E13">
-        <v>12.26437433035191</v>
+        <v>12.26437433035184</v>
       </c>
       <c r="F13">
-        <v>46.09898916257406</v>
+        <v>46.09898916257399</v>
       </c>
       <c r="G13">
-        <v>36.05577709668133</v>
+        <v>36.05577709668127</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.641107858859364</v>
+        <v>8.641107858859352</v>
       </c>
       <c r="J13">
-        <v>43.53964797148295</v>
+        <v>43.53964797148283</v>
       </c>
       <c r="K13">
-        <v>28.00290986691166</v>
+        <v>28.00290986691162</v>
       </c>
       <c r="L13">
-        <v>24.83029734461654</v>
+        <v>24.83029734461647</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.61709747979966</v>
+        <v>15.61709747979964</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.344362007485903</v>
+        <v>4.344362007485763</v>
       </c>
       <c r="E14">
-        <v>12.19488996910199</v>
+        <v>12.19488996910183</v>
       </c>
       <c r="F14">
-        <v>45.60577833390143</v>
+        <v>45.60577833390145</v>
       </c>
       <c r="G14">
         <v>35.65941420331845</v>
@@ -889,16 +889,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>8.623064464065447</v>
+        <v>8.623064464065378</v>
       </c>
       <c r="J14">
-        <v>43.12323958510448</v>
+        <v>43.12323958510441</v>
       </c>
       <c r="K14">
-        <v>27.7291922964454</v>
+        <v>27.72919229644543</v>
       </c>
       <c r="L14">
-        <v>24.59316195125646</v>
+        <v>24.59316195125648</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,37 +906,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.52334770813359</v>
+        <v>15.52334770813358</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.311611952880344</v>
+        <v>4.311611952880349</v>
       </c>
       <c r="E15">
-        <v>12.15233745810242</v>
+        <v>12.15233745810254</v>
       </c>
       <c r="F15">
-        <v>45.30378257786132</v>
+        <v>45.30378257786137</v>
       </c>
       <c r="G15">
-        <v>35.41666331976874</v>
+        <v>35.41666331976877</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>8.612065313205562</v>
+        <v>8.612065313205662</v>
       </c>
       <c r="J15">
-        <v>42.86721541335278</v>
+        <v>42.86721541335288</v>
       </c>
       <c r="K15">
-        <v>27.56094730572464</v>
+        <v>27.56094730572472</v>
       </c>
       <c r="L15">
-        <v>24.44737042636193</v>
+        <v>24.44737042636198</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.97955971620489</v>
+        <v>14.97955971620486</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.124403666076565</v>
+        <v>4.124403666076728</v>
       </c>
       <c r="E16">
-        <v>11.90849429960353</v>
+        <v>11.90849429960348</v>
       </c>
       <c r="F16">
-        <v>43.57391633070426</v>
+        <v>43.5739163307041</v>
       </c>
       <c r="G16">
-        <v>34.02525968717305</v>
+        <v>34.02525968717293</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>8.549799261464154</v>
+        <v>8.549799261464033</v>
       </c>
       <c r="J16">
-        <v>41.3846974838496</v>
+        <v>41.38469748384954</v>
       </c>
       <c r="K16">
-        <v>26.58740774526109</v>
+        <v>26.58740774526106</v>
       </c>
       <c r="L16">
-        <v>23.60330112707142</v>
+        <v>23.60330112707139</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.009793182276768</v>
+        <v>4.009793182276751</v>
       </c>
       <c r="E17">
-        <v>11.75879025632707</v>
+        <v>11.75879025632702</v>
       </c>
       <c r="F17">
-        <v>42.51244552834469</v>
+        <v>42.51244552834483</v>
       </c>
       <c r="G17">
-        <v>33.17062219730159</v>
+        <v>33.17062219730168</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>8.512238698780921</v>
+        <v>8.512238698780926</v>
       </c>
       <c r="J17">
-        <v>40.46091253315119</v>
+        <v>40.46091253315125</v>
       </c>
       <c r="K17">
-        <v>25.98135198831529</v>
+        <v>25.98135198831532</v>
       </c>
       <c r="L17">
-        <v>23.0774820645773</v>
+        <v>23.07748206457735</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.44235808149811</v>
+        <v>14.44235808149816</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.943891408572625</v>
+        <v>3.943891408572613</v>
       </c>
       <c r="E18">
-        <v>11.6725997949713</v>
+        <v>11.67259979497124</v>
       </c>
       <c r="F18">
-        <v>41.90149449839106</v>
+        <v>41.90149449839113</v>
       </c>
       <c r="G18">
-        <v>32.67838514927608</v>
+        <v>32.67838514927613</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>8.49085277714912</v>
+        <v>8.490852777149057</v>
       </c>
       <c r="J18">
-        <v>39.92408957359206</v>
+        <v>39.92408957359204</v>
       </c>
       <c r="K18">
-        <v>25.62936059605855</v>
+        <v>25.62936059605851</v>
       </c>
       <c r="L18">
-        <v>22.77197537919101</v>
+        <v>22.771975379191</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.37505911808913</v>
+        <v>14.37505911808906</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.921575512004677</v>
+        <v>3.921575512004744</v>
       </c>
       <c r="E19">
-        <v>11.64339906178146</v>
+        <v>11.64339906178151</v>
       </c>
       <c r="F19">
-        <v>41.69453689756386</v>
+        <v>41.69453689756375</v>
       </c>
       <c r="G19">
-        <v>32.51158239730774</v>
+        <v>32.51158239730766</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>8.483647882488405</v>
+        <v>8.483647882488428</v>
       </c>
       <c r="J19">
-        <v>39.74136794760935</v>
+        <v>39.74136794760931</v>
       </c>
       <c r="K19">
-        <v>25.50958318917461</v>
+        <v>25.50958318917459</v>
       </c>
       <c r="L19">
-        <v>22.6679976629609</v>
+        <v>22.66799766296085</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.6763420969063</v>
+        <v>14.67634209690629</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.021990236540107</v>
+        <v>4.02199023654015</v>
       </c>
       <c r="E20">
-        <v>11.77473438892656</v>
+        <v>11.77473438892657</v>
       </c>
       <c r="F20">
-        <v>42.62547768911433</v>
+        <v>42.62547768911444</v>
       </c>
       <c r="G20">
-        <v>33.26166344804054</v>
+        <v>33.26166344804063</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>8.51621418573774</v>
+        <v>8.516214185737748</v>
       </c>
       <c r="J20">
-        <v>40.55981391943991</v>
+        <v>40.55981391943996</v>
       </c>
       <c r="K20">
-        <v>26.04621647267167</v>
+        <v>26.04621647267174</v>
       </c>
       <c r="L20">
-        <v>23.13377136994934</v>
+        <v>23.13377136994938</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.66193969173562</v>
+        <v>15.66193969173561</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.360077584280031</v>
+        <v>4.360077584280124</v>
       </c>
       <c r="E21">
-        <v>12.21529708528855</v>
+        <v>12.21529708528862</v>
       </c>
       <c r="F21">
         <v>45.75062097802473</v>
       </c>
       <c r="G21">
-        <v>35.77582672742091</v>
+        <v>35.77582672742092</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.628353095600819</v>
+        <v>8.628353095600859</v>
       </c>
       <c r="J21">
-        <v>43.2457478058187</v>
+        <v>43.24574780581868</v>
       </c>
       <c r="K21">
-        <v>27.80971064632049</v>
+        <v>27.80971064632046</v>
       </c>
       <c r="L21">
-        <v>24.66292591788051</v>
+        <v>24.66292591788049</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.28726782544004</v>
+        <v>16.28726782544001</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.582745892101965</v>
+        <v>4.582745892101999</v>
       </c>
       <c r="E22">
-        <v>12.50349668235467</v>
+        <v>12.50349668235472</v>
       </c>
       <c r="F22">
-        <v>47.79707938782958</v>
+        <v>47.79707938782941</v>
       </c>
       <c r="G22">
-        <v>37.41964421526293</v>
+        <v>37.41964421526278</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.703966200680433</v>
+        <v>8.703966200680409</v>
       </c>
       <c r="J22">
-        <v>44.95747153021919</v>
+        <v>44.95747153021904</v>
       </c>
       <c r="K22">
-        <v>28.9356193387897</v>
+        <v>28.93561933878961</v>
       </c>
       <c r="L22">
-        <v>25.63783249141587</v>
+        <v>25.63783249141579</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.95516634589141</v>
+        <v>15.95516634589135</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.46366361489759</v>
+        <v>4.463663614897662</v>
       </c>
       <c r="E23">
-        <v>12.34959545695172</v>
+        <v>12.34959545695179</v>
       </c>
       <c r="F23">
-        <v>46.70403773302314</v>
+        <v>46.70403773302312</v>
       </c>
       <c r="G23">
         <v>36.54187122821471</v>
@@ -1231,16 +1231,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.663375812618332</v>
+        <v>8.663375812618334</v>
       </c>
       <c r="J23">
         <v>44.04761175445781</v>
       </c>
       <c r="K23">
-        <v>28.33694028865713</v>
+        <v>28.33694028865717</v>
       </c>
       <c r="L23">
-        <v>25.11959355808573</v>
+        <v>25.11959355808572</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,37 +1248,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.6598999111559</v>
+        <v>14.65989991115589</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.016475997283963</v>
+        <v>4.016475997283986</v>
       </c>
       <c r="E24">
-        <v>11.76752644141491</v>
+        <v>11.76752644141501</v>
       </c>
       <c r="F24">
-        <v>42.57437809797855</v>
+        <v>42.57437809797861</v>
       </c>
       <c r="G24">
-        <v>33.22050655141306</v>
+        <v>33.2205065514131</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>8.514416223522382</v>
+        <v>8.514416223522433</v>
       </c>
       <c r="J24">
-        <v>40.51511849331629</v>
+        <v>40.51511849331622</v>
       </c>
       <c r="K24">
-        <v>26.01690237169592</v>
+        <v>26.01690237169589</v>
       </c>
       <c r="L24">
-        <v>23.10833299132461</v>
+        <v>23.10833299132457</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.17543063075898</v>
+        <v>13.17543063075901</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.534282253859641</v>
+        <v>3.534282253859683</v>
       </c>
       <c r="E25">
-        <v>11.13621559916586</v>
+        <v>11.13621559916579</v>
       </c>
       <c r="F25">
-        <v>38.34946877090839</v>
+        <v>38.34946877090842</v>
       </c>
       <c r="G25">
-        <v>29.86605519335168</v>
+        <v>29.86605519335169</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>8.361958428447567</v>
+        <v>8.361958428447473</v>
       </c>
       <c r="J25">
-        <v>36.49301735619765</v>
+        <v>36.49301735619764</v>
       </c>
       <c r="K25">
-        <v>23.38279008902482</v>
+        <v>23.38279008902479</v>
       </c>
       <c r="L25">
-        <v>20.82041456530401</v>
+        <v>20.82041456530403</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.00111111291741</v>
+        <v>12.00096947943332</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.173006214625586</v>
+        <v>3.166212634798212</v>
       </c>
       <c r="E2">
-        <v>10.6650253371349</v>
+        <v>10.66178510970851</v>
       </c>
       <c r="F2">
-        <v>35.36184335912344</v>
+        <v>35.32567876713906</v>
       </c>
       <c r="G2">
-        <v>27.62564032629744</v>
+        <v>27.10813839395546</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>27.66095264579744</v>
       </c>
       <c r="I2">
-        <v>8.255326306368115</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>33.32721993433289</v>
+        <v>8.254846713563788</v>
       </c>
       <c r="K2">
-        <v>21.31423528372251</v>
+        <v>33.32432524015332</v>
       </c>
       <c r="L2">
-        <v>19.021679231012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>21.31344168783966</v>
+      </c>
+      <c r="M2">
+        <v>19.02098157154747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.27171447027592</v>
+        <v>11.27187342392979</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.921765992196496</v>
+        <v>2.915598144464296</v>
       </c>
       <c r="E3">
-        <v>10.34086656358721</v>
+        <v>10.3382659508659</v>
       </c>
       <c r="F3">
-        <v>33.34633045267815</v>
+        <v>33.31283706128004</v>
       </c>
       <c r="G3">
-        <v>26.12689464341015</v>
+        <v>25.34702478011182</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>26.1605401731873</v>
       </c>
       <c r="I3">
-        <v>8.186066572763286</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>31.045327090918</v>
+        <v>8.185742584395882</v>
       </c>
       <c r="K3">
-        <v>19.8253816925687</v>
+        <v>31.04302824466355</v>
       </c>
       <c r="L3">
-        <v>17.72653809156735</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>19.82487733024523</v>
+      </c>
+      <c r="M3">
+        <v>17.72607297361127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.81327346236875</v>
+        <v>10.81343397397502</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.763660827805895</v>
+        <v>2.75789263902061</v>
       </c>
       <c r="E4">
-        <v>10.1393555600189</v>
+        <v>10.13716284744081</v>
       </c>
       <c r="F4">
-        <v>32.11399594238888</v>
+        <v>32.08217866836927</v>
       </c>
       <c r="G4">
-        <v>25.21671553788282</v>
+        <v>24.25721665220437</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>25.24937913887726</v>
       </c>
       <c r="I4">
-        <v>8.144903352865866</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>29.57448663945622</v>
+        <v>8.144679457442631</v>
       </c>
       <c r="K4">
-        <v>18.86650377483697</v>
+        <v>29.57254786375228</v>
       </c>
       <c r="L4">
-        <v>16.89242423769422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>18.86616834938762</v>
+      </c>
+      <c r="M4">
+        <v>16.89209679326786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.62262200962262</v>
+        <v>10.62278110370431</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.698176172724063</v>
+        <v>2.692575070869604</v>
       </c>
       <c r="E5">
-        <v>10.05661960578789</v>
+        <v>10.05459720330751</v>
       </c>
       <c r="F5">
-        <v>31.61339453860664</v>
+        <v>31.58227013519993</v>
       </c>
       <c r="G5">
-        <v>24.84852484402655</v>
+        <v>23.81115374720201</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>24.88079984924195</v>
       </c>
       <c r="I5">
-        <v>8.128457765604194</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>28.95724901181962</v>
+        <v>8.128275893482817</v>
       </c>
       <c r="K5">
-        <v>18.46426948935851</v>
+        <v>28.95545640518834</v>
       </c>
       <c r="L5">
-        <v>16.54256468150492</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>18.46400125519911</v>
+      </c>
+      <c r="M5">
+        <v>16.54229247106474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.59073693506174</v>
+        <v>10.5908956705601</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.687236327342098</v>
+        <v>2.681663234744009</v>
       </c>
       <c r="E6">
-        <v>10.04284438955413</v>
+        <v>10.04085052053157</v>
       </c>
       <c r="F6">
-        <v>31.53037674319823</v>
+        <v>31.49936800082907</v>
       </c>
       <c r="G6">
-        <v>24.78755835675056</v>
+        <v>23.73697510579769</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>24.81976956580715</v>
       </c>
       <c r="I6">
-        <v>8.125746493220566</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>28.85366998247579</v>
+        <v>8.125571675928267</v>
       </c>
       <c r="K6">
-        <v>18.39677864587635</v>
+        <v>28.85190163808546</v>
       </c>
       <c r="L6">
-        <v>16.4838651538535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>18.3965214833959</v>
+      </c>
+      <c r="M6">
+        <v>16.48360207400569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.81071761762873</v>
+        <v>10.81087811839015</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.762782063245968</v>
+        <v>2.757016110322332</v>
       </c>
       <c r="E7">
-        <v>10.13824224303436</v>
+        <v>10.13605181045527</v>
       </c>
       <c r="F7">
-        <v>32.10723776412984</v>
+        <v>32.07542979378623</v>
       </c>
       <c r="G7">
-        <v>25.2117386791781</v>
+        <v>24.25120847740238</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>25.24439699120826</v>
       </c>
       <c r="I7">
-        <v>8.144680247029873</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>29.56623505880135</v>
+        <v>8.144456913241639</v>
       </c>
       <c r="K7">
-        <v>18.86112589980704</v>
+        <v>29.56429825552824</v>
       </c>
       <c r="L7">
-        <v>16.88774641258015</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>18.86079138655526</v>
+      </c>
+      <c r="M7">
+        <v>16.8874197160531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.74749812487066</v>
+        <v>11.74764828626684</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.087119065378738</v>
+        <v>3.080538237783006</v>
       </c>
       <c r="E8">
-        <v>10.5537670772149</v>
+        <v>10.55074442408598</v>
       </c>
       <c r="F8">
-        <v>34.66593371551516</v>
+        <v>34.63068327311566</v>
       </c>
       <c r="G8">
-        <v>27.10686368544791</v>
+        <v>26.50272333496054</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>27.14159335663663</v>
       </c>
       <c r="I8">
-        <v>8.231153431829135</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>32.55469503839484</v>
+        <v>8.230726606670972</v>
       </c>
       <c r="K8">
-        <v>20.81000732479708</v>
+        <v>32.55200755134205</v>
       </c>
       <c r="L8">
-        <v>18.58307576602646</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>20.8093155859155</v>
+      </c>
+      <c r="M8">
+        <v>18.58245960897319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.68772968427353</v>
+        <v>13.68740812367367</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.697302223817266</v>
+        <v>3.689229632753773</v>
       </c>
       <c r="E9">
-        <v>11.34969341920535</v>
+        <v>11.34514303619047</v>
       </c>
       <c r="F9">
-        <v>39.72150043336261</v>
+        <v>39.67972883910139</v>
       </c>
       <c r="G9">
-        <v>30.90116208609967</v>
+        <v>30.87214878085014</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>30.94023353720306</v>
       </c>
       <c r="I9">
-        <v>8.412360402976839</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>37.87828193140477</v>
+        <v>8.411565492946737</v>
       </c>
       <c r="K9">
-        <v>24.28918990507368</v>
+        <v>37.87403157118526</v>
       </c>
       <c r="L9">
-        <v>21.60810246064347</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>24.28770173186227</v>
+      </c>
+      <c r="M9">
+        <v>21.60685691837251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.01800762229335</v>
+        <v>15.01749767569048</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.1374888546203</v>
+        <v>4.128358643980077</v>
       </c>
       <c r="E10">
-        <v>11.9255680328804</v>
+        <v>11.91992920605646</v>
       </c>
       <c r="F10">
-        <v>43.69500307519073</v>
+        <v>43.64763552925123</v>
       </c>
       <c r="G10">
-        <v>34.12270835424652</v>
+        <v>34.16611421758711</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>34.01949884914824</v>
       </c>
       <c r="I10">
-        <v>8.55411585192387</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>41.48938042996443</v>
+        <v>8.553060013329388</v>
       </c>
       <c r="K10">
-        <v>26.656113107762</v>
+        <v>41.48385253457315</v>
       </c>
       <c r="L10">
-        <v>23.66289368553516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>26.65393526526123</v>
+      </c>
+      <c r="M10">
+        <v>23.66111270353209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.59919450178942</v>
+        <v>15.59858678173843</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.338096837346658</v>
+        <v>4.328486418042584</v>
       </c>
       <c r="E11">
-        <v>12.18675222234859</v>
+        <v>12.18061644967675</v>
       </c>
       <c r="F11">
-        <v>45.54802179182181</v>
+        <v>45.49848220960024</v>
       </c>
       <c r="G11">
-        <v>35.61299155434261</v>
+        <v>35.65811966354102</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>35.46182897720519</v>
       </c>
       <c r="I11">
-        <v>8.620957989211556</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>43.07433750499489</v>
+        <v>8.619782564686473</v>
       </c>
       <c r="K11">
-        <v>27.69705377523801</v>
+        <v>43.06817903771656</v>
       </c>
       <c r="L11">
-        <v>24.56531441930944</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>27.69452590406172</v>
+      </c>
+      <c r="M11">
+        <v>24.56326367788557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.81602924224357</v>
+        <v>15.81538232557576</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.414332862349608</v>
+        <v>4.404539935043212</v>
       </c>
       <c r="E12">
-        <v>12.28568536126726</v>
+        <v>12.27936012563456</v>
       </c>
       <c r="F12">
-        <v>46.25027805058921</v>
+        <v>46.19990620277471</v>
       </c>
       <c r="G12">
-        <v>36.17733679738097</v>
+        <v>36.22311107778182</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>36.00902504292502</v>
       </c>
       <c r="I12">
-        <v>8.646662181444645</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>43.66695514652023</v>
+        <v>8.645441008917254</v>
       </c>
       <c r="K12">
-        <v>28.08661183750852</v>
+        <v>43.66054846742078</v>
       </c>
       <c r="L12">
-        <v>24.90279928998007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>28.08394470119783</v>
+      </c>
+      <c r="M12">
+        <v>24.90064149966062</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.76947097717359</v>
+        <v>15.76883260701381</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.397898126927201</v>
+        <v>4.388144550234237</v>
       </c>
       <c r="E13">
-        <v>12.26437433035184</v>
+        <v>12.25808997502936</v>
       </c>
       <c r="F13">
-        <v>46.09898916257399</v>
+        <v>46.04879707223709</v>
       </c>
       <c r="G13">
-        <v>36.05577709668127</v>
+        <v>36.10141250452091</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>35.89111491709969</v>
       </c>
       <c r="I13">
-        <v>8.641107858859352</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>43.53964797148283</v>
+        <v>8.639896565963454</v>
       </c>
       <c r="K13">
-        <v>28.00290986691162</v>
+        <v>43.53329521187217</v>
       </c>
       <c r="L13">
-        <v>24.83029734461647</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>28.00027305063981</v>
+      </c>
+      <c r="M13">
+        <v>24.82816284814429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.61709747979964</v>
+        <v>15.61648658146524</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.344362007485763</v>
+        <v>4.334736591673778</v>
       </c>
       <c r="E14">
-        <v>12.19488996910183</v>
+        <v>12.18873864165172</v>
       </c>
       <c r="F14">
-        <v>45.60577833390145</v>
+        <v>45.55617050474788</v>
       </c>
       <c r="G14">
-        <v>35.65941420331845</v>
+        <v>35.70459560263926</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>35.50682091450747</v>
       </c>
       <c r="I14">
-        <v>8.623064464065378</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>43.12323958510441</v>
+        <v>8.621885287372171</v>
       </c>
       <c r="K14">
-        <v>27.72919229644543</v>
+        <v>43.11706090162929</v>
       </c>
       <c r="L14">
-        <v>24.59316195125648</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>27.7266531124255</v>
+      </c>
+      <c r="M14">
+        <v>24.59110250851219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.52334770813358</v>
+        <v>15.52275333931171</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.311611952880349</v>
+        <v>4.302064926080562</v>
       </c>
       <c r="E15">
-        <v>12.15233745810254</v>
+        <v>12.14626741255128</v>
       </c>
       <c r="F15">
-        <v>45.30378257786137</v>
+        <v>45.2545312088444</v>
       </c>
       <c r="G15">
-        <v>35.41666331976877</v>
+        <v>35.46156579819743</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>35.27159199877008</v>
       </c>
       <c r="I15">
-        <v>8.612065313205662</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>42.86721541335288</v>
+        <v>8.610905736706023</v>
       </c>
       <c r="K15">
-        <v>27.56094730572472</v>
+        <v>42.8611420499519</v>
       </c>
       <c r="L15">
-        <v>24.44737042636198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>27.558466998531</v>
+      </c>
+      <c r="M15">
+        <v>24.4453562800025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.97955971620486</v>
+        <v>14.97905588166835</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.124403666076728</v>
+        <v>4.115304792774645</v>
       </c>
       <c r="E16">
-        <v>11.90849429960348</v>
+        <v>11.90288783151446</v>
       </c>
       <c r="F16">
-        <v>43.5739163307041</v>
+        <v>43.52668962227182</v>
       </c>
       <c r="G16">
-        <v>34.02525968717293</v>
+        <v>34.06855223754488</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>33.925329133674</v>
       </c>
       <c r="I16">
-        <v>8.549799261464033</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>41.38469748384954</v>
+        <v>8.548751193564764</v>
       </c>
       <c r="K16">
-        <v>26.58740774526106</v>
+        <v>41.3792096175684</v>
       </c>
       <c r="L16">
-        <v>23.60330112707139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>26.58525192796916</v>
+      </c>
+      <c r="M16">
+        <v>23.60153715710074</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.63995735272229</v>
+        <v>14.6395056896288</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.009793182276751</v>
+        <v>4.000968959970837</v>
       </c>
       <c r="E17">
-        <v>11.75879025632702</v>
+        <v>11.75346706623352</v>
       </c>
       <c r="F17">
-        <v>42.51244552834483</v>
+        <v>42.46644836880822</v>
       </c>
       <c r="G17">
-        <v>33.17062219730168</v>
+        <v>33.21291794483844</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>33.10025822737424</v>
       </c>
       <c r="I17">
-        <v>8.512238698780926</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>40.46091253315125</v>
+        <v>8.511258598797443</v>
       </c>
       <c r="K17">
-        <v>25.98135198831532</v>
+        <v>40.45576971046737</v>
       </c>
       <c r="L17">
-        <v>23.07748206457735</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>25.97938498564713</v>
+      </c>
+      <c r="M17">
+        <v>23.07586414164864</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.44235808149816</v>
+        <v>14.44193532124189</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.943891408572613</v>
+        <v>3.935225300428281</v>
       </c>
       <c r="E18">
-        <v>11.67259979497124</v>
+        <v>11.66743944291305</v>
       </c>
       <c r="F18">
-        <v>41.90149449839113</v>
+        <v>41.85620124262216</v>
       </c>
       <c r="G18">
-        <v>32.67838514927613</v>
+        <v>32.72010461233979</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>32.62573958303765</v>
       </c>
       <c r="I18">
-        <v>8.490852777149057</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>39.92408957359204</v>
+        <v>8.489911711576706</v>
       </c>
       <c r="K18">
-        <v>25.62936059605851</v>
+        <v>39.91914072670365</v>
       </c>
       <c r="L18">
-        <v>22.771975379191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>25.6274988866665</v>
+      </c>
+      <c r="M18">
+        <v>22.77043907560532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.37505911808906</v>
+        <v>14.37464596556717</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.921575512004744</v>
+        <v>3.912962984299775</v>
       </c>
       <c r="E19">
-        <v>11.64339906178151</v>
+        <v>11.63829385447078</v>
       </c>
       <c r="F19">
-        <v>41.69453689756375</v>
+        <v>41.64948151689279</v>
       </c>
       <c r="G19">
-        <v>32.51158239730766</v>
+        <v>32.55310627089106</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>32.46506067169629</v>
       </c>
       <c r="I19">
-        <v>8.483647882488428</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>39.74136794760931</v>
+        <v>8.482720031977323</v>
       </c>
       <c r="K19">
-        <v>25.50958318917459</v>
+        <v>39.73648406939321</v>
       </c>
       <c r="L19">
-        <v>22.66799766296085</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>25.50775660192641</v>
+      </c>
+      <c r="M19">
+        <v>22.66648861510322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.67634209690629</v>
+        <v>14.67588499721173</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.02199023654015</v>
+        <v>4.013136767618904</v>
       </c>
       <c r="E20">
-        <v>11.77473438892657</v>
+        <v>11.76938105992668</v>
       </c>
       <c r="F20">
-        <v>42.62547768911444</v>
+        <v>42.57935001087666</v>
       </c>
       <c r="G20">
-        <v>33.26166344804063</v>
+        <v>33.30406562120743</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>33.18807887282729</v>
       </c>
       <c r="I20">
-        <v>8.516214185737748</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>40.55981391943996</v>
+        <v>8.51522685869916</v>
       </c>
       <c r="K20">
-        <v>26.04621647267174</v>
+        <v>40.55463484542398</v>
       </c>
       <c r="L20">
-        <v>23.13377136994938</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>26.04422972239479</v>
+      </c>
+      <c r="M20">
+        <v>23.13213815402069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.66193969173561</v>
+        <v>15.66132078726573</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.360077584280124</v>
+        <v>4.350414549807457</v>
       </c>
       <c r="E21">
-        <v>12.21529708528862</v>
+        <v>12.20910672853094</v>
       </c>
       <c r="F21">
-        <v>45.75062097802473</v>
+        <v>45.7008418416832</v>
       </c>
       <c r="G21">
-        <v>35.77582672742092</v>
+        <v>35.82114165539365</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>35.61966166259494</v>
       </c>
       <c r="I21">
-        <v>8.628353095600859</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>43.24574780581868</v>
+        <v>8.62716450132273</v>
       </c>
       <c r="K21">
-        <v>27.80971064632046</v>
+        <v>43.23951826925254</v>
       </c>
       <c r="L21">
-        <v>24.66292591788049</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>27.80714298150699</v>
+      </c>
+      <c r="M21">
+        <v>24.66084457339741</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.28726782544001</v>
+        <v>16.28653021726096</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.582745892101999</v>
+        <v>4.572549370957598</v>
       </c>
       <c r="E22">
-        <v>12.50349668235472</v>
+        <v>12.4967511348143</v>
       </c>
       <c r="F22">
-        <v>47.79707938782941</v>
+        <v>47.74485403976077</v>
       </c>
       <c r="G22">
-        <v>37.41964421526278</v>
+        <v>37.46682690113612</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>37.21536318134154</v>
       </c>
       <c r="I22">
-        <v>8.703966200680409</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>44.95747153021904</v>
+        <v>8.702643135258819</v>
       </c>
       <c r="K22">
-        <v>28.93561933878961</v>
+        <v>44.95049896258909</v>
       </c>
       <c r="L22">
-        <v>25.63783249141579</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>28.93263185972625</v>
+      </c>
+      <c r="M22">
+        <v>25.63542897215338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.95516634589135</v>
+        <v>15.95449345424835</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.463663614897662</v>
+        <v>4.453752543575343</v>
       </c>
       <c r="E23">
-        <v>12.34959545695179</v>
+        <v>12.34314738119056</v>
       </c>
       <c r="F23">
-        <v>46.70403773302312</v>
+        <v>46.65312516361655</v>
       </c>
       <c r="G23">
-        <v>36.54187122821471</v>
+        <v>36.58806087863493</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>36.36275736976388</v>
       </c>
       <c r="I23">
-        <v>8.663375812618334</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>44.04761175445781</v>
+        <v>8.662124922385372</v>
       </c>
       <c r="K23">
-        <v>28.33694028865717</v>
+        <v>44.0410418557187</v>
       </c>
       <c r="L23">
-        <v>25.11959355808572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>28.3341811493935</v>
+      </c>
+      <c r="M23">
+        <v>25.11736512481817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.65989991115589</v>
+        <v>14.65944527271638</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.016475997283986</v>
+        <v>4.007635750031439</v>
       </c>
       <c r="E24">
-        <v>11.76752644141501</v>
+        <v>11.76218673820951</v>
       </c>
       <c r="F24">
-        <v>42.57437809797861</v>
+        <v>42.52830943620629</v>
       </c>
       <c r="G24">
-        <v>33.2205065514131</v>
+        <v>33.26286061928433</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>33.14837576316225</v>
       </c>
       <c r="I24">
-        <v>8.514416223522433</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>40.51511849331622</v>
+        <v>8.5134321639401</v>
       </c>
       <c r="K24">
-        <v>26.01690237169589</v>
+        <v>40.50995582204737</v>
       </c>
       <c r="L24">
-        <v>23.10833299132457</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>26.01492455935584</v>
+      </c>
+      <c r="M24">
+        <v>23.10670669658428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.17543063075901</v>
+        <v>13.17517007815296</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.534282253859683</v>
+        <v>3.526604333571038</v>
       </c>
       <c r="E25">
-        <v>11.13621559916579</v>
+        <v>11.13206997328553</v>
       </c>
       <c r="F25">
-        <v>38.34946877090842</v>
+        <v>38.30944635884496</v>
       </c>
       <c r="G25">
-        <v>29.86605519335169</v>
+        <v>29.68129413751984</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>29.90392899910414</v>
       </c>
       <c r="I25">
-        <v>8.361958428447473</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>36.49301735619764</v>
+        <v>8.361260610916911</v>
       </c>
       <c r="K25">
-        <v>23.38279008902479</v>
+        <v>36.48920637732757</v>
       </c>
       <c r="L25">
-        <v>20.82041456530403</v>
+        <v>23.38153186515813</v>
+      </c>
+      <c r="M25">
+        <v>20.81934916498328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.00096947943332</v>
+        <v>19.60281024176542</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.166212634798212</v>
+        <v>9.308701469786076</v>
       </c>
       <c r="E2">
-        <v>10.66178510970851</v>
+        <v>15.69906756910021</v>
       </c>
       <c r="F2">
-        <v>35.32567876713906</v>
+        <v>39.21339470416023</v>
       </c>
       <c r="G2">
-        <v>27.10813839395546</v>
+        <v>2.070434014177077</v>
       </c>
       <c r="H2">
-        <v>27.66095264579744</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.254846713563788</v>
+        <v>9.306431248180887</v>
       </c>
       <c r="K2">
-        <v>33.32432524015332</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>21.31344168783966</v>
+        <v>12.49570948267455</v>
       </c>
       <c r="M2">
-        <v>19.02098157154747</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>16.44244847968335</v>
+      </c>
+      <c r="N2">
+        <v>13.67523668074103</v>
+      </c>
+      <c r="O2">
+        <v>32.23805325129644</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.27187342392979</v>
+        <v>18.54560153746148</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.915598144464296</v>
+        <v>8.704297311813962</v>
       </c>
       <c r="E3">
-        <v>10.3382659508659</v>
+        <v>14.82658132379127</v>
       </c>
       <c r="F3">
-        <v>33.31283706128004</v>
+        <v>37.7146996565249</v>
       </c>
       <c r="G3">
-        <v>25.34702478011182</v>
+        <v>2.084287674304249</v>
       </c>
       <c r="H3">
-        <v>26.1605401731873</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.185742584395882</v>
+        <v>8.972494672813067</v>
       </c>
       <c r="K3">
-        <v>31.04302824466355</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>19.82487733024523</v>
+        <v>11.78893716563226</v>
       </c>
       <c r="M3">
-        <v>17.72607297361127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.66155777053613</v>
+      </c>
+      <c r="N3">
+        <v>13.97212689320522</v>
+      </c>
+      <c r="O3">
+        <v>30.85335338684038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.81343397397502</v>
+        <v>17.87936012936025</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.75789263902061</v>
+        <v>8.318678582515613</v>
       </c>
       <c r="E4">
-        <v>10.13716284744081</v>
+        <v>14.27137225643357</v>
       </c>
       <c r="F4">
-        <v>32.08217866836927</v>
+        <v>36.8182506826886</v>
       </c>
       <c r="G4">
-        <v>24.25721665220437</v>
+        <v>2.092957441992434</v>
       </c>
       <c r="H4">
-        <v>25.24937913887726</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.144679457442631</v>
+        <v>8.763103436079346</v>
       </c>
       <c r="K4">
-        <v>29.57254786375228</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>18.86616834938762</v>
+        <v>11.34262802705431</v>
       </c>
       <c r="M4">
-        <v>16.89209679326786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>15.17381553516503</v>
+      </c>
+      <c r="N4">
+        <v>14.15656061098883</v>
+      </c>
+      <c r="O4">
+        <v>30.01635352387774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.62278110370431</v>
+        <v>17.60379857913346</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.692575070869604</v>
+        <v>8.157807438517745</v>
       </c>
       <c r="E5">
-        <v>10.05459720330751</v>
+        <v>14.04019958325646</v>
       </c>
       <c r="F5">
-        <v>31.58227013519993</v>
+        <v>36.45903256580229</v>
       </c>
       <c r="G5">
-        <v>23.81115374720201</v>
+        <v>2.096535952935848</v>
       </c>
       <c r="H5">
-        <v>24.88079984924195</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.128275893482817</v>
+        <v>8.67669284408362</v>
       </c>
       <c r="K5">
-        <v>28.95545640518834</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>18.46400125519911</v>
+        <v>11.15776822254744</v>
       </c>
       <c r="M5">
-        <v>16.54229247106474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>14.97317291567451</v>
+      </c>
+      <c r="N5">
+        <v>14.23233993528195</v>
+      </c>
+      <c r="O5">
+        <v>29.67877531989024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.5908956705601</v>
+        <v>17.55780472343946</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.681663234744009</v>
+        <v>8.130867815014904</v>
       </c>
       <c r="E6">
-        <v>10.04085052053157</v>
+        <v>14.00151657965747</v>
       </c>
       <c r="F6">
-        <v>31.49936800082907</v>
+        <v>36.39975684224975</v>
       </c>
       <c r="G6">
-        <v>23.73697510579769</v>
+        <v>2.097133031049602</v>
       </c>
       <c r="H6">
-        <v>24.81976956580715</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.125571675928267</v>
+        <v>8.662279686076001</v>
       </c>
       <c r="K6">
-        <v>28.85190163808546</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>18.3965214833959</v>
+        <v>11.12689648186869</v>
       </c>
       <c r="M6">
-        <v>16.48360207400569</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>14.93974920984158</v>
+      </c>
+      <c r="N6">
+        <v>14.24496281993182</v>
+      </c>
+      <c r="O6">
+        <v>29.62293892809835</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.81087811839015</v>
+        <v>17.87565989420517</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.757016110322332</v>
+        <v>8.316524203464848</v>
       </c>
       <c r="E7">
-        <v>10.13605181045527</v>
+        <v>14.26827449912064</v>
       </c>
       <c r="F7">
-        <v>32.07542979378623</v>
+        <v>36.81338128828219</v>
       </c>
       <c r="G7">
-        <v>24.25120847740238</v>
+        <v>2.093005513276758</v>
       </c>
       <c r="H7">
-        <v>25.24439699120826</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.144456913241639</v>
+        <v>8.76194242791315</v>
       </c>
       <c r="K7">
-        <v>29.56429825552824</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>18.86079138655526</v>
+        <v>11.34014683854477</v>
       </c>
       <c r="M7">
-        <v>16.8874197160531</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15.171116932988</v>
+      </c>
+      <c r="N7">
+        <v>14.15757997895167</v>
+      </c>
+      <c r="O7">
+        <v>30.01178634554104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.74764828626684</v>
+        <v>19.24195953044923</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.080538237783006</v>
+        <v>9.103260533266145</v>
       </c>
       <c r="E8">
-        <v>10.55074442408598</v>
+        <v>15.40225895957577</v>
       </c>
       <c r="F8">
-        <v>34.63068327311566</v>
+        <v>38.69177004156536</v>
       </c>
       <c r="G8">
-        <v>26.50272333496054</v>
+        <v>2.075179580427156</v>
       </c>
       <c r="H8">
-        <v>27.14159335663663</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.230726606670972</v>
+        <v>9.19219688447523</v>
       </c>
       <c r="K8">
-        <v>32.55200755134205</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>20.8093155859155</v>
+        <v>12.25463510593111</v>
       </c>
       <c r="M8">
-        <v>18.58245960897319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>16.17501785969799</v>
+      </c>
+      <c r="N8">
+        <v>13.77721195399556</v>
+      </c>
+      <c r="O8">
+        <v>31.75795728926093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.68740812367367</v>
+        <v>21.77837533353353</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.689229632753773</v>
+        <v>10.53565909432719</v>
       </c>
       <c r="E9">
-        <v>11.34514303619047</v>
+        <v>17.47417628096063</v>
       </c>
       <c r="F9">
-        <v>39.67972883910139</v>
+        <v>42.56190612826612</v>
       </c>
       <c r="G9">
-        <v>30.87214878085014</v>
+        <v>2.04129798683908</v>
       </c>
       <c r="H9">
-        <v>30.94023353720306</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.411565492946737</v>
+        <v>10.00158369096657</v>
       </c>
       <c r="K9">
-        <v>37.87403157118526</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>24.28770173186227</v>
+        <v>14.19033048545888</v>
       </c>
       <c r="M9">
-        <v>21.60685691837251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>18.07184991026833</v>
+      </c>
+      <c r="N9">
+        <v>13.04413089819622</v>
+      </c>
+      <c r="O9">
+        <v>35.28288010039365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.01749767569048</v>
+        <v>23.5499238511585</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.128358643980077</v>
+        <v>11.52924466452397</v>
       </c>
       <c r="E10">
-        <v>11.91992920605646</v>
+        <v>18.91104360281283</v>
       </c>
       <c r="F10">
-        <v>43.64763552925123</v>
+        <v>45.52356986130568</v>
       </c>
       <c r="G10">
-        <v>34.16611421758711</v>
+        <v>2.016703673866655</v>
       </c>
       <c r="H10">
-        <v>34.01949884914824</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.553060013329388</v>
+        <v>10.57683805694773</v>
       </c>
       <c r="K10">
-        <v>41.48385253457315</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>26.65393526526123</v>
+        <v>15.58845348833123</v>
       </c>
       <c r="M10">
-        <v>23.66111270353209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>19.6246374015215</v>
+      </c>
+      <c r="N10">
+        <v>12.50670668157462</v>
+      </c>
+      <c r="O10">
+        <v>37.9358383881263</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.59858678173843</v>
+        <v>24.33615251114247</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.328486418042584</v>
+        <v>11.97096557772489</v>
       </c>
       <c r="E11">
-        <v>12.18061644967675</v>
+        <v>19.54871053323611</v>
       </c>
       <c r="F11">
-        <v>45.49848220960024</v>
+        <v>46.90007258564889</v>
       </c>
       <c r="G11">
-        <v>35.65811966354102</v>
+        <v>2.00548427181863</v>
       </c>
       <c r="H11">
-        <v>35.46182897720519</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.619782564686473</v>
+        <v>10.83505875823125</v>
       </c>
       <c r="K11">
-        <v>43.06817903771656</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>27.69452590406172</v>
+        <v>16.20139041856449</v>
       </c>
       <c r="M11">
-        <v>24.56326367788557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>20.3918324028756</v>
+      </c>
+      <c r="N11">
+        <v>12.26071157953437</v>
+      </c>
+      <c r="O11">
+        <v>39.15934242296687</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.81538232557576</v>
+        <v>24.63115560470776</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.404539935043212</v>
+        <v>12.13701589202963</v>
       </c>
       <c r="E12">
-        <v>12.27936012563456</v>
+        <v>19.78816681201617</v>
       </c>
       <c r="F12">
-        <v>46.19990620277471</v>
+        <v>47.42601915766343</v>
       </c>
       <c r="G12">
-        <v>36.22311107778182</v>
+        <v>2.001221700499541</v>
       </c>
       <c r="H12">
-        <v>36.00902504292502</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.645441008917254</v>
+        <v>10.93243445265009</v>
       </c>
       <c r="K12">
-        <v>43.66054846742078</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>28.08394470119783</v>
+        <v>16.43043362848976</v>
       </c>
       <c r="M12">
-        <v>24.90064149966062</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>20.67829247171051</v>
+      </c>
+      <c r="N12">
+        <v>12.16716703508568</v>
+      </c>
+      <c r="O12">
+        <v>39.62548243262711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.76883260701381</v>
+        <v>24.56774024423861</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.388144550234237</v>
+        <v>12.10130361064757</v>
       </c>
       <c r="E13">
-        <v>12.25808997502936</v>
+        <v>19.73667997239277</v>
       </c>
       <c r="F13">
-        <v>46.04879707223709</v>
+        <v>47.31252838683513</v>
       </c>
       <c r="G13">
-        <v>36.10141250452091</v>
+        <v>2.002140514507125</v>
       </c>
       <c r="H13">
-        <v>35.89111491709969</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.639896565963454</v>
+        <v>10.91147918012493</v>
       </c>
       <c r="K13">
-        <v>43.53329521187217</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>28.00027305063981</v>
+        <v>16.38123678722782</v>
       </c>
       <c r="M13">
-        <v>24.82816284814429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>20.61677371421796</v>
+      </c>
+      <c r="N13">
+        <v>12.18733400166612</v>
+      </c>
+      <c r="O13">
+        <v>39.52495640004128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.61648658146524</v>
+        <v>24.36047637493009</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.334736591673778</v>
+        <v>11.98464943534621</v>
       </c>
       <c r="E14">
-        <v>12.18873864165172</v>
+        <v>19.56844925427172</v>
       </c>
       <c r="F14">
-        <v>45.55617050474788</v>
+        <v>46.94324491231915</v>
       </c>
       <c r="G14">
-        <v>35.70459560263926</v>
+        <v>2.005133928968333</v>
       </c>
       <c r="H14">
-        <v>35.50682091450747</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.621885287372171</v>
+        <v>10.84307744181193</v>
       </c>
       <c r="K14">
-        <v>43.11706090162929</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>27.7266531124255</v>
+        <v>16.2202937155185</v>
       </c>
       <c r="M14">
-        <v>24.59110250851219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20.41547921966341</v>
+      </c>
+      <c r="N14">
+        <v>12.2530245529809</v>
+      </c>
+      <c r="O14">
+        <v>39.1976323121203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.52275333931171</v>
+        <v>24.2331706161594</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.302064926080562</v>
+        <v>11.9130449937747</v>
       </c>
       <c r="E15">
-        <v>12.14626741255128</v>
+        <v>19.46515029674486</v>
       </c>
       <c r="F15">
-        <v>45.2545312088444</v>
+        <v>46.71767748305248</v>
       </c>
       <c r="G15">
-        <v>35.46156579819743</v>
+        <v>2.006965344907179</v>
       </c>
       <c r="H15">
-        <v>35.27159199877008</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.610905736706023</v>
+        <v>10.80112962343609</v>
       </c>
       <c r="K15">
-        <v>42.8611420499519</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>27.558466998531</v>
+        <v>16.12132084674764</v>
       </c>
       <c r="M15">
-        <v>24.4453562800025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20.29166102453412</v>
+      </c>
+      <c r="N15">
+        <v>12.29320530566161</v>
+      </c>
+      <c r="O15">
+        <v>38.99752063126452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.97905588166835</v>
+        <v>23.49815361443476</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.115304792774645</v>
+        <v>11.50019139821691</v>
       </c>
       <c r="E16">
-        <v>11.90288783151446</v>
+        <v>18.86907180200322</v>
       </c>
       <c r="F16">
-        <v>43.52668962227182</v>
+        <v>45.43423799954832</v>
       </c>
       <c r="G16">
-        <v>34.06855223754488</v>
+        <v>2.017435479337345</v>
       </c>
       <c r="H16">
-        <v>33.925329133674</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.548751193564764</v>
+        <v>10.55990016540573</v>
       </c>
       <c r="K16">
-        <v>41.3792096175684</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>26.58525192796916</v>
+        <v>15.54795324170033</v>
       </c>
       <c r="M16">
-        <v>23.60153715710074</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>19.57391472626328</v>
+      </c>
+      <c r="N16">
+        <v>12.52273829881307</v>
+      </c>
+      <c r="O16">
+        <v>37.85624754485968</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.6395056896288</v>
+        <v>23.04226153970736</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.000968959970837</v>
+        <v>11.24445715255256</v>
       </c>
       <c r="E17">
-        <v>11.75346706623352</v>
+        <v>18.4994865692756</v>
       </c>
       <c r="F17">
-        <v>42.46644836880822</v>
+        <v>44.65466614050542</v>
       </c>
       <c r="G17">
-        <v>33.21291794483844</v>
+        <v>2.023844249306537</v>
       </c>
       <c r="H17">
-        <v>33.10025822737424</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.511258598797443</v>
+        <v>10.41108242382333</v>
       </c>
       <c r="K17">
-        <v>40.45576971046737</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>25.97938498564713</v>
+        <v>15.19047045894827</v>
       </c>
       <c r="M17">
-        <v>23.07586414164864</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>19.12605025037087</v>
+      </c>
+      <c r="N17">
+        <v>12.66304559967502</v>
+      </c>
+      <c r="O17">
+        <v>37.16063235397421</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.44193532124189</v>
+        <v>22.77818409538218</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.935225300428281</v>
+        <v>11.09638127281478</v>
       </c>
       <c r="E18">
-        <v>11.66743944291305</v>
+        <v>18.28538701098065</v>
       </c>
       <c r="F18">
-        <v>41.85620124262216</v>
+        <v>44.20898795459469</v>
       </c>
       <c r="G18">
-        <v>32.72010461233979</v>
+        <v>2.027528109648259</v>
       </c>
       <c r="H18">
-        <v>32.62573958303765</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.489911711576706</v>
+        <v>10.32515316102448</v>
       </c>
       <c r="K18">
-        <v>39.91914072670365</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>25.6274988866665</v>
+        <v>14.98266640925532</v>
       </c>
       <c r="M18">
-        <v>22.77043907560532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18.86558628418645</v>
+      </c>
+      <c r="N18">
+        <v>12.74361558303864</v>
+      </c>
+      <c r="O18">
+        <v>36.76206546417747</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.37464596556717</v>
+        <v>22.68845045228202</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.912962984299775</v>
+        <v>11.04606923469077</v>
       </c>
       <c r="E19">
-        <v>11.63829385447078</v>
+        <v>18.21262731628384</v>
       </c>
       <c r="F19">
-        <v>41.64948151689279</v>
+        <v>44.05854266659738</v>
       </c>
       <c r="G19">
-        <v>32.55310627089106</v>
+        <v>2.028775272503018</v>
       </c>
       <c r="H19">
-        <v>32.46506067169629</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.482720031977323</v>
+        <v>10.29599942542817</v>
       </c>
       <c r="K19">
-        <v>39.73648406939321</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>25.50775660192641</v>
+        <v>14.91192432295198</v>
       </c>
       <c r="M19">
-        <v>22.66648861510322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>18.77689769544542</v>
+      </c>
+      <c r="N19">
+        <v>12.77087752923496</v>
+      </c>
+      <c r="O19">
+        <v>36.62737049107145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.67588499721173</v>
+        <v>23.09098404232102</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.013136767618904</v>
+        <v>11.27178066856835</v>
       </c>
       <c r="E20">
-        <v>11.76938105992668</v>
+        <v>18.53898543386781</v>
       </c>
       <c r="F20">
-        <v>42.57935001087666</v>
+        <v>44.73736937030427</v>
       </c>
       <c r="G20">
-        <v>33.30406562120743</v>
+        <v>2.023162326293456</v>
       </c>
       <c r="H20">
-        <v>33.18807887282729</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.51522685869916</v>
+        <v>10.42695824274037</v>
       </c>
       <c r="K20">
-        <v>40.55463484542398</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>26.04422972239479</v>
+        <v>15.2287499777317</v>
       </c>
       <c r="M20">
-        <v>23.13213815402069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>19.17402068044443</v>
+      </c>
+      <c r="N20">
+        <v>12.6481243813447</v>
+      </c>
+      <c r="O20">
+        <v>37.23452060409807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.66132078726573</v>
+        <v>24.4214275960247</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.350414549807457</v>
+        <v>12.01894440546933</v>
       </c>
       <c r="E21">
-        <v>12.20910672853094</v>
+        <v>19.61791477195622</v>
       </c>
       <c r="F21">
-        <v>45.7008418416832</v>
+        <v>47.05158010012656</v>
       </c>
       <c r="G21">
-        <v>35.82114165539365</v>
+        <v>2.004255155234374</v>
       </c>
       <c r="H21">
-        <v>35.61966166259494</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.62716450132273</v>
+        <v>10.86317885910108</v>
       </c>
       <c r="K21">
-        <v>43.23951826925254</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>27.80714298150699</v>
+        <v>16.26764748162725</v>
       </c>
       <c r="M21">
-        <v>24.66084457339741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>20.47471198286178</v>
+      </c>
+      <c r="N21">
+        <v>12.23374179217159</v>
+      </c>
+      <c r="O21">
+        <v>39.29369432894345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.28653021726096</v>
+        <v>25.31425522955636</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.572549370957598</v>
+        <v>12.50030648119902</v>
       </c>
       <c r="E22">
-        <v>12.4967511348143</v>
+        <v>20.31149913558658</v>
       </c>
       <c r="F22">
-        <v>47.74485403976077</v>
+        <v>48.59179344235702</v>
       </c>
       <c r="G22">
-        <v>37.46682690113612</v>
+        <v>1.991810802715485</v>
       </c>
       <c r="H22">
-        <v>37.21536318134154</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.702643135258819</v>
+        <v>11.14596713407772</v>
       </c>
       <c r="K22">
-        <v>44.95049896258909</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>28.93263185972625</v>
+        <v>16.92892458141559</v>
       </c>
       <c r="M22">
-        <v>25.63542897215338</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>21.30129020317131</v>
+      </c>
+      <c r="N22">
+        <v>11.96053477467369</v>
+      </c>
+      <c r="O22">
+        <v>40.65628715899361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.95449345424835</v>
+        <v>24.82090188269446</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.453752543575343</v>
+        <v>12.24393224040645</v>
       </c>
       <c r="E23">
-        <v>12.34314738119056</v>
+        <v>19.94226588482675</v>
       </c>
       <c r="F23">
-        <v>46.65312516361655</v>
+        <v>47.76699821395827</v>
       </c>
       <c r="G23">
-        <v>36.58806087863493</v>
+        <v>1.998464175520366</v>
       </c>
       <c r="H23">
-        <v>36.36275736976388</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.662124922385372</v>
+        <v>10.99521070878046</v>
       </c>
       <c r="K23">
-        <v>44.0410418557187</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>28.3341811493935</v>
+        <v>16.57751295428847</v>
       </c>
       <c r="M23">
-        <v>25.11736512481817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20.86217355973821</v>
+      </c>
+      <c r="N23">
+        <v>12.10663352139474</v>
+      </c>
+      <c r="O23">
+        <v>39.92731792717247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.65944527271638</v>
+        <v>23.06896276994832</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.007635750031439</v>
+        <v>11.25943099873669</v>
       </c>
       <c r="E24">
-        <v>11.76218673820951</v>
+        <v>18.52113306364674</v>
       </c>
       <c r="F24">
-        <v>42.52830943620629</v>
+        <v>44.69997146257466</v>
       </c>
       <c r="G24">
-        <v>33.26286061928433</v>
+        <v>2.02347062494591</v>
       </c>
       <c r="H24">
-        <v>33.14837576316225</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.5134321639401</v>
+        <v>10.41978195002877</v>
       </c>
       <c r="K24">
-        <v>40.50995582204737</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>26.01492455935584</v>
+        <v>15.21145093528853</v>
       </c>
       <c r="M24">
-        <v>23.10670669658428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>19.15234255424324</v>
+      </c>
+      <c r="N24">
+        <v>12.65487054600483</v>
+      </c>
+      <c r="O24">
+        <v>37.20111154650278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.17517007815296</v>
+        <v>21.10824067185954</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.526604333571038</v>
+        <v>10.1592039320617</v>
       </c>
       <c r="E25">
-        <v>11.13206997328553</v>
+        <v>16.92934554823458</v>
       </c>
       <c r="F25">
-        <v>38.30944635884496</v>
+        <v>41.49487257079586</v>
       </c>
       <c r="G25">
-        <v>29.68129413751984</v>
+        <v>2.05038267796042</v>
       </c>
       <c r="H25">
-        <v>29.90392899910414</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.361260610916911</v>
+        <v>9.786207208022711</v>
       </c>
       <c r="K25">
-        <v>36.48920637732757</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>23.38153186515813</v>
+        <v>13.65349211423097</v>
       </c>
       <c r="M25">
-        <v>20.81934916498328</v>
+        <v>17.56706193996466</v>
+      </c>
+      <c r="N25">
+        <v>13.24171057122824</v>
+      </c>
+      <c r="O25">
+        <v>34.31872505303816</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.60281024176542</v>
+        <v>18.01263651421803</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.308701469786076</v>
+        <v>7.768730175631582</v>
       </c>
       <c r="E2">
-        <v>15.69906756910021</v>
+        <v>14.13895022437784</v>
       </c>
       <c r="F2">
-        <v>39.21339470416023</v>
+        <v>31.02325050391484</v>
       </c>
       <c r="G2">
-        <v>2.070434014177077</v>
+        <v>47.46145112239367</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>13.45677139021804</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.306431248180887</v>
+        <v>9.00514807453574</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>12.49570948267455</v>
+        <v>11.12146105574252</v>
       </c>
       <c r="M2">
-        <v>16.44244847968335</v>
+        <v>14.80583133322812</v>
       </c>
       <c r="N2">
-        <v>13.67523668074103</v>
+        <v>13.62360373462362</v>
       </c>
       <c r="O2">
-        <v>32.23805325129644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.54560153746148</v>
+        <v>17.02792045202802</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.704297311813962</v>
+        <v>7.475207181348305</v>
       </c>
       <c r="E3">
-        <v>14.82658132379127</v>
+        <v>13.63877189772182</v>
       </c>
       <c r="F3">
-        <v>37.7146996565249</v>
+        <v>29.94957733503276</v>
       </c>
       <c r="G3">
-        <v>2.084287674304249</v>
+        <v>44.94852313500996</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>13.07761794699262</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.972494672813067</v>
+        <v>8.804676295364258</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.78893716563226</v>
+        <v>10.37605471251135</v>
       </c>
       <c r="M3">
-        <v>15.66155777053613</v>
+        <v>14.08982225562876</v>
       </c>
       <c r="N3">
-        <v>13.97212689320522</v>
+        <v>13.83115633258816</v>
       </c>
       <c r="O3">
-        <v>30.85335338684038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.87936012936025</v>
+        <v>16.40262987855095</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.318678582515613</v>
+        <v>7.290676231035109</v>
       </c>
       <c r="E4">
-        <v>14.27137225643357</v>
+        <v>13.32380462357565</v>
       </c>
       <c r="F4">
-        <v>36.8182506826886</v>
+        <v>29.30803906001034</v>
       </c>
       <c r="G4">
-        <v>2.092957441992434</v>
+        <v>43.39319719198158</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.85368348857519</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.763103436079346</v>
+        <v>8.679875969555015</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.34262802705431</v>
+        <v>9.893545821762322</v>
       </c>
       <c r="M4">
-        <v>15.17381553516503</v>
+        <v>13.63838806901511</v>
       </c>
       <c r="N4">
-        <v>14.15656061098883</v>
+        <v>13.96219072307834</v>
       </c>
       <c r="O4">
-        <v>30.01635352387774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.60379857913346</v>
+        <v>16.1428645922949</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.157807438517745</v>
+        <v>7.214411179329493</v>
       </c>
       <c r="E5">
-        <v>14.04019958325646</v>
+        <v>13.19354298241666</v>
       </c>
       <c r="F5">
-        <v>36.45903256580229</v>
+        <v>29.05124879463122</v>
       </c>
       <c r="G5">
-        <v>2.096535952935848</v>
+        <v>42.75696338739802</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.76468625543211</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.67669284408362</v>
+        <v>8.628607428635297</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.15776822254744</v>
+        <v>9.694380446382747</v>
       </c>
       <c r="M5">
-        <v>14.97317291567451</v>
+        <v>13.45166729518716</v>
       </c>
       <c r="N5">
-        <v>14.23233993528195</v>
+        <v>14.0165091539046</v>
       </c>
       <c r="O5">
-        <v>29.67877531989024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.55780472343946</v>
+        <v>16.09943975852674</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.130867815014904</v>
+        <v>7.201683610578621</v>
       </c>
       <c r="E6">
-        <v>14.00151657965747</v>
+        <v>13.17179999023709</v>
       </c>
       <c r="F6">
-        <v>36.39975684224975</v>
+        <v>29.00889506462787</v>
       </c>
       <c r="G6">
-        <v>2.097133031049602</v>
+        <v>42.65119370452211</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.75004549797766</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.662279686076001</v>
+        <v>8.620070084963132</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.12689648186869</v>
+        <v>9.666269964562598</v>
       </c>
       <c r="M6">
-        <v>14.93974920984158</v>
+        <v>13.42050279395213</v>
       </c>
       <c r="N6">
-        <v>14.24496281993182</v>
+        <v>14.02558478437405</v>
       </c>
       <c r="O6">
-        <v>29.62293892809835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.87565989420517</v>
+        <v>16.39914628987592</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.316524203464848</v>
+        <v>7.289651987285883</v>
       </c>
       <c r="E7">
-        <v>14.26827449912064</v>
+        <v>13.32205550511415</v>
       </c>
       <c r="F7">
-        <v>36.81338128828219</v>
+        <v>29.30455684307709</v>
       </c>
       <c r="G7">
-        <v>2.093005513276758</v>
+        <v>43.38462552555631</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.85247406231169</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.76194242791315</v>
+        <v>8.679186182884832</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.34014683854477</v>
+        <v>9.890834707313727</v>
       </c>
       <c r="M7">
-        <v>15.171116932988</v>
+        <v>13.63588074713017</v>
       </c>
       <c r="N7">
-        <v>14.15757997895167</v>
+        <v>13.96291953020032</v>
       </c>
       <c r="O7">
-        <v>30.01178634554104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.24195953044923</v>
+        <v>17.67752584084818</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.103260533266145</v>
+        <v>7.668423713355915</v>
       </c>
       <c r="E8">
-        <v>15.40225895957577</v>
+        <v>13.96815361280704</v>
       </c>
       <c r="F8">
-        <v>38.69177004156536</v>
+        <v>30.64948406166592</v>
       </c>
       <c r="G8">
-        <v>2.075179580427156</v>
+        <v>46.59792743879163</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>13.32421561226263</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.19219688447523</v>
+        <v>8.936390301579559</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.25463510593111</v>
+        <v>10.86956408776656</v>
       </c>
       <c r="M8">
-        <v>16.17501785969799</v>
+        <v>14.56151488039943</v>
       </c>
       <c r="N8">
-        <v>13.77721195399556</v>
+        <v>13.69443153206912</v>
       </c>
       <c r="O8">
-        <v>31.75795728926093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.77837533353353</v>
+        <v>20.01243054589051</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.53565909432719</v>
+        <v>8.376879809382496</v>
       </c>
       <c r="E9">
-        <v>17.47417628096063</v>
+        <v>15.17080234221551</v>
       </c>
       <c r="F9">
-        <v>42.56190612826612</v>
+        <v>33.4200800322436</v>
       </c>
       <c r="G9">
-        <v>2.04129798683908</v>
+        <v>52.77892752016074</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>14.31859057572526</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.00158369096657</v>
+        <v>9.426599338447938</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.19033048545888</v>
+        <v>12.59458597456687</v>
       </c>
       <c r="M9">
-        <v>18.07184991026833</v>
+        <v>16.27577219792005</v>
       </c>
       <c r="N9">
-        <v>13.04413089819622</v>
+        <v>13.19569480668678</v>
       </c>
       <c r="O9">
-        <v>35.28288010039365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.5499238511585</v>
+        <v>21.61576658263149</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>11.52924466452397</v>
+        <v>8.877138256229914</v>
       </c>
       <c r="E10">
-        <v>18.91104360281283</v>
+        <v>16.01377317333576</v>
       </c>
       <c r="F10">
-        <v>45.52356986130568</v>
+        <v>35.52979061869416</v>
       </c>
       <c r="G10">
-        <v>2.016703673866655</v>
+        <v>57.22896051795628</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>15.09061166226579</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.57683805694773</v>
+        <v>9.777684887028053</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>15.58845348833123</v>
+        <v>13.74784790769939</v>
       </c>
       <c r="M10">
-        <v>19.6246374015215</v>
+        <v>17.68242800544006</v>
       </c>
       <c r="N10">
-        <v>12.50670668157462</v>
+        <v>12.84510637781465</v>
       </c>
       <c r="O10">
-        <v>37.9358383881263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.33615251114247</v>
+        <v>22.32014245294494</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>11.97096557772489</v>
+        <v>9.10072518698802</v>
       </c>
       <c r="E11">
-        <v>19.54871053323611</v>
+        <v>16.38853542759369</v>
       </c>
       <c r="F11">
-        <v>46.90007258564889</v>
+        <v>36.50514383656106</v>
       </c>
       <c r="G11">
-        <v>2.00548427181863</v>
+        <v>59.23311472707096</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15.45092802099599</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.83505875823125</v>
+        <v>9.935458642311703</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.20139041856449</v>
+        <v>14.24881938520007</v>
       </c>
       <c r="M11">
-        <v>20.3918324028756</v>
+        <v>18.33488400129705</v>
       </c>
       <c r="N11">
-        <v>12.26071157953437</v>
+        <v>12.68880909694466</v>
       </c>
       <c r="O11">
-        <v>39.15934242296687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.63115560470776</v>
+        <v>22.58326881723289</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>12.13701589202963</v>
+        <v>9.184870113261361</v>
       </c>
       <c r="E12">
-        <v>19.78816681201617</v>
+        <v>16.52922910424417</v>
       </c>
       <c r="F12">
-        <v>47.42601915766343</v>
+        <v>36.87676890459344</v>
       </c>
       <c r="G12">
-        <v>2.001221700499541</v>
+        <v>59.98929797891339</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>15.58871417366406</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.93243445265009</v>
+        <v>9.994935500641738</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>16.43043362848976</v>
+        <v>14.43522572450392</v>
       </c>
       <c r="M12">
-        <v>20.67829247171051</v>
+        <v>18.57753064283768</v>
       </c>
       <c r="N12">
-        <v>12.16716703508568</v>
+        <v>12.63006163634815</v>
       </c>
       <c r="O12">
-        <v>39.62548243262711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.56774024423861</v>
+        <v>22.52676003149539</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>12.10130361064757</v>
+        <v>9.166770274616251</v>
       </c>
       <c r="E13">
-        <v>19.73667997239277</v>
+        <v>16.49898175374569</v>
       </c>
       <c r="F13">
-        <v>47.31252838683513</v>
+        <v>36.79663011751742</v>
       </c>
       <c r="G13">
-        <v>2.002140514507125</v>
+        <v>59.82655832229996</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>15.55897901940468</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.91147918012493</v>
+        <v>9.982137802064869</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.38123678722782</v>
+        <v>14.39522485777052</v>
       </c>
       <c r="M13">
-        <v>20.61677371421796</v>
+        <v>18.52546697497236</v>
       </c>
       <c r="N13">
-        <v>12.18733400166612</v>
+        <v>12.64269474559772</v>
       </c>
       <c r="O13">
-        <v>39.52495640004128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.36047637493009</v>
+        <v>22.34186222454555</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>11.98464943534621</v>
+        <v>9.107657971464004</v>
       </c>
       <c r="E14">
-        <v>19.56844925427172</v>
+        <v>16.40013458535069</v>
       </c>
       <c r="F14">
-        <v>46.94324491231915</v>
+        <v>36.5356715225243</v>
       </c>
       <c r="G14">
-        <v>2.005133928968333</v>
+        <v>59.29537995110658</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>15.46223661005579</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.84307744181193</v>
+        <v>9.940357138888075</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.2202937155185</v>
+        <v>14.26422068048114</v>
       </c>
       <c r="M14">
-        <v>20.41547921966341</v>
+        <v>18.354934588459</v>
       </c>
       <c r="N14">
-        <v>12.2530245529809</v>
+        <v>12.68396722400551</v>
       </c>
       <c r="O14">
-        <v>39.1976323121203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.2331706161594</v>
+        <v>22.22813766274595</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>11.9130449937747</v>
+        <v>9.071383675572841</v>
       </c>
       <c r="E15">
-        <v>19.46515029674486</v>
+        <v>16.33943018837305</v>
       </c>
       <c r="F15">
-        <v>46.71767748305248</v>
+        <v>36.37612593188179</v>
       </c>
       <c r="G15">
-        <v>2.006965344907179</v>
+        <v>58.96966758676878</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>15.40315520009189</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.80112962343609</v>
+        <v>9.914730716875775</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.12132084674764</v>
+        <v>14.18355017303159</v>
       </c>
       <c r="M15">
-        <v>20.29166102453412</v>
+        <v>18.24990636334634</v>
       </c>
       <c r="N15">
-        <v>12.29320530566161</v>
+        <v>12.70930438650537</v>
       </c>
       <c r="O15">
-        <v>38.99752063126452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.49815361443476</v>
+        <v>21.56922929879303</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>11.50019139821691</v>
+        <v>8.862450115224767</v>
       </c>
       <c r="E16">
-        <v>18.86907180200322</v>
+        <v>15.98910854694274</v>
       </c>
       <c r="F16">
-        <v>45.43423799954832</v>
+        <v>35.46636471138892</v>
       </c>
       <c r="G16">
-        <v>2.017435479337345</v>
+        <v>57.09758781888807</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>15.06724975471693</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.55990016540573</v>
+        <v>9.767335697881691</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>15.54795324170033</v>
+        <v>13.71464062670747</v>
       </c>
       <c r="M16">
-        <v>19.57391472626328</v>
+        <v>17.63916220211182</v>
       </c>
       <c r="N16">
-        <v>12.52273829881307</v>
+        <v>12.85538326068421</v>
       </c>
       <c r="O16">
-        <v>37.85624754485968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.04226153970736</v>
+        <v>21.15859044169978</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>11.24445715255256</v>
+        <v>8.733286900924558</v>
       </c>
       <c r="E17">
-        <v>18.4994865692756</v>
+        <v>15.77198272797907</v>
       </c>
       <c r="F17">
-        <v>44.65466614050542</v>
+        <v>34.91226078539178</v>
       </c>
       <c r="G17">
-        <v>2.023844249306537</v>
+        <v>55.94401764401798</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>14.86353316333935</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.41108242382333</v>
+        <v>9.676422215291076</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.19047045894827</v>
+        <v>13.42098976832601</v>
       </c>
       <c r="M17">
-        <v>19.12605025037087</v>
+        <v>17.25647126672769</v>
       </c>
       <c r="N17">
-        <v>12.66304559967502</v>
+        <v>12.94580058738106</v>
       </c>
       <c r="O17">
-        <v>37.16063235397421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.77818409538218</v>
+        <v>20.92004816156261</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>11.09638127281478</v>
+        <v>8.658616825778354</v>
       </c>
       <c r="E18">
-        <v>18.28538701098065</v>
+        <v>15.64627474285227</v>
       </c>
       <c r="F18">
-        <v>44.20898795459469</v>
+        <v>34.59502056909276</v>
       </c>
       <c r="G18">
-        <v>2.027528109648259</v>
+        <v>55.2785950573882</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>14.74721606849165</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.32515316102448</v>
+        <v>9.623947850685374</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>14.98266640925532</v>
+        <v>13.24985655404189</v>
       </c>
       <c r="M18">
-        <v>18.86558628418645</v>
+        <v>17.0333705434401</v>
       </c>
       <c r="N18">
-        <v>12.74361558303864</v>
+        <v>12.99810742032265</v>
       </c>
       <c r="O18">
-        <v>36.76206546417747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.68845045228202</v>
+        <v>20.83887852559216</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>11.04606923469077</v>
+        <v>8.633268478257301</v>
       </c>
       <c r="E19">
-        <v>18.21262731628384</v>
+        <v>15.60357021688342</v>
       </c>
       <c r="F19">
-        <v>44.05854266659738</v>
+        <v>34.48786039649357</v>
       </c>
       <c r="G19">
-        <v>2.028775272503018</v>
+        <v>55.05296256349097</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>14.70797943711924</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.29599942542817</v>
+        <v>9.606149266851752</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>14.91192432295198</v>
+        <v>13.19152738224532</v>
       </c>
       <c r="M19">
-        <v>18.77689769544542</v>
+        <v>16.95731577819002</v>
       </c>
       <c r="N19">
-        <v>12.77087752923496</v>
+        <v>13.01586992551098</v>
       </c>
       <c r="O19">
-        <v>36.62737049107145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.09098404232102</v>
+        <v>21.20254744011563</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>11.27178066856835</v>
+        <v>8.747075436063476</v>
       </c>
       <c r="E20">
-        <v>18.53898543386781</v>
+        <v>15.79518115331572</v>
       </c>
       <c r="F20">
-        <v>44.73736937030427</v>
+        <v>34.97109439495406</v>
       </c>
       <c r="G20">
-        <v>2.023162326293456</v>
+        <v>56.06701519719572</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>14.88513047393589</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.42695824274037</v>
+        <v>9.686119037794219</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.2287499777317</v>
+        <v>13.45247981806425</v>
       </c>
       <c r="M20">
-        <v>19.17402068044443</v>
+        <v>17.29751763512637</v>
       </c>
       <c r="N20">
-        <v>12.6481243813447</v>
+        <v>12.93614447666888</v>
       </c>
       <c r="O20">
-        <v>37.23452060409807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.4214275960247</v>
+        <v>22.39626897142928</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>12.01894440546933</v>
+        <v>9.125034393702487</v>
       </c>
       <c r="E21">
-        <v>19.61791477195622</v>
+        <v>16.42920116179453</v>
       </c>
       <c r="F21">
-        <v>47.05158010012656</v>
+        <v>36.61225889957257</v>
       </c>
       <c r="G21">
-        <v>2.004255155234374</v>
+        <v>59.451472405171</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>15.49061541044732</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.86317885910108</v>
+        <v>9.952636305873993</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.26764748162725</v>
+        <v>14.30278850383858</v>
       </c>
       <c r="M21">
-        <v>20.47471198286178</v>
+        <v>18.40514309016079</v>
       </c>
       <c r="N21">
-        <v>12.23374179217159</v>
+        <v>12.67183274116976</v>
       </c>
       <c r="O21">
-        <v>39.29369432894345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.31425522955636</v>
+        <v>23.15543767557934</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>12.50030648119902</v>
+        <v>9.369041085791963</v>
       </c>
       <c r="E22">
-        <v>20.31149913558658</v>
+        <v>16.83648561909446</v>
       </c>
       <c r="F22">
-        <v>48.59179344235702</v>
+        <v>37.69821223125977</v>
       </c>
       <c r="G22">
-        <v>1.991810802715485</v>
+        <v>61.64759059115924</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>15.89419036440996</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.14596713407772</v>
+        <v>10.12526526383324</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>16.92892458141559</v>
+        <v>14.83933067816975</v>
       </c>
       <c r="M22">
-        <v>21.30129020317131</v>
+        <v>19.10331989429407</v>
       </c>
       <c r="N22">
-        <v>11.96053477467369</v>
+        <v>12.5016387978662</v>
       </c>
       <c r="O22">
-        <v>40.65628715899361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.82090188269446</v>
+        <v>22.75217152024695</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>12.24393224040645</v>
+        <v>9.239064952688173</v>
       </c>
       <c r="E23">
-        <v>19.94226588482675</v>
+        <v>16.61974220387769</v>
       </c>
       <c r="F23">
-        <v>47.76699821395827</v>
+        <v>37.11736664552843</v>
       </c>
       <c r="G23">
-        <v>1.998464175520366</v>
+        <v>60.47683473052827</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>15.67805941124669</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.99521070878046</v>
+        <v>10.03326693022541</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>16.57751295428847</v>
+        <v>14.55468702498329</v>
       </c>
       <c r="M23">
-        <v>20.86217355973821</v>
+        <v>18.73299820541695</v>
       </c>
       <c r="N23">
-        <v>12.10663352139474</v>
+        <v>12.59224780265235</v>
       </c>
       <c r="O23">
-        <v>39.92731792717247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.06896276994832</v>
+        <v>21.18268214382347</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>11.25943099873669</v>
+        <v>8.740842927512595</v>
       </c>
       <c r="E24">
-        <v>18.52113306364674</v>
+        <v>15.78469588664417</v>
       </c>
       <c r="F24">
-        <v>44.69997146257466</v>
+        <v>34.94449160527028</v>
       </c>
       <c r="G24">
-        <v>2.02347062494591</v>
+        <v>56.01141492716732</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>14.87536383285938</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.41978195002877</v>
+        <v>9.681735749711343</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.21145093528853</v>
+        <v>13.43825036737524</v>
       </c>
       <c r="M24">
-        <v>19.15234255424324</v>
+        <v>17.27897019547907</v>
       </c>
       <c r="N24">
-        <v>12.65487054600483</v>
+        <v>12.94050899147552</v>
       </c>
       <c r="O24">
-        <v>37.20111154650278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.10824067185954</v>
+        <v>19.40010702380564</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.1592039320617</v>
+        <v>8.188871159020216</v>
       </c>
       <c r="E25">
-        <v>16.92934554823458</v>
+        <v>14.8525530152555</v>
       </c>
       <c r="F25">
-        <v>41.49487257079586</v>
+        <v>32.6571794409765</v>
       </c>
       <c r="G25">
-        <v>2.05038267796042</v>
+        <v>51.12211461496439</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14.04228593328465</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.786207208022711</v>
+        <v>9.295565508710348</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.65349211423097</v>
+        <v>12.14830295795721</v>
       </c>
       <c r="M25">
-        <v>17.56706193996466</v>
+        <v>15.82369027480935</v>
       </c>
       <c r="N25">
-        <v>13.24171057122824</v>
+        <v>13.32775524813259</v>
       </c>
       <c r="O25">
-        <v>34.31872505303816</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.01263651421803</v>
+        <v>19.3032722193255</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.768730175631582</v>
+        <v>8.618142845807071</v>
       </c>
       <c r="E2">
-        <v>14.13895022437784</v>
+        <v>14.73139184132897</v>
       </c>
       <c r="F2">
-        <v>31.02325050391484</v>
+        <v>39.46283821389006</v>
       </c>
       <c r="G2">
-        <v>47.46145112239367</v>
+        <v>47.82749118213547</v>
       </c>
       <c r="H2">
-        <v>13.45677139021804</v>
+        <v>18.55754805184232</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.00514807453574</v>
+        <v>11.0317279510894</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.12146105574252</v>
+        <v>11.47213404137494</v>
       </c>
       <c r="M2">
-        <v>14.80583133322812</v>
+        <v>18.03009658347736</v>
       </c>
       <c r="N2">
-        <v>13.62360373462362</v>
+        <v>20.21711124810983</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.02792045202802</v>
+        <v>19.10327141264699</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.475207181348305</v>
+        <v>8.533844714924252</v>
       </c>
       <c r="E3">
-        <v>13.63877189772182</v>
+        <v>14.57916417425866</v>
       </c>
       <c r="F3">
-        <v>29.94957733503276</v>
+        <v>39.42211884920286</v>
       </c>
       <c r="G3">
-        <v>44.94852313500996</v>
+        <v>47.43139997684967</v>
       </c>
       <c r="H3">
-        <v>13.07761794699262</v>
+        <v>18.55971654144591</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.804676295364258</v>
+        <v>10.97962870786365</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.37605471251135</v>
+        <v>11.33607853651253</v>
       </c>
       <c r="M3">
-        <v>14.08982225562876</v>
+        <v>17.91394446464671</v>
       </c>
       <c r="N3">
-        <v>13.83115633258816</v>
+        <v>20.28241678658563</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.40262987855095</v>
+        <v>18.98322673041606</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.290676231035109</v>
+        <v>8.480869230386794</v>
       </c>
       <c r="E4">
-        <v>13.32380462357565</v>
+        <v>14.48384913065668</v>
       </c>
       <c r="F4">
-        <v>29.30803906001034</v>
+        <v>39.40878372390222</v>
       </c>
       <c r="G4">
-        <v>43.39319719198158</v>
+        <v>47.20425514132499</v>
       </c>
       <c r="H4">
-        <v>12.85368348857519</v>
+        <v>18.56573348416452</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.679875969555015</v>
+        <v>10.94724088238149</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.893545821762322</v>
+        <v>11.25362415191868</v>
       </c>
       <c r="M4">
-        <v>13.63838806901511</v>
+        <v>17.84526161643937</v>
       </c>
       <c r="N4">
-        <v>13.96219072307834</v>
+        <v>20.3246940080631</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.1428645922949</v>
+        <v>18.93505064918466</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.214411179329493</v>
+        <v>8.458982493054945</v>
       </c>
       <c r="E5">
-        <v>13.19354298241666</v>
+        <v>14.44456053826033</v>
       </c>
       <c r="F5">
-        <v>29.05124879463122</v>
+        <v>39.40628142813265</v>
       </c>
       <c r="G5">
-        <v>42.75696338739802</v>
+        <v>47.11581848881388</v>
       </c>
       <c r="H5">
-        <v>12.76468625543211</v>
+        <v>18.56936157324085</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.628607428635297</v>
+        <v>10.93394560308952</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.694380446382747</v>
+        <v>11.22033040248681</v>
       </c>
       <c r="M5">
-        <v>13.45166729518716</v>
+        <v>17.81795748748227</v>
       </c>
       <c r="N5">
-        <v>14.0165091539046</v>
+        <v>20.34247182625404</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.09943975852674</v>
+        <v>18.92709736019268</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.201683610578621</v>
+        <v>8.455330376537804</v>
       </c>
       <c r="E6">
-        <v>13.17179999023709</v>
+        <v>14.43801021634751</v>
       </c>
       <c r="F6">
-        <v>29.00889506462787</v>
+        <v>39.40604289663667</v>
       </c>
       <c r="G6">
-        <v>42.65119370452211</v>
+        <v>47.10138531093166</v>
       </c>
       <c r="H6">
-        <v>12.75004549797766</v>
+        <v>18.57003497652105</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.620070084963132</v>
+        <v>10.9317321699246</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.666269964562598</v>
+        <v>11.21482154359892</v>
       </c>
       <c r="M6">
-        <v>13.42050279395213</v>
+        <v>17.81346563622271</v>
       </c>
       <c r="N6">
-        <v>14.02558478437405</v>
+        <v>20.34545705241135</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.39914628987592</v>
+        <v>18.9825739373057</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.289651987285883</v>
+        <v>8.480575258659623</v>
       </c>
       <c r="E7">
-        <v>13.32205550511415</v>
+        <v>14.48332105738256</v>
       </c>
       <c r="F7">
-        <v>29.30455684307709</v>
+        <v>39.40873811056228</v>
       </c>
       <c r="G7">
-        <v>43.38462552555631</v>
+        <v>47.20304563428395</v>
       </c>
       <c r="H7">
-        <v>12.85247406231169</v>
+        <v>18.56577765505148</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.679186182884832</v>
+        <v>10.94706196593159</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.890834707313727</v>
+        <v>11.25317385233755</v>
       </c>
       <c r="M7">
-        <v>13.63588074713017</v>
+        <v>17.84489058277393</v>
       </c>
       <c r="N7">
-        <v>13.96291953020032</v>
+        <v>20.32493153904376</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.67752584084818</v>
+        <v>19.23377016527638</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.668423713355915</v>
+        <v>8.589333412194931</v>
       </c>
       <c r="E8">
-        <v>13.96815361280704</v>
+        <v>14.67929737883385</v>
       </c>
       <c r="F8">
-        <v>30.64948406166592</v>
+        <v>39.44637644049976</v>
       </c>
       <c r="G8">
-        <v>46.59792743879163</v>
+        <v>47.68764267172041</v>
       </c>
       <c r="H8">
-        <v>13.32421561226263</v>
+        <v>18.5573222323046</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.936390301579559</v>
+        <v>11.01384884386907</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.86956408776656</v>
+        <v>11.42501787450292</v>
       </c>
       <c r="M8">
-        <v>14.56151488039943</v>
+        <v>17.98951399373777</v>
       </c>
       <c r="N8">
-        <v>13.69443153206912</v>
+        <v>20.23917716687568</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.01243054589051</v>
+        <v>19.74598579826261</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.376879809382496</v>
+        <v>8.792659957724654</v>
       </c>
       <c r="E9">
-        <v>15.17080234221551</v>
+        <v>15.04820675313479</v>
       </c>
       <c r="F9">
-        <v>33.4200800322436</v>
+        <v>39.61272044455223</v>
       </c>
       <c r="G9">
-        <v>52.77892752016074</v>
+        <v>48.76097908927409</v>
       </c>
       <c r="H9">
-        <v>14.31859057572526</v>
+        <v>18.57798254158366</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.426599338447938</v>
+        <v>11.14151242882574</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>12.59458597456687</v>
+        <v>11.76907516915124</v>
       </c>
       <c r="M9">
-        <v>16.27577219792005</v>
+        <v>18.29301250531031</v>
       </c>
       <c r="N9">
-        <v>13.19569480668678</v>
+        <v>20.08823788825997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.61576658263149</v>
+        <v>20.13119727828869</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.877138256229914</v>
+        <v>8.935592981367463</v>
       </c>
       <c r="E10">
-        <v>16.01377317333576</v>
+        <v>15.30888368153649</v>
       </c>
       <c r="F10">
-        <v>35.52979061869416</v>
+        <v>39.79113026620357</v>
       </c>
       <c r="G10">
-        <v>57.22896051795628</v>
+        <v>49.61816240011567</v>
       </c>
       <c r="H10">
-        <v>15.09061166226579</v>
+        <v>18.61591136981767</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.777684887028053</v>
+        <v>11.23310465869188</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.74784790769939</v>
+        <v>12.02410509667364</v>
       </c>
       <c r="M10">
-        <v>17.68242800544006</v>
+        <v>18.52670289815836</v>
       </c>
       <c r="N10">
-        <v>12.84510637781465</v>
+        <v>19.9877499161707</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.32014245294494</v>
+        <v>20.30770805187069</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.10072518698802</v>
+        <v>8.999137064259974</v>
       </c>
       <c r="E11">
-        <v>16.38853542759369</v>
+        <v>15.42502341362287</v>
       </c>
       <c r="F11">
-        <v>36.50514383656106</v>
+        <v>39.88439273382043</v>
       </c>
       <c r="G11">
-        <v>59.23311472707096</v>
+        <v>50.02151009768458</v>
       </c>
       <c r="H11">
-        <v>15.45092802099599</v>
+        <v>18.63810075306854</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.935458642311703</v>
+        <v>11.274254125111</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>14.24881938520007</v>
+        <v>12.14017909429509</v>
       </c>
       <c r="M11">
-        <v>18.33488400129705</v>
+        <v>18.63502389100847</v>
       </c>
       <c r="N11">
-        <v>12.68880909694466</v>
+        <v>19.94427557853449</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.58326881723289</v>
+        <v>20.37467626812819</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.184870113261361</v>
+        <v>9.022980610210162</v>
       </c>
       <c r="E12">
-        <v>16.52922910424417</v>
+        <v>15.46863476556154</v>
       </c>
       <c r="F12">
-        <v>36.87676890459344</v>
+        <v>39.92143584977767</v>
       </c>
       <c r="G12">
-        <v>59.98929797891339</v>
+        <v>50.1760422665071</v>
       </c>
       <c r="H12">
-        <v>15.58871417366406</v>
+        <v>18.64721118568637</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.994935500641738</v>
+        <v>11.28975860246421</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>14.43522572450392</v>
+        <v>12.184106098241</v>
       </c>
       <c r="M12">
-        <v>18.57753064283768</v>
+        <v>18.67630437624582</v>
       </c>
       <c r="N12">
-        <v>12.63006163634815</v>
+        <v>19.9281333796101</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.52676003149539</v>
+        <v>20.36024868447692</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.166770274616251</v>
+        <v>9.017855332863467</v>
       </c>
       <c r="E13">
-        <v>16.49898175374569</v>
+        <v>15.45925892190086</v>
       </c>
       <c r="F13">
-        <v>36.79663011751742</v>
+        <v>39.91338140698075</v>
       </c>
       <c r="G13">
-        <v>59.82655832229996</v>
+        <v>50.14268343996511</v>
       </c>
       <c r="H13">
-        <v>15.55897901940468</v>
+        <v>18.64521765021441</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.982137802064869</v>
+        <v>11.28642296069058</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>14.39522485777052</v>
+        <v>12.1746474334287</v>
       </c>
       <c r="M13">
-        <v>18.52546697497236</v>
+        <v>18.66740269566558</v>
       </c>
       <c r="N13">
-        <v>12.64269474559772</v>
+        <v>19.93159565233096</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.34186222454555</v>
+        <v>20.3132153329307</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.107657971464004</v>
+        <v>9.001103119170683</v>
       </c>
       <c r="E14">
-        <v>16.40013458535069</v>
+        <v>15.42861882087873</v>
       </c>
       <c r="F14">
-        <v>36.5356715225243</v>
+        <v>39.88740577723407</v>
       </c>
       <c r="G14">
-        <v>59.29537995110658</v>
+        <v>50.03418840247866</v>
       </c>
       <c r="H14">
-        <v>15.46223661005579</v>
+        <v>18.63883610225646</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.940357138888075</v>
+        <v>11.27553127081394</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>14.26422068048114</v>
+        <v>12.14379375558517</v>
       </c>
       <c r="M14">
-        <v>18.354934588459</v>
+        <v>18.63841497831025</v>
       </c>
       <c r="N14">
-        <v>12.68396722400551</v>
+        <v>19.94294113211025</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.22813766274595</v>
+        <v>20.28442098544346</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.071383675572841</v>
+        <v>8.990813155717277</v>
       </c>
       <c r="E15">
-        <v>16.33943018837305</v>
+        <v>15.40980242550845</v>
       </c>
       <c r="F15">
-        <v>36.37612593188179</v>
+        <v>39.87171935916216</v>
       </c>
       <c r="G15">
-        <v>58.96966758676878</v>
+        <v>49.96796150312727</v>
       </c>
       <c r="H15">
-        <v>15.40315520009189</v>
+        <v>18.63501932584185</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.914730716875775</v>
+        <v>11.26884953763581</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>14.18355017303159</v>
+        <v>12.12489031588082</v>
       </c>
       <c r="M15">
-        <v>18.24990636334634</v>
+        <v>18.62069240691746</v>
       </c>
       <c r="N15">
-        <v>12.70930438650537</v>
+        <v>19.94993227952259</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.56922929879303</v>
+        <v>20.11968275665822</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.862450115224767</v>
+        <v>8.931409918248649</v>
       </c>
       <c r="E16">
-        <v>15.98910854694274</v>
+        <v>15.30124305436155</v>
       </c>
       <c r="F16">
-        <v>35.46636471138892</v>
+        <v>39.78527777467382</v>
       </c>
       <c r="G16">
-        <v>57.09758781888807</v>
+        <v>49.59206105825405</v>
       </c>
       <c r="H16">
-        <v>15.06724975471693</v>
+        <v>18.61456040852352</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.767335697881691</v>
+        <v>11.23040473972561</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.71464062670747</v>
+        <v>12.01651747042993</v>
       </c>
       <c r="M16">
-        <v>17.63916220211182</v>
+        <v>18.5196620145437</v>
       </c>
       <c r="N16">
-        <v>12.85538326068421</v>
+        <v>19.99063599580353</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.15859044169978</v>
+        <v>20.01890797659304</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.733286900924558</v>
+        <v>8.894584765581989</v>
       </c>
       <c r="E17">
-        <v>15.77198272797907</v>
+        <v>15.2340074034585</v>
       </c>
       <c r="F17">
-        <v>34.91226078539178</v>
+        <v>39.73533961323741</v>
       </c>
       <c r="G17">
-        <v>55.94401764401798</v>
+        <v>49.36479809548497</v>
       </c>
       <c r="H17">
-        <v>14.86353316333935</v>
+        <v>18.60327248251037</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.676422215291076</v>
+        <v>11.20668524117498</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.42098976832601</v>
+        <v>11.95002347817498</v>
       </c>
       <c r="M17">
-        <v>17.25647126672769</v>
+        <v>18.45817923379168</v>
       </c>
       <c r="N17">
-        <v>12.94580058738106</v>
+        <v>20.01617874933113</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.92004816156261</v>
+        <v>19.9610684382271</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.658616825778354</v>
+        <v>8.873265300475722</v>
       </c>
       <c r="E18">
-        <v>15.64627474285227</v>
+        <v>15.19510622094544</v>
       </c>
       <c r="F18">
-        <v>34.59502056909276</v>
+        <v>39.70775668995262</v>
       </c>
       <c r="G18">
-        <v>55.2785950573882</v>
+        <v>49.23535310730666</v>
       </c>
       <c r="H18">
-        <v>14.74721606849165</v>
+        <v>18.59724466983915</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.623947850685374</v>
+        <v>11.19299403758814</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.24985655404189</v>
+        <v>11.91178563341997</v>
       </c>
       <c r="M18">
-        <v>17.0333705434401</v>
+        <v>18.42300723794335</v>
       </c>
       <c r="N18">
-        <v>12.99810742032265</v>
+        <v>20.03108100360767</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.83887852559216</v>
+        <v>19.94150788421073</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.633268478257301</v>
+        <v>8.866023300949946</v>
       </c>
       <c r="E19">
-        <v>15.60357021688342</v>
+        <v>15.18189613727185</v>
       </c>
       <c r="F19">
-        <v>34.48786039649357</v>
+        <v>39.69861378767495</v>
       </c>
       <c r="G19">
-        <v>55.05296256349097</v>
+        <v>49.19174755417636</v>
       </c>
       <c r="H19">
-        <v>14.70797943711924</v>
+        <v>18.59528361463643</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.606149266851752</v>
+        <v>11.18835023516113</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.19152738224532</v>
+        <v>11.89884140242931</v>
       </c>
       <c r="M19">
-        <v>16.95731577819002</v>
+        <v>18.41113230094666</v>
       </c>
       <c r="N19">
-        <v>13.01586992551098</v>
+        <v>20.03616288391847</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.20254744011563</v>
+        <v>20.02962325550923</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.747075436063476</v>
+        <v>8.898519261781445</v>
       </c>
       <c r="E20">
-        <v>15.79518115331572</v>
+        <v>15.2411885789802</v>
       </c>
       <c r="F20">
-        <v>34.97109439495406</v>
+        <v>39.74053770200454</v>
       </c>
       <c r="G20">
-        <v>56.06701519719572</v>
+        <v>49.38886008618764</v>
       </c>
       <c r="H20">
-        <v>14.88513047393589</v>
+        <v>18.60442601795707</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.686119037794219</v>
+        <v>11.20921525562742</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.45247981806425</v>
+        <v>11.95710134110223</v>
       </c>
       <c r="M20">
-        <v>17.29751763512637</v>
+        <v>18.46470458601121</v>
       </c>
       <c r="N20">
-        <v>12.93614447666888</v>
+        <v>20.01343787827585</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.39626897142928</v>
+        <v>20.32702715447085</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.125034393702487</v>
+        <v>9.006029653607921</v>
       </c>
       <c r="E21">
-        <v>16.42920116179453</v>
+        <v>15.43762868739173</v>
       </c>
       <c r="F21">
-        <v>36.61225889957257</v>
+        <v>39.89498871185772</v>
       </c>
       <c r="G21">
-        <v>59.451472405171</v>
+        <v>50.06600845530978</v>
       </c>
       <c r="H21">
-        <v>15.49061541044732</v>
+        <v>18.64069132725965</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.952636305873993</v>
+        <v>11.27873256862672</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>14.30278850383858</v>
+        <v>12.15285726578073</v>
       </c>
       <c r="M21">
-        <v>18.40514309016079</v>
+        <v>18.64692249620092</v>
       </c>
       <c r="N21">
-        <v>12.67183274116976</v>
+        <v>19.93959999882994</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.15543767557934</v>
+        <v>20.52211492875835</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.369041085791963</v>
+        <v>9.075013090440329</v>
       </c>
       <c r="E22">
-        <v>16.83648561909446</v>
+        <v>15.56385976502026</v>
       </c>
       <c r="F22">
-        <v>37.69821223125977</v>
+        <v>40.00598728016975</v>
       </c>
       <c r="G22">
-        <v>61.64759059115924</v>
+        <v>50.51895086934979</v>
       </c>
       <c r="H22">
-        <v>15.89419036440996</v>
+        <v>18.66851694248908</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.12526526383324</v>
+        <v>11.32371018985877</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>14.83933067816975</v>
+        <v>12.28061736220948</v>
       </c>
       <c r="M22">
-        <v>19.10331989429407</v>
+        <v>18.76752449856406</v>
       </c>
       <c r="N22">
-        <v>12.5016387978662</v>
+        <v>19.89321075363269</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.75217152024695</v>
+        <v>20.41794566208782</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.239064952688173</v>
+        <v>9.038314740481116</v>
       </c>
       <c r="E23">
-        <v>16.61974220387769</v>
+        <v>15.49669039243219</v>
       </c>
       <c r="F23">
-        <v>37.11736664552843</v>
+        <v>39.94583038463131</v>
       </c>
       <c r="G23">
-        <v>60.47683473052827</v>
+        <v>50.27630215064372</v>
       </c>
       <c r="H23">
-        <v>15.67805941124669</v>
+        <v>18.65328935846546</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.03326693022541</v>
+        <v>11.2997477263826</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>14.55468702498329</v>
+        <v>12.2124574366943</v>
       </c>
       <c r="M23">
-        <v>18.73299820541695</v>
+        <v>18.70302790298409</v>
       </c>
       <c r="N23">
-        <v>12.59224780265235</v>
+        <v>19.91779904447577</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.18268214382347</v>
+        <v>20.02477857075554</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.740842927512595</v>
+        <v>8.896740937168769</v>
       </c>
       <c r="E24">
-        <v>15.78469588664417</v>
+        <v>15.23794273613374</v>
       </c>
       <c r="F24">
-        <v>34.94449160527028</v>
+        <v>39.73818413393546</v>
       </c>
       <c r="G24">
-        <v>56.01141492716732</v>
+        <v>49.3779778762005</v>
       </c>
       <c r="H24">
-        <v>14.87536383285938</v>
+        <v>18.60390306604759</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.681735749711343</v>
+        <v>11.20807160574186</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.43825036737524</v>
+        <v>11.95390146627444</v>
       </c>
       <c r="M24">
-        <v>17.27897019547907</v>
+        <v>18.46175392616948</v>
       </c>
       <c r="N24">
-        <v>12.94050899147552</v>
+        <v>20.01467634883837</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.40010702380564</v>
+        <v>19.60563270021157</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.188871159020216</v>
+        <v>8.738760124038885</v>
       </c>
       <c r="E25">
-        <v>14.8525530152555</v>
+        <v>14.95015732858227</v>
       </c>
       <c r="F25">
-        <v>32.6571794409765</v>
+        <v>39.55782462484831</v>
       </c>
       <c r="G25">
-        <v>51.12211461496439</v>
+        <v>48.458073659822</v>
       </c>
       <c r="H25">
-        <v>14.04228593328465</v>
+        <v>18.56839870580838</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.295565508710348</v>
+        <v>11.10734913095994</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>12.14830295795721</v>
+        <v>11.67545440523733</v>
       </c>
       <c r="M25">
-        <v>15.82369027480935</v>
+        <v>18.20892169817279</v>
       </c>
       <c r="N25">
-        <v>13.32775524813259</v>
+        <v>20.12723670608856</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.3032722193255</v>
+        <v>18.01263651421803</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>8.618142845807071</v>
+        <v>7.768730175631696</v>
       </c>
       <c r="E2">
-        <v>14.73139184132897</v>
+        <v>14.1389502243779</v>
       </c>
       <c r="F2">
-        <v>39.46283821389006</v>
+        <v>31.02325050391482</v>
       </c>
       <c r="G2">
-        <v>47.82749118213547</v>
+        <v>47.46145112239367</v>
       </c>
       <c r="H2">
-        <v>18.55754805184232</v>
+        <v>13.456771390218</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.0317279510894</v>
+        <v>9.00514807453574</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.47213404137494</v>
+        <v>11.12146105574254</v>
       </c>
       <c r="M2">
-        <v>18.03009658347736</v>
+        <v>14.80583133322811</v>
       </c>
       <c r="N2">
-        <v>20.21711124810983</v>
+        <v>13.62360373462363</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.10327141264699</v>
+        <v>17.02792045202801</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.533844714924252</v>
+        <v>7.475207181348373</v>
       </c>
       <c r="E3">
-        <v>14.57916417425866</v>
+        <v>13.63877189772167</v>
       </c>
       <c r="F3">
-        <v>39.42211884920286</v>
+        <v>29.94957733503269</v>
       </c>
       <c r="G3">
-        <v>47.43139997684967</v>
+        <v>44.94852313500991</v>
       </c>
       <c r="H3">
-        <v>18.55971654144591</v>
+        <v>13.07761794699254</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.97962870786365</v>
+        <v>8.80467629536421</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.33607853651253</v>
+        <v>10.37605471251144</v>
       </c>
       <c r="M3">
-        <v>17.91394446464671</v>
+        <v>14.08982225562872</v>
       </c>
       <c r="N3">
-        <v>20.28241678658563</v>
+        <v>13.8311563325881</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.98322673041606</v>
+        <v>16.40262987855095</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.480869230386794</v>
+        <v>7.290676231034987</v>
       </c>
       <c r="E4">
-        <v>14.48384913065668</v>
+        <v>13.32380462357566</v>
       </c>
       <c r="F4">
-        <v>39.40878372390222</v>
+        <v>29.30803906001029</v>
       </c>
       <c r="G4">
-        <v>47.20425514132499</v>
+        <v>43.39319719198161</v>
       </c>
       <c r="H4">
-        <v>18.56573348416452</v>
+        <v>12.85368348857516</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.94724088238149</v>
+        <v>8.679875969555081</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.25362415191868</v>
+        <v>9.893545821762331</v>
       </c>
       <c r="M4">
-        <v>17.84526161643937</v>
+        <v>13.63838806901511</v>
       </c>
       <c r="N4">
-        <v>20.3246940080631</v>
+        <v>13.96219072307834</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.93505064918466</v>
+        <v>16.14286459229493</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.458982493054945</v>
+        <v>7.214411179329487</v>
       </c>
       <c r="E5">
-        <v>14.44456053826033</v>
+        <v>13.19354298241672</v>
       </c>
       <c r="F5">
-        <v>39.40628142813265</v>
+        <v>29.0512487946312</v>
       </c>
       <c r="G5">
-        <v>47.11581848881388</v>
+        <v>42.75696338739805</v>
       </c>
       <c r="H5">
-        <v>18.56936157324085</v>
+        <v>12.76468625543216</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.93394560308952</v>
+        <v>8.628607428635384</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.22033040248681</v>
+        <v>9.694380446382747</v>
       </c>
       <c r="M5">
-        <v>17.81795748748227</v>
+        <v>13.45166729518718</v>
       </c>
       <c r="N5">
-        <v>20.34247182625404</v>
+        <v>14.0165091539046</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.92709736019268</v>
+        <v>16.09943975852674</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.455330376537804</v>
+        <v>7.201683610578689</v>
       </c>
       <c r="E6">
-        <v>14.43801021634751</v>
+        <v>13.17179999023711</v>
       </c>
       <c r="F6">
-        <v>39.40604289663667</v>
+        <v>29.00889506462787</v>
       </c>
       <c r="G6">
-        <v>47.10138531093166</v>
+        <v>42.65119370452209</v>
       </c>
       <c r="H6">
-        <v>18.57003497652105</v>
+        <v>12.75004549797765</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.9317321699246</v>
+        <v>8.620070084963102</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.21482154359892</v>
+        <v>9.666269964562577</v>
       </c>
       <c r="M6">
-        <v>17.81346563622271</v>
+        <v>13.42050279395209</v>
       </c>
       <c r="N6">
-        <v>20.34545705241135</v>
+        <v>14.02558478437408</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9825739373057</v>
+        <v>16.39914628987596</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.480575258659623</v>
+        <v>7.289651987285809</v>
       </c>
       <c r="E7">
-        <v>14.48332105738256</v>
+        <v>13.32205550511407</v>
       </c>
       <c r="F7">
-        <v>39.40873811056228</v>
+        <v>29.30455684307719</v>
       </c>
       <c r="G7">
-        <v>47.20304563428395</v>
+        <v>43.38462552555632</v>
       </c>
       <c r="H7">
-        <v>18.56577765505148</v>
+        <v>12.85247406231175</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.94706196593159</v>
+        <v>8.679186182884852</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.25317385233755</v>
+        <v>9.890834707313703</v>
       </c>
       <c r="M7">
-        <v>17.84489058277393</v>
+        <v>13.63588074713019</v>
       </c>
       <c r="N7">
-        <v>20.32493153904376</v>
+        <v>13.96291953020042</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.23377016527638</v>
+        <v>17.67752584084818</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.589333412194931</v>
+        <v>7.668423713355989</v>
       </c>
       <c r="E8">
-        <v>14.67929737883385</v>
+        <v>13.96815361280721</v>
       </c>
       <c r="F8">
-        <v>39.44637644049976</v>
+        <v>30.64948406166589</v>
       </c>
       <c r="G8">
-        <v>47.68764267172041</v>
+        <v>46.59792743879161</v>
       </c>
       <c r="H8">
-        <v>18.5573222323046</v>
+        <v>13.32421561226261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.01384884386907</v>
+        <v>8.936390301579648</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.42501787450292</v>
+        <v>10.86956408776656</v>
       </c>
       <c r="M8">
-        <v>17.98951399373777</v>
+        <v>14.56151488039943</v>
       </c>
       <c r="N8">
-        <v>20.23917716687568</v>
+        <v>13.69443153206912</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.74598579826261</v>
+        <v>20.01243054589051</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.792659957724654</v>
+        <v>8.376879809382512</v>
       </c>
       <c r="E9">
-        <v>15.04820675313479</v>
+        <v>15.17080234221561</v>
       </c>
       <c r="F9">
-        <v>39.61272044455223</v>
+        <v>33.42008003224357</v>
       </c>
       <c r="G9">
-        <v>48.76097908927409</v>
+        <v>52.77892752016074</v>
       </c>
       <c r="H9">
-        <v>18.57798254158366</v>
+        <v>14.31859057572525</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.14151242882574</v>
+        <v>9.426599338447964</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.76907516915124</v>
+        <v>12.59458597456688</v>
       </c>
       <c r="M9">
-        <v>18.29301250531031</v>
+        <v>16.27577219792004</v>
       </c>
       <c r="N9">
-        <v>20.08823788825997</v>
+        <v>13.19569480668681</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.13119727828869</v>
+        <v>21.61576658263151</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.935592981367463</v>
+        <v>8.877138256229914</v>
       </c>
       <c r="E10">
-        <v>15.30888368153649</v>
+        <v>16.0137731733358</v>
       </c>
       <c r="F10">
-        <v>39.79113026620357</v>
+        <v>35.52979061869415</v>
       </c>
       <c r="G10">
-        <v>49.61816240011567</v>
+        <v>57.22896051795635</v>
       </c>
       <c r="H10">
-        <v>18.61591136981767</v>
+        <v>15.09061166226579</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.23310465869188</v>
+        <v>9.77768488702808</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.02410509667364</v>
+        <v>13.74784790769944</v>
       </c>
       <c r="M10">
-        <v>18.52670289815836</v>
+        <v>17.68242800544011</v>
       </c>
       <c r="N10">
-        <v>19.9877499161707</v>
+        <v>12.84510637781461</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.30770805187069</v>
+        <v>22.32014245294494</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8.999137064259974</v>
+        <v>9.100725186988003</v>
       </c>
       <c r="E11">
-        <v>15.42502341362287</v>
+        <v>16.3885354275937</v>
       </c>
       <c r="F11">
-        <v>39.88439273382043</v>
+        <v>36.50514383656104</v>
       </c>
       <c r="G11">
-        <v>50.02151009768458</v>
+        <v>59.23311472707088</v>
       </c>
       <c r="H11">
-        <v>18.63810075306854</v>
+        <v>15.450928020996</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.274254125111</v>
+        <v>9.935458642311715</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.14017909429509</v>
+        <v>14.2488193852001</v>
       </c>
       <c r="M11">
-        <v>18.63502389100847</v>
+        <v>18.33488400129704</v>
       </c>
       <c r="N11">
-        <v>19.94427557853449</v>
+        <v>12.68880909694473</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.37467626812819</v>
+        <v>22.58326881723286</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.022980610210162</v>
+        <v>9.184870113261349</v>
       </c>
       <c r="E12">
-        <v>15.46863476556154</v>
+        <v>16.52922910424413</v>
       </c>
       <c r="F12">
-        <v>39.92143584977767</v>
+        <v>36.87676890459346</v>
       </c>
       <c r="G12">
-        <v>50.1760422665071</v>
+        <v>59.98929797891331</v>
       </c>
       <c r="H12">
-        <v>18.64721118568637</v>
+        <v>15.58871417366406</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.28975860246421</v>
+        <v>9.994935500641718</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.184106098241</v>
+        <v>14.43522572450391</v>
       </c>
       <c r="M12">
-        <v>18.67630437624582</v>
+        <v>18.57753064283764</v>
       </c>
       <c r="N12">
-        <v>19.9281333796101</v>
+        <v>12.63006163634819</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.36024868447692</v>
+        <v>22.52676003149539</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.017855332863467</v>
+        <v>9.166770274616185</v>
       </c>
       <c r="E13">
-        <v>15.45925892190086</v>
+        <v>16.49898175374564</v>
       </c>
       <c r="F13">
-        <v>39.91338140698075</v>
+        <v>36.79663011751739</v>
       </c>
       <c r="G13">
-        <v>50.14268343996511</v>
+        <v>59.82655832229995</v>
       </c>
       <c r="H13">
-        <v>18.64521765021441</v>
+        <v>15.55897901940467</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.28642296069058</v>
+        <v>9.982137802064868</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.1746474334287</v>
+        <v>14.39522485777052</v>
       </c>
       <c r="M13">
-        <v>18.66740269566558</v>
+        <v>18.52546697497235</v>
       </c>
       <c r="N13">
-        <v>19.93159565233096</v>
+        <v>12.64269474559773</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.3132153329307</v>
+        <v>22.34186222454555</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.001103119170683</v>
+        <v>9.107657971464</v>
       </c>
       <c r="E14">
-        <v>15.42861882087873</v>
+        <v>16.40013458535079</v>
       </c>
       <c r="F14">
-        <v>39.88740577723407</v>
+        <v>36.53567152252432</v>
       </c>
       <c r="G14">
-        <v>50.03418840247866</v>
+        <v>59.29537995110664</v>
       </c>
       <c r="H14">
-        <v>18.63883610225646</v>
+        <v>15.46223661005579</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.27553127081394</v>
+        <v>9.940357138888126</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.14379375558517</v>
+        <v>14.26422068048113</v>
       </c>
       <c r="M14">
-        <v>18.63841497831025</v>
+        <v>18.354934588459</v>
       </c>
       <c r="N14">
-        <v>19.94294113211025</v>
+        <v>12.6839672240055</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.28442098544346</v>
+        <v>22.22813766274598</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>8.990813155717277</v>
+        <v>9.071383675572839</v>
       </c>
       <c r="E15">
-        <v>15.40980242550845</v>
+        <v>16.33943018837304</v>
       </c>
       <c r="F15">
-        <v>39.87171935916216</v>
+        <v>36.3761259318818</v>
       </c>
       <c r="G15">
-        <v>49.96796150312727</v>
+        <v>58.96966758676896</v>
       </c>
       <c r="H15">
-        <v>18.63501932584185</v>
+        <v>15.40315520009186</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.26884953763581</v>
+        <v>9.914730716875738</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.12489031588082</v>
+        <v>14.18355017303162</v>
       </c>
       <c r="M15">
-        <v>18.62069240691746</v>
+        <v>18.24990636334641</v>
       </c>
       <c r="N15">
-        <v>19.94993227952259</v>
+        <v>12.70930438650532</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.11968275665822</v>
+        <v>21.569229298793</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.931409918248649</v>
+        <v>8.862450115224712</v>
       </c>
       <c r="E16">
-        <v>15.30124305436155</v>
+        <v>15.98910854694275</v>
       </c>
       <c r="F16">
-        <v>39.78527777467382</v>
+        <v>35.46636471138886</v>
       </c>
       <c r="G16">
-        <v>49.59206105825405</v>
+        <v>57.09758781888813</v>
       </c>
       <c r="H16">
-        <v>18.61456040852352</v>
+        <v>15.06724975471688</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.23040473972561</v>
+        <v>9.767335697881691</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.01651747042993</v>
+        <v>13.71464062670751</v>
       </c>
       <c r="M16">
-        <v>18.5196620145437</v>
+        <v>17.63916220211188</v>
       </c>
       <c r="N16">
-        <v>19.99063599580353</v>
+        <v>12.85538326068414</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.01890797659304</v>
+        <v>21.15859044169976</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.894584765581989</v>
+        <v>8.733286900924609</v>
       </c>
       <c r="E17">
-        <v>15.2340074034585</v>
+        <v>15.77198272797918</v>
       </c>
       <c r="F17">
-        <v>39.73533961323741</v>
+        <v>34.91226078539179</v>
       </c>
       <c r="G17">
-        <v>49.36479809548497</v>
+        <v>55.94401764401796</v>
       </c>
       <c r="H17">
-        <v>18.60327248251037</v>
+        <v>14.86353316333935</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.20668524117498</v>
+        <v>9.676422215291108</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.95002347817498</v>
+        <v>13.42098976832603</v>
       </c>
       <c r="M17">
-        <v>18.45817923379168</v>
+        <v>17.2564712667277</v>
       </c>
       <c r="N17">
-        <v>20.01617874933113</v>
+        <v>12.94580058738108</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.9610684382271</v>
+        <v>20.92004816156259</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.873265300475722</v>
+        <v>8.658616825778283</v>
       </c>
       <c r="E18">
-        <v>15.19510622094544</v>
+        <v>15.64627474285222</v>
       </c>
       <c r="F18">
-        <v>39.70775668995262</v>
+        <v>34.59502056909276</v>
       </c>
       <c r="G18">
-        <v>49.23535310730666</v>
+        <v>55.27859505738815</v>
       </c>
       <c r="H18">
-        <v>18.59724466983915</v>
+        <v>14.74721606849163</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.19299403758814</v>
+        <v>9.623947850685322</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.91178563341997</v>
+        <v>13.2498565540419</v>
       </c>
       <c r="M18">
-        <v>18.42300723794335</v>
+        <v>17.03337054344007</v>
       </c>
       <c r="N18">
-        <v>20.03108100360767</v>
+        <v>12.99810742032265</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.94150788421073</v>
+        <v>20.83887852559217</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.866023300949946</v>
+        <v>8.63326847825736</v>
       </c>
       <c r="E19">
-        <v>15.18189613727185</v>
+        <v>15.60357021688345</v>
       </c>
       <c r="F19">
-        <v>39.69861378767495</v>
+        <v>34.48786039649368</v>
       </c>
       <c r="G19">
-        <v>49.19174755417636</v>
+        <v>55.05296256349105</v>
       </c>
       <c r="H19">
-        <v>18.59528361463643</v>
+        <v>14.70797943711925</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.18835023516113</v>
+        <v>9.606149266851832</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.89884140242931</v>
+        <v>13.19152738224525</v>
       </c>
       <c r="M19">
-        <v>18.41113230094666</v>
+        <v>16.95731577818999</v>
       </c>
       <c r="N19">
-        <v>20.03616288391847</v>
+        <v>13.01586992551107</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.02962325550923</v>
+        <v>21.20254744011563</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.898519261781445</v>
+        <v>8.747075436063456</v>
       </c>
       <c r="E20">
-        <v>15.2411885789802</v>
+        <v>15.79518115331582</v>
       </c>
       <c r="F20">
-        <v>39.74053770200454</v>
+        <v>34.97109439495401</v>
       </c>
       <c r="G20">
-        <v>49.38886008618764</v>
+        <v>56.06701519719569</v>
       </c>
       <c r="H20">
-        <v>18.60442601795707</v>
+        <v>14.88513047393585</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.20921525562742</v>
+        <v>9.686119037794343</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.95710134110223</v>
+        <v>13.45247981806427</v>
       </c>
       <c r="M20">
-        <v>18.46470458601121</v>
+        <v>17.2975176351264</v>
       </c>
       <c r="N20">
-        <v>20.01343787827585</v>
+        <v>12.93614447666889</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.32702715447085</v>
+        <v>22.39626897142929</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.006029653607921</v>
+        <v>9.125034393702439</v>
       </c>
       <c r="E21">
-        <v>15.43762868739173</v>
+        <v>16.42920116179442</v>
       </c>
       <c r="F21">
-        <v>39.89498871185772</v>
+        <v>36.61225889957259</v>
       </c>
       <c r="G21">
-        <v>50.06600845530978</v>
+        <v>59.45147240517108</v>
       </c>
       <c r="H21">
-        <v>18.64069132725965</v>
+        <v>15.49061541044733</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.27873256862672</v>
+        <v>9.952636305874018</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.15285726578073</v>
+        <v>14.30278850383861</v>
       </c>
       <c r="M21">
-        <v>18.64692249620092</v>
+        <v>18.40514309016083</v>
       </c>
       <c r="N21">
-        <v>19.93959999882994</v>
+        <v>12.67183274116973</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.52211492875835</v>
+        <v>23.15543767557933</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.075013090440329</v>
+        <v>9.369041085792015</v>
       </c>
       <c r="E22">
-        <v>15.56385976502026</v>
+        <v>16.83648561909435</v>
       </c>
       <c r="F22">
-        <v>40.00598728016975</v>
+        <v>37.6982122312598</v>
       </c>
       <c r="G22">
-        <v>50.51895086934979</v>
+        <v>61.64759059115926</v>
       </c>
       <c r="H22">
-        <v>18.66851694248908</v>
+        <v>15.89419036440998</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.32371018985877</v>
+        <v>10.12526526383311</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.28061736220948</v>
+        <v>14.83933067816972</v>
       </c>
       <c r="M22">
-        <v>18.76752449856406</v>
+        <v>19.10331989429408</v>
       </c>
       <c r="N22">
-        <v>19.89321075363269</v>
+        <v>12.50163879786619</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.41794566208782</v>
+        <v>22.75217152024696</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.038314740481116</v>
+        <v>9.239064952688079</v>
       </c>
       <c r="E23">
-        <v>15.49669039243219</v>
+        <v>16.61974220387764</v>
       </c>
       <c r="F23">
-        <v>39.94583038463131</v>
+        <v>37.11736664552844</v>
       </c>
       <c r="G23">
-        <v>50.27630215064372</v>
+        <v>60.47683473052836</v>
       </c>
       <c r="H23">
-        <v>18.65328935846546</v>
+        <v>15.67805941124669</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.2997477263826</v>
+        <v>10.03326693022544</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.2124574366943</v>
+        <v>14.55468702498331</v>
       </c>
       <c r="M23">
-        <v>18.70302790298409</v>
+        <v>18.73299820541696</v>
       </c>
       <c r="N23">
-        <v>19.91779904447577</v>
+        <v>12.59224780265228</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.02477857075554</v>
+        <v>21.18268214382346</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.896740937168769</v>
+        <v>8.740842927512702</v>
       </c>
       <c r="E24">
-        <v>15.23794273613374</v>
+        <v>15.78469588664412</v>
       </c>
       <c r="F24">
-        <v>39.73818413393546</v>
+        <v>34.94449160527032</v>
       </c>
       <c r="G24">
-        <v>49.3779778762005</v>
+        <v>56.01141492716729</v>
       </c>
       <c r="H24">
-        <v>18.60390306604759</v>
+        <v>14.8753638328594</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.20807160574186</v>
+        <v>9.681735749711287</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.95390146627444</v>
+        <v>13.43825036737518</v>
       </c>
       <c r="M24">
-        <v>18.46175392616948</v>
+        <v>17.27897019547907</v>
       </c>
       <c r="N24">
-        <v>20.01467634883837</v>
+        <v>12.94050899147558</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.60563270021157</v>
+        <v>19.40010702380565</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.738760124038885</v>
+        <v>8.188871159020197</v>
       </c>
       <c r="E25">
-        <v>14.95015732858227</v>
+        <v>14.85255301525555</v>
       </c>
       <c r="F25">
-        <v>39.55782462484831</v>
+        <v>32.65717944097651</v>
       </c>
       <c r="G25">
-        <v>48.458073659822</v>
+        <v>51.12211461496442</v>
       </c>
       <c r="H25">
-        <v>18.56839870580838</v>
+        <v>14.04228593328465</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.10734913095994</v>
+        <v>9.295565508710434</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.67545440523733</v>
+        <v>12.14830295795724</v>
       </c>
       <c r="M25">
-        <v>18.20892169817279</v>
+        <v>15.82369027480935</v>
       </c>
       <c r="N25">
-        <v>20.12723670608856</v>
+        <v>13.32775524813255</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.01263651421803</v>
+        <v>15.39106927727564</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.768730175631696</v>
+        <v>7.11295112757141</v>
       </c>
       <c r="E2">
-        <v>14.1389502243779</v>
+        <v>12.65556457466636</v>
       </c>
       <c r="F2">
-        <v>31.02325050391482</v>
+        <v>19.76839499534816</v>
       </c>
       <c r="G2">
-        <v>47.46145112239367</v>
+        <v>24.46935119462997</v>
       </c>
       <c r="H2">
-        <v>13.456771390218</v>
+        <v>2.194982720692818</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.938465739186721</v>
       </c>
       <c r="J2">
-        <v>9.00514807453574</v>
+        <v>8.566523763015907</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.15825982122675</v>
       </c>
       <c r="L2">
-        <v>11.12146105574254</v>
+        <v>8.677619815086359</v>
       </c>
       <c r="M2">
-        <v>14.80583133322811</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>13.62360373462363</v>
+        <v>8.97228836759159</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.63476725524389</v>
+      </c>
+      <c r="P2">
+        <v>14.23475257875294</v>
+      </c>
+      <c r="Q2">
+        <v>14.58069648238683</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.02792045202801</v>
+        <v>14.48237318537852</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.475207181348373</v>
+        <v>7.112326692028305</v>
       </c>
       <c r="E3">
-        <v>13.63877189772167</v>
+        <v>12.49219206817263</v>
       </c>
       <c r="F3">
-        <v>29.94957733503269</v>
+        <v>19.33632063348731</v>
       </c>
       <c r="G3">
-        <v>44.94852313500991</v>
+        <v>23.32851466411041</v>
       </c>
       <c r="H3">
-        <v>13.07761794699254</v>
+        <v>2.373384355304762</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.042060871084719</v>
       </c>
       <c r="J3">
-        <v>8.80467629536421</v>
+        <v>8.461932205414785</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.38752572612004</v>
       </c>
       <c r="L3">
-        <v>10.37605471251144</v>
+        <v>8.550790172859404</v>
       </c>
       <c r="M3">
-        <v>14.08982225562872</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>13.8311563325881</v>
+        <v>8.44906327381195</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.00601137751618</v>
+      </c>
+      <c r="P3">
+        <v>14.18112412747421</v>
+      </c>
+      <c r="Q3">
+        <v>14.1965685693999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.40262987855095</v>
+        <v>13.89085055631684</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.290676231034987</v>
+        <v>7.112471081174091</v>
       </c>
       <c r="E4">
-        <v>13.32380462357566</v>
+        <v>12.39059489768934</v>
       </c>
       <c r="F4">
-        <v>29.30803906001029</v>
+        <v>19.07555100257372</v>
       </c>
       <c r="G4">
-        <v>43.39319719198161</v>
+        <v>22.61243283316893</v>
       </c>
       <c r="H4">
-        <v>12.85368348857516</v>
+        <v>2.486878007179783</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.108582099670065</v>
       </c>
       <c r="J4">
-        <v>8.679875969555081</v>
+        <v>8.400795682874069</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.53172187845536</v>
       </c>
       <c r="L4">
-        <v>9.893545821762331</v>
+        <v>8.471601194781089</v>
       </c>
       <c r="M4">
-        <v>13.63838806901511</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>13.96219072307834</v>
+        <v>8.132807490993645</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.6029366682468</v>
+      </c>
+      <c r="P4">
+        <v>14.15136063111712</v>
+      </c>
+      <c r="Q4">
+        <v>13.96283757194752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.14286459229493</v>
+        <v>13.63399084415068</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.214411179329487</v>
+        <v>7.11232875065777</v>
       </c>
       <c r="E5">
-        <v>13.19354298241672</v>
+        <v>12.35049490144361</v>
       </c>
       <c r="F5">
-        <v>29.0512487946312</v>
+        <v>18.96547196247889</v>
       </c>
       <c r="G5">
-        <v>42.75696338739805</v>
+        <v>22.31050152545432</v>
       </c>
       <c r="H5">
-        <v>12.76468625543216</v>
+        <v>2.534333019488462</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.138880924659973</v>
       </c>
       <c r="J5">
-        <v>8.628607428635384</v>
+        <v>8.375515518496398</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.5895484307519</v>
       </c>
       <c r="L5">
-        <v>9.694380446382747</v>
+        <v>8.440109284759734</v>
       </c>
       <c r="M5">
-        <v>13.45166729518718</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>14.0165091539046</v>
+        <v>8.007071760517496</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.43519032212757</v>
+      </c>
+      <c r="P5">
+        <v>14.14213595029637</v>
+      </c>
+      <c r="Q5">
+        <v>13.86537773107121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.09943975852674</v>
+        <v>13.58170492367522</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.201683610578689</v>
+        <v>7.111915279949777</v>
       </c>
       <c r="E6">
-        <v>13.17179999023711</v>
+        <v>12.34581418763016</v>
       </c>
       <c r="F6">
-        <v>29.00889506462787</v>
+        <v>18.94107151451582</v>
       </c>
       <c r="G6">
-        <v>42.65119370452209</v>
+        <v>22.25205689809927</v>
       </c>
       <c r="H6">
-        <v>12.75004549797765</v>
+        <v>2.542515370844566</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.147088127232991</v>
       </c>
       <c r="J6">
-        <v>8.620070084963102</v>
+        <v>8.369957071256877</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.59701211987305</v>
       </c>
       <c r="L6">
-        <v>9.666269964562577</v>
+        <v>8.436215736542177</v>
       </c>
       <c r="M6">
-        <v>13.42050279395209</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>14.02558478437408</v>
+        <v>7.993633413862566</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.40786419568234</v>
+      </c>
+      <c r="P6">
+        <v>14.1432521672125</v>
+      </c>
+      <c r="Q6">
+        <v>13.84572749132926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.39914628987596</v>
+        <v>13.86301502750958</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.289651987285809</v>
+        <v>7.111409603772056</v>
       </c>
       <c r="E7">
-        <v>13.32205550511407</v>
+        <v>12.39555458054859</v>
       </c>
       <c r="F7">
-        <v>29.30455684307719</v>
+        <v>19.05726769765769</v>
       </c>
       <c r="G7">
-        <v>43.38462552555632</v>
+        <v>22.58660335782422</v>
       </c>
       <c r="H7">
-        <v>12.85247406231175</v>
+        <v>2.48815438670926</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.117245723789775</v>
       </c>
       <c r="J7">
-        <v>8.679186182884852</v>
+        <v>8.396627392495191</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.52657917602074</v>
       </c>
       <c r="L7">
-        <v>9.890834707313703</v>
+        <v>8.474903439417366</v>
       </c>
       <c r="M7">
-        <v>13.63588074713019</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>13.96291953020042</v>
+        <v>8.151501366965219</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.60275033991938</v>
+      </c>
+      <c r="P7">
+        <v>14.15842465137995</v>
+      </c>
+      <c r="Q7">
+        <v>13.95202860936288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.67752584084818</v>
+        <v>15.05477842210679</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.668423713355989</v>
+        <v>7.11133379951931</v>
       </c>
       <c r="E8">
-        <v>13.96815361280721</v>
+        <v>12.60696827328442</v>
       </c>
       <c r="F8">
-        <v>30.64948406166589</v>
+        <v>19.59701001849205</v>
       </c>
       <c r="G8">
-        <v>46.59792743879161</v>
+        <v>24.05238483132634</v>
       </c>
       <c r="H8">
-        <v>13.32421561226261</v>
+        <v>2.256449709006084</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.983925439034222</v>
       </c>
       <c r="J8">
-        <v>8.936390301579648</v>
+        <v>8.524872237624317</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.22912633175384</v>
       </c>
       <c r="L8">
-        <v>10.86956408776656</v>
+        <v>8.639195456072981</v>
       </c>
       <c r="M8">
-        <v>14.56151488039943</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>13.69443153206912</v>
+        <v>8.815538357097481</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.42410781224102</v>
+      </c>
+      <c r="P8">
+        <v>14.22549482929682</v>
+      </c>
+      <c r="Q8">
+        <v>14.43577289057072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.01243054589051</v>
+        <v>17.16136716928119</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.376879809382512</v>
+        <v>7.1174034644358</v>
       </c>
       <c r="E9">
-        <v>15.17080234221561</v>
+        <v>13.00114627805019</v>
       </c>
       <c r="F9">
-        <v>33.42008003224357</v>
+        <v>20.71503799278731</v>
       </c>
       <c r="G9">
-        <v>52.77892752016074</v>
+        <v>26.82267323579872</v>
       </c>
       <c r="H9">
-        <v>14.31859057572525</v>
+        <v>1.83185627844394</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.731997809459193</v>
       </c>
       <c r="J9">
-        <v>9.426599338447964</v>
+        <v>8.807007893773832</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.68234553827841</v>
       </c>
       <c r="L9">
-        <v>12.59458597456688</v>
+        <v>8.943857715125679</v>
       </c>
       <c r="M9">
-        <v>16.27577219792004</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>13.19569480668681</v>
+        <v>10.03418707870738</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>13.89087516078079</v>
+      </c>
+      <c r="P9">
+        <v>14.36895911945238</v>
+      </c>
+      <c r="Q9">
+        <v>15.41225778320681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.61576658263151</v>
+        <v>18.48723392473872</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>8.877138256229914</v>
+        <v>7.122779533762845</v>
       </c>
       <c r="E10">
-        <v>16.0137731733358</v>
+        <v>13.34130745838133</v>
       </c>
       <c r="F10">
-        <v>35.52979061869415</v>
+        <v>21.433214063438</v>
       </c>
       <c r="G10">
-        <v>57.22896051795635</v>
+        <v>28.61741957941481</v>
       </c>
       <c r="H10">
-        <v>15.09061166226579</v>
+        <v>1.581153121480143</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.569198551960509</v>
       </c>
       <c r="J10">
-        <v>9.77768488702808</v>
+        <v>9.001206604441144</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>14.28132393708694</v>
       </c>
       <c r="L10">
-        <v>13.74784790769944</v>
+        <v>9.197799728952994</v>
       </c>
       <c r="M10">
-        <v>17.68242800544011</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>12.84510637781461</v>
+        <v>10.79127842738625</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.81884369355615</v>
+      </c>
+      <c r="P10">
+        <v>14.52229345718138</v>
+      </c>
+      <c r="Q10">
+        <v>16.06609095295625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.32014245294494</v>
+        <v>18.64115210340196</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.100725186988003</v>
+        <v>7.128034706752541</v>
       </c>
       <c r="E11">
-        <v>16.3885354275937</v>
+        <v>14.03838872269739</v>
       </c>
       <c r="F11">
-        <v>36.50514383656104</v>
+        <v>20.80293890678249</v>
       </c>
       <c r="G11">
-        <v>59.23311472707088</v>
+        <v>28.27483759720357</v>
       </c>
       <c r="H11">
-        <v>15.450928020996</v>
+        <v>2.642788966933766</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.545734091239012</v>
       </c>
       <c r="J11">
-        <v>9.935458642311715</v>
+        <v>8.866149816813639</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.0247963718591</v>
       </c>
       <c r="L11">
-        <v>14.2488193852001</v>
+        <v>9.65424085559553</v>
       </c>
       <c r="M11">
-        <v>18.33488400129704</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>12.68880909694473</v>
+        <v>10.57091998321906</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.71608094670239</v>
+      </c>
+      <c r="P11">
+        <v>14.86592163927645</v>
+      </c>
+      <c r="Q11">
+        <v>15.82863265857217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.58326881723286</v>
+        <v>18.52591568655193</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.184870113261349</v>
+        <v>7.156770280472209</v>
       </c>
       <c r="E12">
-        <v>16.52922910424413</v>
+        <v>14.62698836963251</v>
       </c>
       <c r="F12">
-        <v>36.87676890459346</v>
+        <v>20.12440907904213</v>
       </c>
       <c r="G12">
-        <v>59.98929797891331</v>
+        <v>27.62399585664533</v>
       </c>
       <c r="H12">
-        <v>15.58871417366406</v>
+        <v>4.066475863008536</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.54299189411344</v>
       </c>
       <c r="J12">
-        <v>9.994935500641718</v>
+        <v>8.710407875563494</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.93951833483465</v>
       </c>
       <c r="L12">
-        <v>14.43522572450391</v>
+        <v>10.02103920194058</v>
       </c>
       <c r="M12">
-        <v>18.57753064283764</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>12.63006163634819</v>
+        <v>10.20613343526428</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.42804074487388</v>
+      </c>
+      <c r="P12">
+        <v>15.12668925502659</v>
+      </c>
+      <c r="Q12">
+        <v>15.49240383104502</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.52676003149539</v>
+        <v>18.1645246458502</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.166770274616185</v>
+        <v>7.201557511942042</v>
       </c>
       <c r="E13">
-        <v>16.49898175374564</v>
+        <v>15.16819627626783</v>
       </c>
       <c r="F13">
-        <v>36.79663011751739</v>
+        <v>19.33102741032884</v>
       </c>
       <c r="G13">
-        <v>59.82655832229995</v>
+        <v>26.64416677163822</v>
       </c>
       <c r="H13">
-        <v>15.55897901940467</v>
+        <v>5.510714882142124</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.569130677534407</v>
       </c>
       <c r="J13">
-        <v>9.982137802064868</v>
+        <v>8.521173789029246</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.96937552891952</v>
       </c>
       <c r="L13">
-        <v>14.39522485777052</v>
+        <v>10.3436212824511</v>
       </c>
       <c r="M13">
-        <v>18.52546697497235</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>12.64269474559773</v>
+        <v>9.7208422937038</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.97471399842601</v>
+      </c>
+      <c r="P13">
+        <v>15.34687729269239</v>
+      </c>
+      <c r="Q13">
+        <v>15.03771241536223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.34186222454555</v>
+        <v>17.78913734582378</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.107657971464</v>
+        <v>7.242477348706002</v>
       </c>
       <c r="E14">
-        <v>16.40013458535079</v>
+        <v>15.53490095942802</v>
       </c>
       <c r="F14">
-        <v>36.53567152252432</v>
+        <v>18.71459480950174</v>
       </c>
       <c r="G14">
-        <v>59.29537995110664</v>
+        <v>25.7902928034384</v>
       </c>
       <c r="H14">
-        <v>15.46223661005579</v>
+        <v>6.528419031627148</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.602980463072692</v>
       </c>
       <c r="J14">
-        <v>9.940357138888126</v>
+        <v>8.371801917085115</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>14.04605646604041</v>
       </c>
       <c r="L14">
-        <v>14.26422068048113</v>
+        <v>10.5546940328338</v>
       </c>
       <c r="M14">
-        <v>18.354934588459</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>12.6839672240055</v>
+        <v>9.325418699049463</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.5769250811083</v>
+      </c>
+      <c r="P14">
+        <v>15.48570714417256</v>
+      </c>
+      <c r="Q14">
+        <v>14.65937321385003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.22813766274598</v>
+        <v>17.63639007292264</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.071383675572839</v>
+        <v>7.252864670316875</v>
       </c>
       <c r="E15">
-        <v>16.33943018837304</v>
+        <v>15.60852362503372</v>
       </c>
       <c r="F15">
-        <v>36.3761259318818</v>
+        <v>18.53599626125317</v>
       </c>
       <c r="G15">
-        <v>58.96966758676896</v>
+        <v>25.50357851747239</v>
       </c>
       <c r="H15">
-        <v>15.40315520009186</v>
+        <v>6.764502345004379</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.621495397382136</v>
       </c>
       <c r="J15">
-        <v>9.914730716875738</v>
+        <v>8.327678984381718</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.08458607260664</v>
       </c>
       <c r="L15">
-        <v>14.18355017303162</v>
+        <v>10.59419598951149</v>
       </c>
       <c r="M15">
-        <v>18.24990636334641</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>12.70930438650532</v>
+        <v>9.207339267254811</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.4448896489135</v>
+      </c>
+      <c r="P15">
+        <v>15.51226488359942</v>
+      </c>
+      <c r="Q15">
+        <v>14.53940365077282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.569229298793</v>
+        <v>17.12704462137274</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>8.862450115224712</v>
+        <v>7.236214516703384</v>
       </c>
       <c r="E16">
-        <v>15.98910854694275</v>
+        <v>15.36033210819177</v>
       </c>
       <c r="F16">
-        <v>35.46636471138886</v>
+        <v>18.34914838436766</v>
       </c>
       <c r="G16">
-        <v>57.09758781888813</v>
+        <v>24.86033948697009</v>
       </c>
       <c r="H16">
-        <v>15.06724975471688</v>
+        <v>6.55795702472157</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.691502367714568</v>
       </c>
       <c r="J16">
-        <v>9.767335697881691</v>
+        <v>8.274466722753985</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.23706478340758</v>
       </c>
       <c r="L16">
-        <v>13.71464062670751</v>
+        <v>10.42544004782491</v>
       </c>
       <c r="M16">
-        <v>17.63916220211188</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>12.85538326068414</v>
+        <v>8.966322898719044</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>13.12494702777298</v>
+      </c>
+      <c r="P16">
+        <v>15.39548757633316</v>
+      </c>
+      <c r="Q16">
+        <v>14.32434900636679</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.15859044169976</v>
+        <v>16.93725802106468</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.733286900924609</v>
+        <v>7.200554326189816</v>
       </c>
       <c r="E17">
-        <v>15.77198272797918</v>
+        <v>14.96494665035345</v>
       </c>
       <c r="F17">
-        <v>34.91226078539179</v>
+        <v>18.54264605649029</v>
       </c>
       <c r="G17">
-        <v>55.94401764401796</v>
+        <v>24.83955125569443</v>
       </c>
       <c r="H17">
-        <v>14.86353316333935</v>
+        <v>5.826861456821787</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.727759788462123</v>
       </c>
       <c r="J17">
-        <v>9.676422215291108</v>
+        <v>8.31508473127573</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.31269437001505</v>
       </c>
       <c r="L17">
-        <v>13.42098976832603</v>
+        <v>10.17818652202086</v>
       </c>
       <c r="M17">
-        <v>17.2564712667277</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>12.94580058738108</v>
+        <v>8.999305963714093</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>13.0969540979944</v>
+      </c>
+      <c r="P17">
+        <v>15.23283559707403</v>
+      </c>
+      <c r="Q17">
+        <v>14.36737535987519</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.92004816156259</v>
+        <v>17.02475647770708</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.658616825778283</v>
+        <v>7.154975722167143</v>
       </c>
       <c r="E18">
-        <v>15.64627474285222</v>
+        <v>14.42014447888626</v>
       </c>
       <c r="F18">
-        <v>34.59502056909276</v>
+        <v>19.09102148948981</v>
       </c>
       <c r="G18">
-        <v>55.27859505738815</v>
+        <v>25.36680855002597</v>
       </c>
       <c r="H18">
-        <v>14.74721606849163</v>
+        <v>4.586879291469699</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.728914200416753</v>
       </c>
       <c r="J18">
-        <v>9.623947850685322</v>
+        <v>8.44116056547959</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.34848931000474</v>
       </c>
       <c r="L18">
-        <v>13.2498565540419</v>
+        <v>9.8462149775246</v>
       </c>
       <c r="M18">
-        <v>17.03337054344007</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>12.99810742032265</v>
+        <v>9.265679028104579</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.31742118090659</v>
+      </c>
+      <c r="P18">
+        <v>15.01011411773007</v>
+      </c>
+      <c r="Q18">
+        <v>14.64006999642342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.83887852559217</v>
+        <v>17.28898536558259</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.63326847825736</v>
+        <v>7.122184090814606</v>
       </c>
       <c r="E19">
-        <v>15.60357021688345</v>
+        <v>13.86494606891238</v>
       </c>
       <c r="F19">
-        <v>34.48786039649368</v>
+        <v>19.8474657948679</v>
       </c>
       <c r="G19">
-        <v>55.05296256349105</v>
+        <v>26.24613344478049</v>
       </c>
       <c r="H19">
-        <v>14.70797943711925</v>
+        <v>3.127599771841073</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.716535677259976</v>
       </c>
       <c r="J19">
-        <v>9.606149266851832</v>
+        <v>8.617239600758383</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.37738550627598</v>
       </c>
       <c r="L19">
-        <v>13.19152738224525</v>
+        <v>9.507658837449352</v>
       </c>
       <c r="M19">
-        <v>16.95731577818999</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>13.01586992551107</v>
+        <v>9.728138416933216</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.71791361847332</v>
+      </c>
+      <c r="P19">
+        <v>14.78183335725064</v>
+      </c>
+      <c r="Q19">
+        <v>15.05427482076988</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.20254744011563</v>
+        <v>18.08836287228348</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.747075436063456</v>
+        <v>7.118617803235294</v>
       </c>
       <c r="E20">
-        <v>15.79518115331582</v>
+        <v>13.27334827336202</v>
       </c>
       <c r="F20">
-        <v>34.97109439495401</v>
+        <v>21.1925607066145</v>
       </c>
       <c r="G20">
-        <v>56.06701519719569</v>
+        <v>28.09228302100463</v>
       </c>
       <c r="H20">
-        <v>14.88513047393585</v>
+        <v>1.636723591533451</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.637394436930662</v>
       </c>
       <c r="J20">
-        <v>9.686119037794343</v>
+        <v>8.937190998135765</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.36995451534915</v>
       </c>
       <c r="L20">
-        <v>13.45247981806427</v>
+        <v>9.145429295141783</v>
       </c>
       <c r="M20">
-        <v>17.2975176351264</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>12.93614447666889</v>
+        <v>10.64154713818967</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.58338531292135</v>
+      </c>
+      <c r="P20">
+        <v>14.5071558479737</v>
+      </c>
+      <c r="Q20">
+        <v>15.8659592021112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.39626897142929</v>
+        <v>19.13818029573564</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.125034393702439</v>
+        <v>7.127608645243658</v>
       </c>
       <c r="E21">
-        <v>16.42920116179442</v>
+        <v>13.44501023609504</v>
       </c>
       <c r="F21">
-        <v>36.61225889957259</v>
+        <v>21.92449740499183</v>
       </c>
       <c r="G21">
-        <v>59.45147240517108</v>
+        <v>29.64867962468957</v>
       </c>
       <c r="H21">
-        <v>15.49061541044733</v>
+        <v>1.722182819008707</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.504939597700602</v>
       </c>
       <c r="J21">
-        <v>9.952636305874018</v>
+        <v>9.132112017282383</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>14.08896317963008</v>
       </c>
       <c r="L21">
-        <v>14.30278850383861</v>
+        <v>9.28128813604047</v>
       </c>
       <c r="M21">
-        <v>18.40514309016083</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>12.67183274116973</v>
+        <v>11.28915637666332</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.35536130101798</v>
+      </c>
+      <c r="P21">
+        <v>14.58188667189168</v>
+      </c>
+      <c r="Q21">
+        <v>16.46597351065253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.15543767557933</v>
+        <v>19.79280932026738</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.369041085792015</v>
+        <v>7.13422405261025</v>
       </c>
       <c r="E22">
-        <v>16.83648561909435</v>
+        <v>13.57620563306313</v>
       </c>
       <c r="F22">
-        <v>37.6982122312598</v>
+        <v>22.36602824361519</v>
       </c>
       <c r="G22">
-        <v>61.64759059115926</v>
+        <v>30.59782259960024</v>
       </c>
       <c r="H22">
-        <v>15.89419036440998</v>
+        <v>1.860391777480025</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.412190271149125</v>
       </c>
       <c r="J22">
-        <v>10.12526526383311</v>
+        <v>9.253239259621704</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.9081062768684</v>
       </c>
       <c r="L22">
-        <v>14.83933067816972</v>
+        <v>9.381709981214339</v>
       </c>
       <c r="M22">
-        <v>19.10331989429408</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>12.50163879786619</v>
+        <v>11.64534623242017</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>15.80993313092497</v>
+      </c>
+      <c r="P22">
+        <v>14.63741033561478</v>
+      </c>
+      <c r="Q22">
+        <v>16.83572770171033</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.75217152024696</v>
+        <v>19.46746025653899</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.239064952688079</v>
+        <v>7.131496236659944</v>
       </c>
       <c r="E23">
-        <v>16.61974220387764</v>
+        <v>13.49934692602609</v>
       </c>
       <c r="F23">
-        <v>37.11736664552844</v>
+        <v>22.14723926907113</v>
       </c>
       <c r="G23">
-        <v>60.47683473052836</v>
+        <v>30.11271564294006</v>
       </c>
       <c r="H23">
-        <v>15.67805941124669</v>
+        <v>1.787365316036993</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.451334784810105</v>
       </c>
       <c r="J23">
-        <v>10.03326693022544</v>
+        <v>9.192422287593109</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>14.01011493419036</v>
       </c>
       <c r="L23">
-        <v>14.55468702498331</v>
+        <v>9.323637741634313</v>
       </c>
       <c r="M23">
-        <v>18.73299820541696</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>12.59224780265228</v>
+        <v>11.43970916943178</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.56722871905135</v>
+      </c>
+      <c r="P23">
+        <v>14.59788638053378</v>
+      </c>
+      <c r="Q23">
+        <v>16.64786361500081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.18268214382346</v>
+        <v>18.14134538127295</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.740842927512702</v>
+        <v>7.121408239430135</v>
       </c>
       <c r="E24">
-        <v>15.78469588664412</v>
+        <v>13.21686221752682</v>
       </c>
       <c r="F24">
-        <v>34.94449160527032</v>
+        <v>21.29369129131267</v>
       </c>
       <c r="G24">
-        <v>56.01141492716729</v>
+        <v>28.20188766866546</v>
       </c>
       <c r="H24">
-        <v>14.8753638328594</v>
+        <v>1.618264055861282</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.620301106954117</v>
       </c>
       <c r="J24">
-        <v>9.681735749711287</v>
+        <v>8.960525266905233</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.39270651409263</v>
       </c>
       <c r="L24">
-        <v>13.43825036737518</v>
+        <v>9.108244399469328</v>
       </c>
       <c r="M24">
-        <v>17.27897019547907</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>12.94050899147558</v>
+        <v>10.65722297184908</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.61485632094179</v>
+      </c>
+      <c r="P24">
+        <v>14.46929935940399</v>
+      </c>
+      <c r="Q24">
+        <v>15.9191551703685</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.40010702380565</v>
+        <v>16.58350636469359</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.188871159020197</v>
+        <v>7.113655822185076</v>
       </c>
       <c r="E25">
-        <v>14.85255301525555</v>
+        <v>12.90607628212778</v>
       </c>
       <c r="F25">
-        <v>32.65717944097651</v>
+        <v>20.38192834331305</v>
       </c>
       <c r="G25">
-        <v>51.12211461496442</v>
+        <v>26.05626664721591</v>
       </c>
       <c r="H25">
-        <v>14.04228593328465</v>
+        <v>1.944427074388477</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.81221877327081</v>
       </c>
       <c r="J25">
-        <v>9.295565508710434</v>
+        <v>8.721627565084805</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.8179802713527</v>
       </c>
       <c r="L25">
-        <v>12.14830295795724</v>
+        <v>8.869609259423751</v>
       </c>
       <c r="M25">
-        <v>15.82369027480935</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>13.32775524813255</v>
+        <v>9.74785610419911</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.51291494959003</v>
+      </c>
+      <c r="P25">
+        <v>14.34148038901544</v>
+      </c>
+      <c r="Q25">
+        <v>15.13187350214477</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.39106927727564</v>
+        <v>15.26844883267496</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.11295112757141</v>
+        <v>6.905543599336622</v>
       </c>
       <c r="E2">
-        <v>12.65556457466636</v>
+        <v>12.26707609047041</v>
       </c>
       <c r="F2">
-        <v>19.76839499534816</v>
+        <v>19.75295643766177</v>
       </c>
       <c r="G2">
-        <v>24.46935119462997</v>
+        <v>23.99529374786825</v>
       </c>
       <c r="H2">
-        <v>2.194982720692818</v>
+        <v>2.081740694603738</v>
       </c>
       <c r="I2">
-        <v>3.938465739186721</v>
+        <v>3.684239084414906</v>
       </c>
       <c r="J2">
-        <v>8.566523763015907</v>
+        <v>9.239207481739891</v>
       </c>
       <c r="K2">
-        <v>15.15825982122675</v>
+        <v>14.57431179368749</v>
       </c>
       <c r="L2">
-        <v>8.677619815086359</v>
+        <v>11.35114811939307</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.10613561113198</v>
       </c>
       <c r="N2">
-        <v>8.97228836759159</v>
+        <v>8.471493465997233</v>
       </c>
       <c r="O2">
-        <v>12.63476725524389</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.23475257875294</v>
+        <v>9.079135598891915</v>
       </c>
       <c r="Q2">
-        <v>14.58069648238683</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.64854027919583</v>
+      </c>
+      <c r="R2">
+        <v>14.06522234943021</v>
+      </c>
+      <c r="S2">
+        <v>14.62591081144194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.48237318537852</v>
+        <v>14.37416762666412</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.112326692028305</v>
+        <v>6.908178279815274</v>
       </c>
       <c r="E3">
-        <v>12.49219206817263</v>
+        <v>12.09111347704606</v>
       </c>
       <c r="F3">
-        <v>19.33632063348731</v>
+        <v>19.33005636280174</v>
       </c>
       <c r="G3">
-        <v>23.32851466411041</v>
+        <v>22.83751743630073</v>
       </c>
       <c r="H3">
-        <v>2.373384355304762</v>
+        <v>2.251347363957334</v>
       </c>
       <c r="I3">
-        <v>4.042060871084719</v>
+        <v>3.77439008797663</v>
       </c>
       <c r="J3">
-        <v>8.461932205414785</v>
+        <v>9.118540453767677</v>
       </c>
       <c r="K3">
-        <v>15.38752572612004</v>
+        <v>14.78642926481294</v>
       </c>
       <c r="L3">
-        <v>8.550790172859404</v>
+        <v>11.51113354594616</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.31710543579592</v>
       </c>
       <c r="N3">
-        <v>8.44906327381195</v>
+        <v>8.335185410079184</v>
       </c>
       <c r="O3">
-        <v>12.00601137751618</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.18112412747421</v>
+        <v>8.57306494290909</v>
       </c>
       <c r="Q3">
-        <v>14.1965685693999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.01497772523621</v>
+      </c>
+      <c r="R3">
+        <v>13.99041817827452</v>
+      </c>
+      <c r="S3">
+        <v>14.24816243197676</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.89085055631684</v>
+        <v>13.79052960496068</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.112471081174091</v>
+        <v>6.910442881234244</v>
       </c>
       <c r="E4">
-        <v>12.39059489768934</v>
+        <v>11.98217548089236</v>
       </c>
       <c r="F4">
-        <v>19.07555100257372</v>
+        <v>19.07366072730195</v>
       </c>
       <c r="G4">
-        <v>22.61243283316893</v>
+        <v>22.1107270099707</v>
       </c>
       <c r="H4">
-        <v>2.486878007179783</v>
+        <v>2.359256137871618</v>
       </c>
       <c r="I4">
-        <v>4.108582099670065</v>
+        <v>3.832553151028691</v>
       </c>
       <c r="J4">
-        <v>8.400795682874069</v>
+        <v>9.045230961775241</v>
       </c>
       <c r="K4">
-        <v>15.53172187845536</v>
+        <v>14.91982417415209</v>
       </c>
       <c r="L4">
-        <v>8.471601194781089</v>
+        <v>11.61862324304066</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.45571133703101</v>
       </c>
       <c r="N4">
-        <v>8.132807490993645</v>
+        <v>8.250360290560515</v>
       </c>
       <c r="O4">
-        <v>11.6029366682468</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>14.15136063111712</v>
+        <v>8.25030319573054</v>
       </c>
       <c r="Q4">
-        <v>13.96283757194752</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.60861249363288</v>
+      </c>
+      <c r="R4">
+        <v>13.94807796525926</v>
+      </c>
+      <c r="S4">
+        <v>14.01749015460988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.63399084415068</v>
+        <v>13.53680923511875</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.11232875065777</v>
+        <v>6.911199542192441</v>
       </c>
       <c r="E5">
-        <v>12.35049490144361</v>
+        <v>11.93915606244361</v>
       </c>
       <c r="F5">
-        <v>18.96547196247889</v>
+        <v>18.965226904099</v>
       </c>
       <c r="G5">
-        <v>22.31050152545432</v>
+        <v>21.80451169689565</v>
       </c>
       <c r="H5">
-        <v>2.534333019488462</v>
+        <v>2.404383028834466</v>
       </c>
       <c r="I5">
-        <v>4.138880924659973</v>
+        <v>3.859851857369422</v>
       </c>
       <c r="J5">
-        <v>8.375515518496398</v>
+        <v>9.014503027308818</v>
       </c>
       <c r="K5">
-        <v>15.5895484307519</v>
+        <v>14.97310413148301</v>
       </c>
       <c r="L5">
-        <v>8.440109284759734</v>
+        <v>11.66160783677176</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.51470656098532</v>
       </c>
       <c r="N5">
-        <v>8.007071760517496</v>
+        <v>8.216595405340691</v>
       </c>
       <c r="O5">
-        <v>11.43519032212757</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>14.14213595029637</v>
+        <v>8.121733218157038</v>
       </c>
       <c r="Q5">
-        <v>13.86537773107121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.43941578258085</v>
+      </c>
+      <c r="R5">
+        <v>13.93376459229187</v>
+      </c>
+      <c r="S5">
+        <v>13.92117126394932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.58170492367522</v>
+        <v>13.48528873004434</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.111915279949777</v>
+        <v>6.910943024107917</v>
       </c>
       <c r="E6">
-        <v>12.34581418763016</v>
+        <v>11.93395538894508</v>
       </c>
       <c r="F6">
-        <v>18.94107151451582</v>
+        <v>18.94131315813159</v>
       </c>
       <c r="G6">
-        <v>22.25205689809927</v>
+        <v>21.74555265422908</v>
       </c>
       <c r="H6">
-        <v>2.542515370844566</v>
+        <v>2.412170023450692</v>
       </c>
       <c r="I6">
-        <v>4.147088127232991</v>
+        <v>3.868128863935808</v>
       </c>
       <c r="J6">
-        <v>8.369957071256877</v>
+        <v>9.008104685291158</v>
       </c>
       <c r="K6">
-        <v>15.59701211987305</v>
+        <v>14.97972036168873</v>
       </c>
       <c r="L6">
-        <v>8.436215736542177</v>
+        <v>11.66511298577934</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.52493710468981</v>
       </c>
       <c r="N6">
-        <v>7.993633413862566</v>
+        <v>8.212293156843602</v>
       </c>
       <c r="O6">
-        <v>11.40786419568234</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>14.1432521672125</v>
+        <v>8.107377213219747</v>
       </c>
       <c r="Q6">
-        <v>13.84572749132926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.41181313107695</v>
+      </c>
+      <c r="R6">
+        <v>13.93394861834257</v>
+      </c>
+      <c r="S6">
+        <v>13.90184244685375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.86301502750958</v>
+        <v>13.76124051650626</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.111409603772056</v>
+        <v>6.909437332348638</v>
       </c>
       <c r="E7">
-        <v>12.39555458054859</v>
+        <v>11.98393292677385</v>
       </c>
       <c r="F7">
-        <v>19.05726769765769</v>
+        <v>19.04317496614314</v>
       </c>
       <c r="G7">
-        <v>22.58660335782422</v>
+        <v>22.18801522655041</v>
       </c>
       <c r="H7">
-        <v>2.48815438670926</v>
+        <v>2.361024094185236</v>
       </c>
       <c r="I7">
-        <v>4.117245723789775</v>
+        <v>3.842894311039491</v>
       </c>
       <c r="J7">
-        <v>8.396627392495191</v>
+        <v>8.992388229710571</v>
       </c>
       <c r="K7">
-        <v>15.52657917602074</v>
+        <v>14.91386055838366</v>
       </c>
       <c r="L7">
-        <v>8.474903439417366</v>
+        <v>11.60839115470099</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.45711603219331</v>
       </c>
       <c r="N7">
-        <v>8.151501366965219</v>
+        <v>8.252214423153465</v>
       </c>
       <c r="O7">
-        <v>11.60275033991938</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>14.15842465137995</v>
+        <v>8.263456655696658</v>
       </c>
       <c r="Q7">
-        <v>13.95202860936288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.60497563179323</v>
+      </c>
+      <c r="R7">
+        <v>13.9558618678843</v>
+      </c>
+      <c r="S7">
+        <v>13.9939087982182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.05477842210679</v>
+        <v>14.93143628295448</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.11133379951931</v>
+        <v>6.90511449094052</v>
       </c>
       <c r="E8">
-        <v>12.60696827328442</v>
+        <v>12.2038958889714</v>
       </c>
       <c r="F8">
-        <v>19.59701001849205</v>
+        <v>19.54414228866828</v>
       </c>
       <c r="G8">
-        <v>24.05238483132634</v>
+        <v>23.8946773708828</v>
       </c>
       <c r="H8">
-        <v>2.256449709006084</v>
+        <v>2.141871923340214</v>
       </c>
       <c r="I8">
-        <v>3.983925439034222</v>
+        <v>3.727685564073715</v>
       </c>
       <c r="J8">
-        <v>8.524872237624317</v>
+        <v>9.033873144571215</v>
       </c>
       <c r="K8">
-        <v>15.22912633175384</v>
+        <v>14.63768798994955</v>
       </c>
       <c r="L8">
-        <v>8.639195456072981</v>
+        <v>11.39138004483088</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.17604837506489</v>
       </c>
       <c r="N8">
-        <v>8.815538357097481</v>
+        <v>8.425326470160535</v>
       </c>
       <c r="O8">
-        <v>12.42410781224102</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>14.22549482929682</v>
+        <v>8.917507570936783</v>
       </c>
       <c r="Q8">
-        <v>14.43577289057072</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.42571761051749</v>
+      </c>
+      <c r="R8">
+        <v>14.05190205320089</v>
+      </c>
+      <c r="S8">
+        <v>14.44132358292338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.16136716928119</v>
+        <v>16.99646578760919</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.1174034644358</v>
+        <v>6.90354839386156</v>
       </c>
       <c r="E9">
-        <v>13.00114627805019</v>
+        <v>12.62875640562693</v>
       </c>
       <c r="F9">
-        <v>20.71503799278731</v>
+        <v>20.62308789597858</v>
       </c>
       <c r="G9">
-        <v>26.82267323579872</v>
+        <v>26.75316082012811</v>
       </c>
       <c r="H9">
-        <v>1.83185627844394</v>
+        <v>1.738554732684069</v>
       </c>
       <c r="I9">
-        <v>3.731997809459193</v>
+        <v>3.507285670044741</v>
       </c>
       <c r="J9">
-        <v>8.807007893773832</v>
+        <v>9.304018202859393</v>
       </c>
       <c r="K9">
-        <v>14.68234553827841</v>
+        <v>14.13250513352291</v>
       </c>
       <c r="L9">
-        <v>8.943857715125679</v>
+        <v>11.05771347361648</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.698757312610907</v>
       </c>
       <c r="N9">
-        <v>10.03418707870738</v>
+        <v>8.753424916689935</v>
       </c>
       <c r="O9">
-        <v>13.89087516078079</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>14.36895911945238</v>
+        <v>10.08491396412569</v>
       </c>
       <c r="Q9">
-        <v>15.41225778320681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.9010611550365</v>
+      </c>
+      <c r="R9">
+        <v>14.25177336521329</v>
+      </c>
+      <c r="S9">
+        <v>15.38828770132729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.48723392473872</v>
+        <v>18.28729057464708</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.122779533762845</v>
+        <v>6.904104854410159</v>
       </c>
       <c r="E10">
-        <v>13.34130745838133</v>
+        <v>12.97515409474962</v>
       </c>
       <c r="F10">
-        <v>21.433214063438</v>
+        <v>21.24649329212678</v>
       </c>
       <c r="G10">
-        <v>28.61741957941481</v>
+        <v>29.0928486793966</v>
       </c>
       <c r="H10">
-        <v>1.581153121480143</v>
+        <v>1.65488523441369</v>
       </c>
       <c r="I10">
-        <v>3.569198551960509</v>
+        <v>3.368821832381768</v>
       </c>
       <c r="J10">
-        <v>9.001206604441144</v>
+        <v>9.218989075584128</v>
       </c>
       <c r="K10">
-        <v>14.28132393708694</v>
+        <v>13.76251226081569</v>
       </c>
       <c r="L10">
-        <v>9.197799728952994</v>
+        <v>10.85159584964368</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.381993663299317</v>
       </c>
       <c r="N10">
-        <v>10.79127842738625</v>
+        <v>9.017216370754296</v>
       </c>
       <c r="O10">
-        <v>14.81884369355615</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>14.52229345718138</v>
+        <v>10.78978827193004</v>
       </c>
       <c r="Q10">
-        <v>16.06609095295625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.81734363580695</v>
+      </c>
+      <c r="R10">
+        <v>14.45218177206199</v>
+      </c>
+      <c r="S10">
+        <v>15.95283192935694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.64115210340196</v>
+        <v>18.47088742242408</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.128034706752541</v>
+        <v>6.902946183286746</v>
       </c>
       <c r="E11">
-        <v>14.03838872269739</v>
+        <v>13.63161264537827</v>
       </c>
       <c r="F11">
-        <v>20.80293890678249</v>
+        <v>20.51001556225914</v>
       </c>
       <c r="G11">
-        <v>28.27483759720357</v>
+        <v>29.85741747601854</v>
       </c>
       <c r="H11">
-        <v>2.642788966933766</v>
+        <v>2.662322231021118</v>
       </c>
       <c r="I11">
-        <v>3.545734091239012</v>
+        <v>3.356990881239306</v>
       </c>
       <c r="J11">
-        <v>8.866149816813639</v>
+        <v>8.556282349970576</v>
       </c>
       <c r="K11">
-        <v>14.0247963718591</v>
+        <v>13.54482822618053</v>
       </c>
       <c r="L11">
-        <v>9.65424085559553</v>
+        <v>10.75217552469038</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.181681290295677</v>
       </c>
       <c r="N11">
-        <v>10.57091998321906</v>
+        <v>9.457034506829221</v>
       </c>
       <c r="O11">
-        <v>14.71608094670239</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>14.86592163927645</v>
+        <v>10.43923717677055</v>
       </c>
       <c r="Q11">
-        <v>15.82863265857217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.67707303473671</v>
+      </c>
+      <c r="R11">
+        <v>14.80574736917431</v>
+      </c>
+      <c r="S11">
+        <v>15.58772877523164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.52591568655193</v>
+        <v>18.3940855793976</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.156770280472209</v>
+        <v>6.921340038948516</v>
       </c>
       <c r="E12">
-        <v>14.62698836963251</v>
+        <v>14.18415682379447</v>
       </c>
       <c r="F12">
-        <v>20.12440907904213</v>
+        <v>19.80386952455448</v>
       </c>
       <c r="G12">
-        <v>27.62399585664533</v>
+        <v>29.74266890444677</v>
       </c>
       <c r="H12">
-        <v>4.066475863008536</v>
+        <v>4.042703514391301</v>
       </c>
       <c r="I12">
-        <v>3.54299189411344</v>
+        <v>3.355876223147225</v>
       </c>
       <c r="J12">
-        <v>8.710407875563494</v>
+        <v>8.185869023718684</v>
       </c>
       <c r="K12">
-        <v>13.93951833483465</v>
+        <v>13.48041509930243</v>
       </c>
       <c r="L12">
-        <v>10.02103920194058</v>
+        <v>10.74815253848718</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.101179531822336</v>
       </c>
       <c r="N12">
-        <v>10.20613343526428</v>
+        <v>9.807311607373673</v>
       </c>
       <c r="O12">
-        <v>14.42804074487388</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>15.12668925502659</v>
+        <v>9.98894158202979</v>
       </c>
       <c r="Q12">
-        <v>15.49240383104502</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.3695427454626</v>
+      </c>
+      <c r="R12">
+        <v>15.05828577223062</v>
+      </c>
+      <c r="S12">
+        <v>15.2042183530471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.1645246458502</v>
+        <v>18.08695102490371</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.201557511942042</v>
+        <v>6.958621317580628</v>
       </c>
       <c r="E13">
-        <v>15.16819627626783</v>
+        <v>14.70687059209593</v>
       </c>
       <c r="F13">
-        <v>19.33102741032884</v>
+        <v>19.07164183831652</v>
       </c>
       <c r="G13">
-        <v>26.64416677163822</v>
+        <v>28.69412800097113</v>
       </c>
       <c r="H13">
-        <v>5.510714882142124</v>
+        <v>5.492072468829208</v>
       </c>
       <c r="I13">
-        <v>3.569130677534407</v>
+        <v>3.378133077433546</v>
       </c>
       <c r="J13">
-        <v>8.521173789029246</v>
+        <v>8.092867592575214</v>
       </c>
       <c r="K13">
-        <v>13.96937552891952</v>
+        <v>13.51352022532446</v>
       </c>
       <c r="L13">
-        <v>10.3436212824511</v>
+        <v>10.78574368739194</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.110035649378354</v>
       </c>
       <c r="N13">
-        <v>9.7208422937038</v>
+        <v>10.11826729968979</v>
       </c>
       <c r="O13">
-        <v>13.97471399842601</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>15.34687729269239</v>
+        <v>9.459272093141822</v>
       </c>
       <c r="Q13">
-        <v>15.03771241536223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.91561383762044</v>
+      </c>
+      <c r="R13">
+        <v>15.25135878134663</v>
+      </c>
+      <c r="S13">
+        <v>14.7916897071304</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.78913734582378</v>
+        <v>17.75745386129621</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.242477348706002</v>
+        <v>6.998062560637062</v>
       </c>
       <c r="E14">
-        <v>15.53490095942802</v>
+        <v>15.07026103873358</v>
       </c>
       <c r="F14">
-        <v>18.71459480950174</v>
+        <v>18.5363721782733</v>
       </c>
       <c r="G14">
-        <v>25.7902928034384</v>
+        <v>27.5248289868454</v>
       </c>
       <c r="H14">
-        <v>6.528419031627148</v>
+        <v>6.511300452271144</v>
       </c>
       <c r="I14">
-        <v>3.602980463072692</v>
+        <v>3.407336857775572</v>
       </c>
       <c r="J14">
-        <v>8.371801917085115</v>
+        <v>8.141525091914302</v>
       </c>
       <c r="K14">
-        <v>14.04605646604041</v>
+        <v>13.58094483038937</v>
       </c>
       <c r="L14">
-        <v>10.5546940328338</v>
+        <v>10.82571294294476</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.162781489237245</v>
       </c>
       <c r="N14">
-        <v>9.325418699049463</v>
+        <v>10.32370839978672</v>
       </c>
       <c r="O14">
-        <v>13.5769250811083</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>15.48570714417256</v>
+        <v>9.039156338233159</v>
       </c>
       <c r="Q14">
-        <v>14.65937321385003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.52552006893274</v>
+      </c>
+      <c r="R14">
+        <v>15.36212693125931</v>
+      </c>
+      <c r="S14">
+        <v>14.48212976545913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.63639007292264</v>
+        <v>17.61926098079476</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.252864670316875</v>
+        <v>7.010166046640517</v>
       </c>
       <c r="E15">
-        <v>15.60852362503372</v>
+        <v>15.1479905969063</v>
       </c>
       <c r="F15">
-        <v>18.53599626125317</v>
+        <v>18.39381659008036</v>
       </c>
       <c r="G15">
-        <v>25.50357851747239</v>
+        <v>27.04598397538052</v>
       </c>
       <c r="H15">
-        <v>6.764502345004379</v>
+        <v>6.747259780871024</v>
       </c>
       <c r="I15">
-        <v>3.621495397382136</v>
+        <v>3.424267154925683</v>
       </c>
       <c r="J15">
-        <v>8.327678984381718</v>
+        <v>8.20189156046356</v>
       </c>
       <c r="K15">
-        <v>14.08458607260664</v>
+        <v>13.61346435263008</v>
       </c>
       <c r="L15">
-        <v>10.59419598951149</v>
+        <v>10.8381828448485</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.194129815645992</v>
       </c>
       <c r="N15">
-        <v>9.207339267254811</v>
+        <v>10.36331918093566</v>
       </c>
       <c r="O15">
-        <v>13.4448896489135</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>15.51226488359942</v>
+        <v>8.917708060993283</v>
       </c>
       <c r="Q15">
-        <v>14.53940365077282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.39880890483868</v>
+      </c>
+      <c r="R15">
+        <v>15.3782069430142</v>
+      </c>
+      <c r="S15">
+        <v>14.39565589675457</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.12704462137274</v>
+        <v>17.13380632995915</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.236214516703384</v>
+        <v>7.010378840386896</v>
       </c>
       <c r="E16">
-        <v>15.36033210819177</v>
+        <v>14.94176858213728</v>
       </c>
       <c r="F16">
-        <v>18.34914838436766</v>
+        <v>18.33805166357056</v>
       </c>
       <c r="G16">
-        <v>24.86033948697009</v>
+        <v>25.44144301786522</v>
       </c>
       <c r="H16">
-        <v>6.55795702472157</v>
+        <v>6.536065384158488</v>
       </c>
       <c r="I16">
-        <v>3.691502367714568</v>
+        <v>3.483952999979421</v>
       </c>
       <c r="J16">
-        <v>8.274466722753985</v>
+        <v>8.620875492527153</v>
       </c>
       <c r="K16">
-        <v>14.23706478340758</v>
+        <v>13.74074333333814</v>
       </c>
       <c r="L16">
-        <v>10.42544004782491</v>
+        <v>10.84947571361999</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.347328178191626</v>
       </c>
       <c r="N16">
-        <v>8.966322898719044</v>
+        <v>10.20802785728734</v>
       </c>
       <c r="O16">
-        <v>13.12494702777298</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>15.39548757633316</v>
+        <v>8.700193008600118</v>
       </c>
       <c r="Q16">
-        <v>14.32434900636679</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.10755354178577</v>
+      </c>
+      <c r="R16">
+        <v>15.23341522338808</v>
+      </c>
+      <c r="S16">
+        <v>14.31672832988211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.93725802106468</v>
+        <v>16.93413548315081</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.200554326189816</v>
+        <v>6.983561977104466</v>
       </c>
       <c r="E17">
-        <v>14.96494665035345</v>
+        <v>14.57120964297202</v>
       </c>
       <c r="F17">
-        <v>18.54264605649029</v>
+        <v>18.57164307488989</v>
       </c>
       <c r="G17">
-        <v>24.83955125569443</v>
+        <v>24.98026817070657</v>
       </c>
       <c r="H17">
-        <v>5.826861456821787</v>
+        <v>5.799558969764735</v>
       </c>
       <c r="I17">
-        <v>3.727759788462123</v>
+        <v>3.51512196495909</v>
       </c>
       <c r="J17">
-        <v>8.31508473127573</v>
+        <v>8.860406132713488</v>
       </c>
       <c r="K17">
-        <v>14.31269437001505</v>
+        <v>13.80672047887166</v>
       </c>
       <c r="L17">
-        <v>10.17818652202086</v>
+        <v>10.85102970094361</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.43138135882837</v>
       </c>
       <c r="N17">
-        <v>8.999305963714093</v>
+        <v>9.970931329056977</v>
       </c>
       <c r="O17">
-        <v>13.0969540979944</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>15.23283559707403</v>
+        <v>8.783164598560262</v>
       </c>
       <c r="Q17">
-        <v>14.36737535987519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>13.09347707453236</v>
+      </c>
+      <c r="R17">
+        <v>15.06726535287881</v>
+      </c>
+      <c r="S17">
+        <v>14.40903941420401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.02475647770708</v>
+        <v>16.98495379679194</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.154975722167143</v>
+        <v>6.94230814811308</v>
       </c>
       <c r="E18">
-        <v>14.42014447888626</v>
+        <v>14.04625392232208</v>
       </c>
       <c r="F18">
-        <v>19.09102148948981</v>
+        <v>19.11215155500572</v>
       </c>
       <c r="G18">
-        <v>25.36680855002597</v>
+        <v>25.29233672970023</v>
       </c>
       <c r="H18">
-        <v>4.586879291469699</v>
+        <v>4.550911240343493</v>
       </c>
       <c r="I18">
-        <v>3.728914200416753</v>
+        <v>3.513238688769384</v>
       </c>
       <c r="J18">
-        <v>8.44116056547959</v>
+        <v>9.059489527248942</v>
       </c>
       <c r="K18">
-        <v>14.34848931000474</v>
+        <v>13.84033148897542</v>
       </c>
       <c r="L18">
-        <v>9.8462149775246</v>
+        <v>10.85529281273273</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.47063721356907</v>
       </c>
       <c r="N18">
-        <v>9.265679028104579</v>
+        <v>9.649848047620569</v>
       </c>
       <c r="O18">
-        <v>13.31742118090659</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>15.01011411773007</v>
+        <v>9.130045850930211</v>
       </c>
       <c r="Q18">
-        <v>14.64006999642342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.32262813019653</v>
+      </c>
+      <c r="R18">
+        <v>14.8575655832684</v>
+      </c>
+      <c r="S18">
+        <v>14.68792933252749</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.28898536558259</v>
+        <v>17.19760533308416</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.122184090814606</v>
+        <v>6.910073089307931</v>
       </c>
       <c r="E19">
-        <v>13.86494606891238</v>
+        <v>13.50500690876019</v>
       </c>
       <c r="F19">
-        <v>19.8474657948679</v>
+        <v>19.8344928081534</v>
       </c>
       <c r="G19">
-        <v>26.24613344478049</v>
+        <v>26.07938795366767</v>
       </c>
       <c r="H19">
-        <v>3.127599771841073</v>
+        <v>3.076052315427392</v>
       </c>
       <c r="I19">
-        <v>3.716535677259976</v>
+        <v>3.503298162606046</v>
       </c>
       <c r="J19">
-        <v>8.617239600758383</v>
+        <v>9.241723823812682</v>
       </c>
       <c r="K19">
-        <v>14.37738550627598</v>
+        <v>13.86563576887539</v>
       </c>
       <c r="L19">
-        <v>9.507658837449352</v>
+        <v>10.87456842526382</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.487714369122765</v>
       </c>
       <c r="N19">
-        <v>9.728138416933216</v>
+        <v>9.32098938572978</v>
       </c>
       <c r="O19">
-        <v>13.71791361847332</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>14.78183335725064</v>
+        <v>9.672520489307804</v>
       </c>
       <c r="Q19">
-        <v>15.05427482076988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.72925187393113</v>
+      </c>
+      <c r="R19">
+        <v>14.65066849286673</v>
+      </c>
+      <c r="S19">
+        <v>15.08512245394901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.08836287228348</v>
+        <v>17.90646378287899</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.118617803235294</v>
+        <v>6.901482439696613</v>
       </c>
       <c r="E20">
-        <v>13.27334827336202</v>
+        <v>12.91654599005127</v>
       </c>
       <c r="F20">
-        <v>21.1925607066145</v>
+        <v>21.07499797260168</v>
       </c>
       <c r="G20">
-        <v>28.09228302100463</v>
+        <v>28.13319382020425</v>
       </c>
       <c r="H20">
-        <v>1.636723591533451</v>
+        <v>1.583886353371221</v>
       </c>
       <c r="I20">
-        <v>3.637394436930662</v>
+        <v>3.435165406003867</v>
       </c>
       <c r="J20">
-        <v>8.937190998135765</v>
+        <v>9.391655645576019</v>
       </c>
       <c r="K20">
-        <v>14.36995451534915</v>
+        <v>13.84633773389784</v>
       </c>
       <c r="L20">
-        <v>9.145429295141783</v>
+        <v>10.89237635301885</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.453088636558453</v>
       </c>
       <c r="N20">
-        <v>10.64154713818967</v>
+        <v>8.966800965306703</v>
       </c>
       <c r="O20">
-        <v>14.58338531292135</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>14.5071558479737</v>
+        <v>10.66495500685776</v>
       </c>
       <c r="Q20">
-        <v>15.8659592021112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.59449220845282</v>
+      </c>
+      <c r="R20">
+        <v>14.41990176762566</v>
+      </c>
+      <c r="S20">
+        <v>15.81966316664373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.13818029573564</v>
+        <v>18.88603809936557</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.127608645243658</v>
+        <v>6.907880095399356</v>
       </c>
       <c r="E21">
-        <v>13.44501023609504</v>
+        <v>13.03846701379341</v>
       </c>
       <c r="F21">
-        <v>21.92449740499183</v>
+        <v>21.50586350521748</v>
       </c>
       <c r="G21">
-        <v>29.64867962468957</v>
+        <v>31.6034487054506</v>
       </c>
       <c r="H21">
-        <v>1.722182819008707</v>
+        <v>1.781892557694086</v>
       </c>
       <c r="I21">
-        <v>3.504939597700602</v>
+        <v>3.324559202248709</v>
       </c>
       <c r="J21">
-        <v>9.132112017282383</v>
+        <v>8.548823212742576</v>
       </c>
       <c r="K21">
-        <v>14.08896317963008</v>
+        <v>13.57833147172896</v>
       </c>
       <c r="L21">
-        <v>9.28128813604047</v>
+        <v>10.76439846266512</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.228084586982401</v>
       </c>
       <c r="N21">
-        <v>11.28915637666332</v>
+        <v>9.087509458351423</v>
       </c>
       <c r="O21">
-        <v>15.35536130101798</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>14.58188667189168</v>
+        <v>11.22548791967943</v>
       </c>
       <c r="Q21">
-        <v>16.46597351065253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.30823499505866</v>
+      </c>
+      <c r="R21">
+        <v>14.55780350266819</v>
+      </c>
+      <c r="S21">
+        <v>16.12638195799628</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.79280932026738</v>
+        <v>19.49631269650154</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.13422405261025</v>
+        <v>6.915834266143722</v>
       </c>
       <c r="E22">
-        <v>13.57620563306313</v>
+        <v>13.13516658038077</v>
       </c>
       <c r="F22">
-        <v>22.36602824361519</v>
+        <v>21.73779184729625</v>
       </c>
       <c r="G22">
-        <v>30.59782259960024</v>
+        <v>33.86100422888741</v>
       </c>
       <c r="H22">
-        <v>1.860391777480025</v>
+        <v>1.906936685886957</v>
       </c>
       <c r="I22">
-        <v>3.412190271149125</v>
+        <v>3.243678351132282</v>
       </c>
       <c r="J22">
-        <v>9.253239259621704</v>
+        <v>7.975001043834795</v>
       </c>
       <c r="K22">
-        <v>13.9081062768684</v>
+        <v>13.40583470685659</v>
       </c>
       <c r="L22">
-        <v>9.381709981214339</v>
+        <v>10.69116811099713</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.088931597722254</v>
       </c>
       <c r="N22">
-        <v>11.64534623242017</v>
+        <v>9.176850230861385</v>
       </c>
       <c r="O22">
-        <v>15.80993313092497</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>14.63741033561478</v>
+        <v>11.5197093297966</v>
       </c>
       <c r="Q22">
-        <v>16.83572770171033</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>15.72192881451461</v>
+      </c>
+      <c r="R22">
+        <v>14.65590818433668</v>
+      </c>
+      <c r="S22">
+        <v>16.2918794283099</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.46746025653899</v>
+        <v>19.19808512175181</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.131496236659944</v>
+        <v>6.911656635549425</v>
       </c>
       <c r="E23">
-        <v>13.49934692602609</v>
+        <v>13.08398496060175</v>
       </c>
       <c r="F23">
-        <v>22.14723926907113</v>
+        <v>21.66040804774907</v>
       </c>
       <c r="G23">
-        <v>30.11271564294006</v>
+        <v>32.4717957829037</v>
       </c>
       <c r="H23">
-        <v>1.787365316036993</v>
+        <v>1.84183909518658</v>
       </c>
       <c r="I23">
-        <v>3.451334784810105</v>
+        <v>3.274000436564465</v>
       </c>
       <c r="J23">
-        <v>9.192422287593109</v>
+        <v>8.386519418138514</v>
       </c>
       <c r="K23">
-        <v>14.01011493419036</v>
+        <v>13.50290552709486</v>
       </c>
       <c r="L23">
-        <v>9.323637741634313</v>
+        <v>10.73133551725092</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>9.168570994263114</v>
       </c>
       <c r="N23">
-        <v>11.43970916943178</v>
+        <v>9.127834255924345</v>
       </c>
       <c r="O23">
-        <v>15.56722871905135</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>14.59788638053378</v>
+        <v>11.35558229478055</v>
       </c>
       <c r="Q23">
-        <v>16.64786361500081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.50797408952672</v>
+      </c>
+      <c r="R23">
+        <v>14.59046853832541</v>
+      </c>
+      <c r="S23">
+        <v>16.2429293491949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.14134538127295</v>
+        <v>17.95325855575663</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.121408239430135</v>
+        <v>6.903912112483917</v>
       </c>
       <c r="E24">
-        <v>13.21686221752682</v>
+        <v>12.86023125983761</v>
       </c>
       <c r="F24">
-        <v>21.29369129131267</v>
+        <v>21.17308130976394</v>
       </c>
       <c r="G24">
-        <v>28.20188766866546</v>
+        <v>28.21979036491797</v>
       </c>
       <c r="H24">
-        <v>1.618264055861282</v>
+        <v>1.584570234453146</v>
       </c>
       <c r="I24">
-        <v>3.620301106954117</v>
+        <v>3.414901754754544</v>
       </c>
       <c r="J24">
-        <v>8.960525266905233</v>
+        <v>9.421545807182831</v>
       </c>
       <c r="K24">
-        <v>14.39270651409263</v>
+        <v>13.86533046079305</v>
       </c>
       <c r="L24">
-        <v>9.108244399469328</v>
+        <v>10.9059542017346</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>9.468100711638483</v>
       </c>
       <c r="N24">
-        <v>10.65722297184908</v>
+        <v>8.929939120993064</v>
       </c>
       <c r="O24">
-        <v>14.61485632094179</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>14.46929935940399</v>
+        <v>10.68787112235954</v>
       </c>
       <c r="Q24">
-        <v>15.9191551703685</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.62707215151352</v>
+      </c>
+      <c r="R24">
+        <v>14.38350795412743</v>
+      </c>
+      <c r="S24">
+        <v>15.87220308982122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.58350636469359</v>
+        <v>16.43432119910406</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.113655822185076</v>
+        <v>6.90186452588279</v>
       </c>
       <c r="E25">
-        <v>12.90607628212778</v>
+        <v>12.52953228416742</v>
       </c>
       <c r="F25">
-        <v>20.38192834331305</v>
+        <v>20.31990068059786</v>
       </c>
       <c r="G25">
-        <v>26.05626664721591</v>
+        <v>25.83724911102016</v>
       </c>
       <c r="H25">
-        <v>1.944427074388477</v>
+        <v>1.844809448820514</v>
       </c>
       <c r="I25">
-        <v>3.81221877327081</v>
+        <v>3.581542136388332</v>
       </c>
       <c r="J25">
-        <v>8.721627565084805</v>
+        <v>9.290883805598558</v>
       </c>
       <c r="K25">
-        <v>14.8179802713527</v>
+        <v>14.25848082366412</v>
       </c>
       <c r="L25">
-        <v>8.869609259423751</v>
+        <v>11.13127934817825</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.816024916543874</v>
       </c>
       <c r="N25">
-        <v>9.74785610419911</v>
+        <v>8.674558435951974</v>
       </c>
       <c r="O25">
-        <v>13.51291494959003</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>14.34148038901544</v>
+        <v>9.815179940412175</v>
       </c>
       <c r="Q25">
-        <v>15.13187350214477</v>
+        <v>13.52510396178729</v>
+      </c>
+      <c r="R25">
+        <v>14.20690118490275</v>
+      </c>
+      <c r="S25">
+        <v>15.13467129691577</v>
       </c>
     </row>
   </sheetData>
